--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322912C2-3F5A-4667-A698-6067636C39CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30620F1-FF02-4D44-89CA-569BB277F7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
@@ -214,8 +214,8 @@
     <definedName name="P.1">'[3]プロセス（課税明細書）'!$A$1</definedName>
     <definedName name="P.2">'[3]プロセス（課税明細書）'!$A$65</definedName>
     <definedName name="P.3">'[3]プロセス（課税明細書）'!$A$129</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">GJ8010_コード一覧表_チェックリスト!$A$1:$I$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">GJ8010_コード一覧表_項目チェック!$A$1:$CA$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">GJ8010_コード一覧表_チェックリスト!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">GJ8010_コード一覧表_項目チェック!$A$1:$CA$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8011_コードマスタメンテナンス_チェックリスト!$A$1:$I$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">GJ8011_コードマスタメンテナンス_項目チェック!$A$1:$CA$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">実施結果報告書!$A$1:$K$20</definedName>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="171">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -755,31 +755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名称コードリンク</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称リンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックして正常に遷移できること</t>
-    <rPh sb="6" eb="8">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックして正常に遷移できること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ダブルクリックして正常に遷移できること</t>
     <rPh sb="9" eb="11">
       <t>セイジョウ</t>
@@ -958,31 +933,6 @@
   <si>
     <t>現行システムと一致すること</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現行システムと同様に、「種類区分」が入力された場合のみ、「新規登録」が活性化されること</t>
-    <rPh sb="12" eb="14">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>カッセイカ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
   </si>
   <si>
     <t>各列の配置は現行システムと一致すること</t>
@@ -1598,6 +1548,41 @@
   <si>
     <t>マスタメンテナンス</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更（表示）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行システムと同様に、「種類区分」が入力された場合のみ、「新規登録」と「変更（表示）」が活性化されること</t>
+    <rPh sb="12" eb="14">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>カッセイカ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
   </si>
 </sst>
 </file>
@@ -2665,12 +2650,51 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2683,51 +2707,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2740,12 +2725,63 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2755,9 +2791,63 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2773,24 +2863,6 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2803,31 +2875,13 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2842,74 +2896,14 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="21" fillId="6" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="6" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="6" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2920,6 +2914,9 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2928,18 +2925,6 @@
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="6" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="6" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="6" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2951,21 +2936,7 @@
     <cellStyle name="標準 5" xfId="4" xr:uid="{995CF52B-56E0-4E71-A9B5-D761A557A3F5}"/>
     <cellStyle name="標準 6" xfId="5" xr:uid="{5AB37F2C-1356-43C0-A642-8019E4F0971A}"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -3977,136 +3948,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="62" t="s">
+      <c r="A1" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="63"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="44"/>
-      <c r="G1" s="53" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="67" t="s">
+      <c r="G1" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="53" t="s">
-        <v>172</v>
+      <c r="K1" s="47" t="s">
+        <v>167</v>
       </c>
       <c r="M1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="45"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="53"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="47"/>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="63"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="44"/>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67" t="s">
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="54"/>
+      <c r="K3" s="66"/>
       <c r="M3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="45"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="67"/>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="I6" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="J6" s="49" t="s">
+      <c r="H6" s="56" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="52"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
@@ -4116,7 +4087,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -4124,15 +4095,15 @@
       <c r="G8" s="46"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -4143,8 +4114,8 @@
       <c r="G9" s="46"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -4156,8 +4127,8 @@
       <c r="G10" s="46"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -4169,8 +4140,8 @@
       <c r="G11" s="46"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -4182,8 +4153,8 @@
       <c r="G12" s="46"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -4195,8 +4166,8 @@
       <c r="G13" s="46"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -4208,8 +4179,8 @@
       <c r="G14" s="46"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -4221,8 +4192,8 @@
       <c r="G15" s="46"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -4234,8 +4205,8 @@
       <c r="G16" s="46"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -4247,8 +4218,8 @@
       <c r="G17" s="46"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -4260,8 +4231,8 @@
       <c r="G18" s="46"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -4273,8 +4244,8 @@
       <c r="G19" s="46"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -4286,11 +4257,27 @@
       <c r="G20" s="46"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K7"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -4307,29 +4294,13 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4345,7 +4316,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25A2F4-F93D-40FA-AE03-A5E4091A0730}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -4421,7 +4392,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -4478,21 +4449,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4510,7 +4481,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -4573,7 +4544,7 @@
         <v>35</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
@@ -4594,7 +4565,7 @@
         <v>36</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
@@ -4612,10 +4583,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -4636,17 +4607,17 @@
         <v>37</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="23"/>
       <c r="H14" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A15" s="69" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -4662,7 +4633,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>38</v>
@@ -4671,7 +4642,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -4683,21 +4654,21 @@
         <v>12</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
       <c r="H17" s="24" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="37.5">
@@ -4706,16 +4677,16 @@
         <v>13</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -4727,21 +4698,21 @@
         <v>14</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4758,7 +4729,7 @@
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A21" s="19">
-        <f t="shared" ref="A21:A27" ca="1" si="2">IF(ISNUMBER(OFFSET(A21, -1, 0)), OFFSET(A21, -1, 0) + 1, OFFSET(A20, -1, 0) + 1)</f>
+        <f t="shared" ref="A21:A25" ca="1" si="2">IF(ISNUMBER(OFFSET(A21, -1, 0)), OFFSET(A21, -1, 0) + 1, OFFSET(A20, -1, 0) + 1)</f>
         <v>15</v>
       </c>
       <c r="B21" s="32" t="s">
@@ -4768,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -4786,13 +4757,13 @@
         <v>43</v>
       </c>
       <c r="C22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="32" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>67</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="33"/>
@@ -4804,21 +4775,21 @@
         <v>17</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="37"/>
       <c r="H23" s="38" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4829,18 +4800,18 @@
       <c r="B24" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="C24" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="36" t="s">
-        <v>68</v>
+      <c r="E24" s="32" t="s">
+        <v>65</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A25" s="19">
@@ -4848,112 +4819,68 @@
         <v>19</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>66</v>
+        <v>127</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="37"/>
       <c r="H25" s="38" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A26" s="19">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(ISNUMBER(OFFSET(A26, -1, 0)), OFFSET(A26, -1, 0) + 1, OFFSET(A22, -1, 0) + 1)</f>
         <v>20</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D26" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="33"/>
       <c r="H26" s="34"/>
     </row>
-    <row r="27" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A27" s="19">
-        <f t="shared" ca="1" si="2"/>
+    <row r="27" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A27" s="25">
+        <f ca="1">IF(ISNUMBER(OFFSET(A27, -1, 0)), OFFSET(A27, -1, 0) + 1, OFFSET(A22, -1, 0) + 1)</f>
         <v>21</v>
       </c>
-      <c r="B27" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A28" s="19">
-        <f ca="1">IF(ISNUMBER(OFFSET(A28, -1, 0)), OFFSET(A28, -1, 0) + 1, OFFSET(A26, -1, 0) + 1)</f>
-        <v>22</v>
-      </c>
-      <c r="B28" s="32" t="s">
+      <c r="B27" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-    </row>
-    <row r="29" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A29" s="25">
-        <f ca="1">IF(ISNUMBER(OFFSET(A29, -1, 0)), OFFSET(A29, -1, 0) + 1, OFFSET(A26, -1, 0) + 1)</f>
-        <v>23</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="C27" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="11.25" customHeight="1"/>
+      <c r="D27" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
@@ -4962,27 +4889,19 @@
     <mergeCell ref="A20:H20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:F14">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+  <conditionalFormatting sqref="F5:F14 F21:F27">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F29">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"―"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4995,7 +4914,7 @@
           <x14:formula1>
             <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F16:F19 F5:F14 F21:F29</xm:sqref>
+          <xm:sqref>F16:F19 F5:F14 F21:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5005,7 +4924,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82DF7A6-4ADB-4BAF-8A0B-21B2D75F1550}">
-  <dimension ref="B2:BX24"/>
+  <dimension ref="B2:BX25"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -5024,926 +4943,1108 @@
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
       <c r="B2" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG3" s="97"/>
+      <c r="BH3" s="97"/>
+      <c r="BI3" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ3" s="94"/>
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="94"/>
+      <c r="BM3" s="95"/>
+      <c r="BN3" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="73"/>
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="74"/>
+    </row>
+    <row r="4" spans="2:76" ht="16.5">
+      <c r="B4" s="86">
+        <v>1</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="100"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="93"/>
+      <c r="R4" s="91"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="93"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="93"/>
+      <c r="AG4" s="91"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="92"/>
+      <c r="AK4" s="93"/>
+      <c r="AL4" s="91"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="92"/>
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="93"/>
+      <c r="AV4" s="91"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="92"/>
+      <c r="AY4" s="92"/>
+      <c r="AZ4" s="93"/>
+      <c r="BA4" s="91"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="127" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG4" s="128"/>
+      <c r="BH4" s="128"/>
+      <c r="BI4" s="91"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="92"/>
+      <c r="BM4" s="93"/>
+      <c r="BN4" s="125"/>
+      <c r="BO4" s="125"/>
+      <c r="BP4" s="125"/>
+      <c r="BQ4" s="125"/>
+      <c r="BR4" s="125"/>
+      <c r="BS4" s="125"/>
+      <c r="BT4" s="125"/>
+      <c r="BU4" s="125"/>
+      <c r="BV4" s="125"/>
+      <c r="BW4" s="125"/>
+      <c r="BX4" s="126"/>
+    </row>
+    <row r="5" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B5" s="101">
+        <v>2</v>
+      </c>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="107"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="107"/>
+      <c r="Q5" s="108"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="107"/>
+      <c r="U5" s="107"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="107"/>
+      <c r="Z5" s="107"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="106"/>
+      <c r="AC5" s="107"/>
+      <c r="AD5" s="107"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="108"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="107"/>
+      <c r="AI5" s="107"/>
+      <c r="AJ5" s="107"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="107"/>
+      <c r="AN5" s="107"/>
+      <c r="AO5" s="107"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="107"/>
+      <c r="AS5" s="107"/>
+      <c r="AT5" s="107"/>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="106"/>
+      <c r="AW5" s="107"/>
+      <c r="AX5" s="107"/>
+      <c r="AY5" s="107"/>
+      <c r="AZ5" s="108"/>
+      <c r="BA5" s="106"/>
+      <c r="BB5" s="107"/>
+      <c r="BC5" s="107"/>
+      <c r="BD5" s="107"/>
+      <c r="BE5" s="108"/>
+      <c r="BF5" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG5" s="112"/>
+      <c r="BH5" s="112"/>
+      <c r="BI5" s="106"/>
+      <c r="BJ5" s="107"/>
+      <c r="BK5" s="107"/>
+      <c r="BL5" s="107"/>
+      <c r="BM5" s="108"/>
+      <c r="BN5" s="105"/>
+      <c r="BO5" s="105"/>
+      <c r="BP5" s="105"/>
+      <c r="BQ5" s="105"/>
+      <c r="BR5" s="105"/>
+      <c r="BS5" s="105"/>
+      <c r="BT5" s="105"/>
+      <c r="BU5" s="105"/>
+      <c r="BV5" s="105"/>
+      <c r="BW5" s="105"/>
+      <c r="BX5" s="110"/>
+    </row>
+    <row r="6" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B6" s="101">
+        <v>3</v>
+      </c>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="106"/>
+      <c r="BB6" s="107"/>
+      <c r="BC6" s="107"/>
+      <c r="BD6" s="107"/>
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG6" s="112"/>
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="106"/>
+      <c r="BJ6" s="107"/>
+      <c r="BK6" s="107"/>
+      <c r="BL6" s="107"/>
+      <c r="BM6" s="108"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
+      <c r="BQ6" s="105"/>
+      <c r="BR6" s="105"/>
+      <c r="BS6" s="105"/>
+      <c r="BT6" s="105"/>
+      <c r="BU6" s="105"/>
+      <c r="BV6" s="105"/>
+      <c r="BW6" s="105"/>
+      <c r="BX6" s="110"/>
+    </row>
+    <row r="7" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B7" s="101">
+        <v>4</v>
+      </c>
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="108"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="108"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="108"/>
+      <c r="BF7" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="107"/>
+      <c r="BK7" s="107"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="108"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
+      <c r="BQ7" s="105"/>
+      <c r="BR7" s="105"/>
+      <c r="BS7" s="105"/>
+      <c r="BT7" s="105"/>
+      <c r="BU7" s="105"/>
+      <c r="BV7" s="105"/>
+      <c r="BW7" s="105"/>
+      <c r="BX7" s="110"/>
+    </row>
+    <row r="8" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B8" s="101">
+        <v>5</v>
+      </c>
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="107"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="107"/>
+      <c r="AY8" s="107"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="107"/>
+      <c r="BC8" s="107"/>
+      <c r="BD8" s="107"/>
+      <c r="BE8" s="108"/>
+      <c r="BF8" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG8" s="112"/>
+      <c r="BH8" s="112"/>
+      <c r="BI8" s="106"/>
+      <c r="BJ8" s="107"/>
+      <c r="BK8" s="107"/>
+      <c r="BL8" s="107"/>
+      <c r="BM8" s="108"/>
+      <c r="BN8" s="105"/>
+      <c r="BO8" s="105"/>
+      <c r="BP8" s="105"/>
+      <c r="BQ8" s="105"/>
+      <c r="BR8" s="105"/>
+      <c r="BS8" s="105"/>
+      <c r="BT8" s="105"/>
+      <c r="BU8" s="105"/>
+      <c r="BV8" s="105"/>
+      <c r="BW8" s="105"/>
+      <c r="BX8" s="110"/>
+    </row>
+    <row r="9" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B9" s="101">
+        <v>6</v>
+      </c>
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="106"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="108"/>
+      <c r="BF9" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG9" s="112"/>
+      <c r="BH9" s="112"/>
+      <c r="BI9" s="106"/>
+      <c r="BJ9" s="107"/>
+      <c r="BK9" s="107"/>
+      <c r="BL9" s="107"/>
+      <c r="BM9" s="108"/>
+      <c r="BN9" s="105"/>
+      <c r="BO9" s="105"/>
+      <c r="BP9" s="105"/>
+      <c r="BQ9" s="105"/>
+      <c r="BR9" s="105"/>
+      <c r="BS9" s="105"/>
+      <c r="BT9" s="105"/>
+      <c r="BU9" s="105"/>
+      <c r="BV9" s="105"/>
+      <c r="BW9" s="105"/>
+      <c r="BX9" s="110"/>
+    </row>
+    <row r="10" spans="2:76" ht="16.5" customHeight="1">
+      <c r="B10" s="113">
+        <v>7</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="121"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="120"/>
+      <c r="AG10" s="121"/>
+      <c r="AH10" s="119"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="119"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="121"/>
+      <c r="AM10" s="119"/>
+      <c r="AN10" s="119"/>
+      <c r="AO10" s="119"/>
+      <c r="AP10" s="120"/>
+      <c r="AQ10" s="121"/>
+      <c r="AR10" s="119"/>
+      <c r="AS10" s="119"/>
+      <c r="AT10" s="119"/>
+      <c r="AU10" s="120"/>
+      <c r="AV10" s="121"/>
+      <c r="AW10" s="119"/>
+      <c r="AX10" s="119"/>
+      <c r="AY10" s="119"/>
+      <c r="AZ10" s="120"/>
+      <c r="BA10" s="118"/>
+      <c r="BB10" s="119"/>
+      <c r="BC10" s="119"/>
+      <c r="BD10" s="119"/>
+      <c r="BE10" s="120"/>
+      <c r="BF10" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG10" s="123"/>
+      <c r="BH10" s="123"/>
+      <c r="BI10" s="121"/>
+      <c r="BJ10" s="119"/>
+      <c r="BK10" s="119"/>
+      <c r="BL10" s="119"/>
+      <c r="BM10" s="120"/>
+      <c r="BN10" s="117"/>
+      <c r="BO10" s="117"/>
+      <c r="BP10" s="117"/>
+      <c r="BQ10" s="117"/>
+      <c r="BR10" s="117"/>
+      <c r="BS10" s="117"/>
+      <c r="BT10" s="117"/>
+      <c r="BU10" s="117"/>
+      <c r="BV10" s="117"/>
+      <c r="BW10" s="117"/>
+      <c r="BX10" s="124"/>
+    </row>
+    <row r="11" spans="2:76" ht="16.5">
+      <c r="B11" s="35" t="s">
         <v>104</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="77" t="s">
-        <v>101</v>
-      </c>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="116" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="117"/>
-      <c r="BA3" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ3" s="116"/>
-      <c r="BK3" s="116"/>
-      <c r="BL3" s="116"/>
-      <c r="BM3" s="117"/>
-      <c r="BN3" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="BO3" s="94"/>
-      <c r="BP3" s="94"/>
-      <c r="BQ3" s="94"/>
-      <c r="BR3" s="94"/>
-      <c r="BS3" s="94"/>
-      <c r="BT3" s="94"/>
-      <c r="BU3" s="94"/>
-      <c r="BV3" s="94"/>
-      <c r="BW3" s="94"/>
-      <c r="BX3" s="95"/>
-    </row>
-    <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="111">
-        <v>1</v>
-      </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="74"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="75"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="74"/>
-      <c r="AW4" s="75"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="75"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="74"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG4" s="105"/>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="74"/>
-      <c r="BJ4" s="75"/>
-      <c r="BK4" s="75"/>
-      <c r="BL4" s="75"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="102"/>
-      <c r="BO4" s="102"/>
-      <c r="BP4" s="102"/>
-      <c r="BQ4" s="102"/>
-      <c r="BR4" s="102"/>
-      <c r="BS4" s="102"/>
-      <c r="BT4" s="102"/>
-      <c r="BU4" s="102"/>
-      <c r="BV4" s="102"/>
-      <c r="BW4" s="102"/>
-      <c r="BX4" s="103"/>
-    </row>
-    <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="83">
-        <v>2</v>
-      </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
-      <c r="P5" s="98"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="100"/>
-      <c r="S5" s="98"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="100"/>
-      <c r="X5" s="98"/>
-      <c r="Y5" s="98"/>
-      <c r="Z5" s="98"/>
-      <c r="AA5" s="99"/>
-      <c r="AB5" s="100"/>
-      <c r="AC5" s="98"/>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="98"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="100"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="100"/>
-      <c r="AM5" s="98"/>
-      <c r="AN5" s="98"/>
-      <c r="AO5" s="98"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="98"/>
-      <c r="AS5" s="98"/>
-      <c r="AT5" s="98"/>
-      <c r="AU5" s="99"/>
-      <c r="AV5" s="100"/>
-      <c r="AW5" s="98"/>
-      <c r="AX5" s="98"/>
-      <c r="AY5" s="98"/>
-      <c r="AZ5" s="99"/>
-      <c r="BA5" s="100"/>
-      <c r="BB5" s="98"/>
-      <c r="BC5" s="98"/>
-      <c r="BD5" s="98"/>
-      <c r="BE5" s="99"/>
-      <c r="BF5" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG5" s="107"/>
-      <c r="BH5" s="107"/>
-      <c r="BI5" s="100"/>
-      <c r="BJ5" s="98"/>
-      <c r="BK5" s="98"/>
-      <c r="BL5" s="98"/>
-      <c r="BM5" s="99"/>
-      <c r="BN5" s="87"/>
-      <c r="BO5" s="87"/>
-      <c r="BP5" s="87"/>
-      <c r="BQ5" s="87"/>
-      <c r="BR5" s="87"/>
-      <c r="BS5" s="87"/>
-      <c r="BT5" s="87"/>
-      <c r="BU5" s="87"/>
-      <c r="BV5" s="87"/>
-      <c r="BW5" s="87"/>
-      <c r="BX5" s="101"/>
-    </row>
-    <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="83">
-        <v>3</v>
-      </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="99"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="99"/>
-      <c r="BF6" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG6" s="107"/>
-      <c r="BH6" s="107"/>
-      <c r="BI6" s="100"/>
-      <c r="BJ6" s="98"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="98"/>
-      <c r="BM6" s="99"/>
-      <c r="BN6" s="87"/>
-      <c r="BO6" s="87"/>
-      <c r="BP6" s="87"/>
-      <c r="BQ6" s="87"/>
-      <c r="BR6" s="87"/>
-      <c r="BS6" s="87"/>
-      <c r="BT6" s="87"/>
-      <c r="BU6" s="87"/>
-      <c r="BV6" s="87"/>
-      <c r="BW6" s="87"/>
-      <c r="BX6" s="101"/>
-    </row>
-    <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="83">
-        <v>4</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="100"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="100"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="107"/>
-      <c r="BI7" s="100"/>
-      <c r="BJ7" s="98"/>
-      <c r="BK7" s="98"/>
-      <c r="BL7" s="98"/>
-      <c r="BM7" s="99"/>
-      <c r="BN7" s="87"/>
-      <c r="BO7" s="87"/>
-      <c r="BP7" s="87"/>
-      <c r="BQ7" s="87"/>
-      <c r="BR7" s="87"/>
-      <c r="BS7" s="87"/>
-      <c r="BT7" s="87"/>
-      <c r="BU7" s="87"/>
-      <c r="BV7" s="87"/>
-      <c r="BW7" s="87"/>
-      <c r="BX7" s="101"/>
-    </row>
-    <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="83">
-        <v>5</v>
-      </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="98"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="100"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="100"/>
-      <c r="BB8" s="98"/>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG8" s="107"/>
-      <c r="BH8" s="107"/>
-      <c r="BI8" s="100"/>
-      <c r="BJ8" s="98"/>
-      <c r="BK8" s="98"/>
-      <c r="BL8" s="98"/>
-      <c r="BM8" s="99"/>
-      <c r="BN8" s="87"/>
-      <c r="BO8" s="87"/>
-      <c r="BP8" s="87"/>
-      <c r="BQ8" s="87"/>
-      <c r="BR8" s="87"/>
-      <c r="BS8" s="87"/>
-      <c r="BT8" s="87"/>
-      <c r="BU8" s="87"/>
-      <c r="BV8" s="87"/>
-      <c r="BW8" s="87"/>
-      <c r="BX8" s="101"/>
-    </row>
-    <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="78">
-        <v>6</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="91"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="90"/>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="90"/>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="90"/>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="91"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="90"/>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="90"/>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="90"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="91"/>
-      <c r="BA9" s="89"/>
-      <c r="BB9" s="90"/>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG9" s="109"/>
-      <c r="BH9" s="109"/>
-      <c r="BI9" s="92"/>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="90"/>
-      <c r="BL9" s="90"/>
-      <c r="BM9" s="91"/>
-      <c r="BN9" s="82"/>
-      <c r="BO9" s="82"/>
-      <c r="BP9" s="82"/>
-      <c r="BQ9" s="82"/>
-      <c r="BR9" s="82"/>
-      <c r="BS9" s="82"/>
-      <c r="BT9" s="82"/>
-      <c r="BU9" s="82"/>
-      <c r="BV9" s="82"/>
-      <c r="BW9" s="82"/>
-      <c r="BX9" s="110"/>
-    </row>
-    <row r="10" spans="2:76" ht="16.5">
-      <c r="B10" s="35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="2:76" ht="16.5">
-      <c r="I11" s="35" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:76" ht="16.5">
       <c r="I12" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="2:76" ht="15" customHeight="1">
-      <c r="B14" s="35" t="s">
-        <v>82</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:76" ht="16.5">
+      <c r="I13" s="35" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:76" ht="15" customHeight="1">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:76" ht="15" customHeight="1">
+      <c r="B16" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="93" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="96" t="s">
-        <v>79</v>
-      </c>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="72" t="s">
-        <v>80</v>
-      </c>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="73"/>
-    </row>
-    <row r="16" spans="2:76" ht="15" customHeight="1">
-      <c r="B16" s="83">
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="77"/>
+      <c r="Y16" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="77"/>
+    </row>
+    <row r="17" spans="2:39" ht="15" customHeight="1">
+      <c r="B17" s="101">
         <v>1</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="76"/>
-    </row>
-    <row r="17" spans="2:39" ht="15" customHeight="1">
-      <c r="B17" s="83">
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="100"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="R17" s="92"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="91"/>
+      <c r="U17" s="92"/>
+      <c r="V17" s="92"/>
+      <c r="W17" s="92"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="91"/>
+      <c r="Z17" s="92"/>
+      <c r="AA17" s="92"/>
+      <c r="AB17" s="92"/>
+      <c r="AC17" s="93"/>
+    </row>
+    <row r="18" spans="2:39" ht="15" customHeight="1">
+      <c r="B18" s="101">
         <v>2</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="99"/>
-      <c r="T17" s="100"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="100"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="99"/>
-    </row>
-    <row r="18" spans="2:39" ht="15" customHeight="1">
-      <c r="B18" s="78">
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="108"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="107"/>
+      <c r="W18" s="107"/>
+      <c r="X18" s="108"/>
+      <c r="Y18" s="106"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="108"/>
+    </row>
+    <row r="19" spans="2:39" ht="15" customHeight="1">
+      <c r="B19" s="113">
         <v>3</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81" t="s">
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="Q18" s="90"/>
-      <c r="R18" s="90"/>
-      <c r="S18" s="91"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="90"/>
-      <c r="V18" s="90"/>
-      <c r="W18" s="90"/>
-      <c r="X18" s="91"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="90"/>
-      <c r="AB18" s="90"/>
-      <c r="AC18" s="91"/>
-    </row>
-    <row r="20" spans="2:39" ht="16.5">
-      <c r="B20" s="35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="2:39" ht="15" customHeight="1">
-      <c r="B21" s="93" t="s">
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="121"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="119"/>
+      <c r="AC19" s="120"/>
+    </row>
+    <row r="21" spans="2:39" ht="16.5">
+      <c r="B21" s="35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:39" ht="15" customHeight="1">
+      <c r="B22" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="96" t="s">
-        <v>123</v>
-      </c>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
-      <c r="AA21" s="72"/>
-      <c r="AB21" s="72"/>
-      <c r="AC21" s="72"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="96" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF21" s="72"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="72"/>
-      <c r="AI21" s="72"/>
-      <c r="AJ21" s="72"/>
-      <c r="AK21" s="72"/>
-      <c r="AL21" s="72"/>
-      <c r="AM21" s="73"/>
-    </row>
-    <row r="22" spans="2:39" ht="15" customHeight="1">
-      <c r="B22" s="121">
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="77"/>
+    </row>
+    <row r="23" spans="2:39" ht="15" customHeight="1">
+      <c r="B23" s="78">
         <v>1</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="125"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="125"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="127"/>
-      <c r="O22" s="127"/>
-      <c r="P22" s="127"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="127"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="127"/>
-      <c r="X22" s="127"/>
-      <c r="Y22" s="127"/>
-      <c r="Z22" s="127"/>
-      <c r="AA22" s="127"/>
-      <c r="AB22" s="127"/>
-      <c r="AC22" s="127"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="126"/>
-      <c r="AF22" s="127"/>
-      <c r="AG22" s="127"/>
-      <c r="AH22" s="127"/>
-      <c r="AI22" s="127"/>
-      <c r="AJ22" s="127"/>
-      <c r="AK22" s="127"/>
-      <c r="AL22" s="127"/>
-      <c r="AM22" s="128"/>
-    </row>
-    <row r="23" spans="2:39" ht="9" customHeight="1">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="43"/>
-      <c r="AF23" s="43"/>
-      <c r="AG23" s="43"/>
-      <c r="AH23" s="43"/>
-      <c r="AI23" s="43"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="43"/>
-      <c r="AL23" s="43"/>
-      <c r="AM23" s="43"/>
-    </row>
-    <row r="24" spans="2:39" ht="9" customHeight="1"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="85"/>
+      <c r="V23" s="83"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="85"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="85"/>
+    </row>
+    <row r="24" spans="2:39" ht="9" customHeight="1">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="43"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="43"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="43"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="43"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="43"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="43"/>
+      <c r="AI24" s="43"/>
+      <c r="AJ24" s="43"/>
+      <c r="AK24" s="43"/>
+      <c r="AL24" s="43"/>
+      <c r="AM24" s="43"/>
+    </row>
+    <row r="25" spans="2:39" ht="9" customHeight="1"/>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:L21"/>
-    <mergeCell ref="M21:U21"/>
-    <mergeCell ref="V21:AD21"/>
-    <mergeCell ref="AE21:AM21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="V22:AD22"/>
-    <mergeCell ref="AE22:AM22"/>
+  <mergeCells count="142">
+    <mergeCell ref="BN9:BX9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BM9"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="BN5:BX5"/>
+    <mergeCell ref="BN4:BX4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BM10"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="BN10:BX10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AG5:AK5"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="R4:V4"/>
@@ -5967,104 +6068,19 @@
     <mergeCell ref="AL3:AP3"/>
     <mergeCell ref="AG3:AK3"/>
     <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BM9"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="BN9:BX9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="BN5:BX5"/>
-    <mergeCell ref="BN4:BX4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BM4"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="T15:X15"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="V22:AD22"/>
+    <mergeCell ref="AE22:AM22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="V23:AD23"/>
+    <mergeCell ref="AE23:AM23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="M16:M18">
+  <conditionalFormatting sqref="M17:M19">
     <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"―"</formula>
     </cfRule>
@@ -6072,7 +6088,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M22 V22 AE22">
+  <conditionalFormatting sqref="M23 V23 AE23">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
@@ -6080,7 +6096,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:BE9">
+  <conditionalFormatting sqref="M4:BE10">
     <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
@@ -6088,7 +6104,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T16:AC18">
+  <conditionalFormatting sqref="T17:AC19">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
@@ -6096,7 +6112,7 @@
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI4:BM9">
+  <conditionalFormatting sqref="BI4:BM10">
     <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"―"</formula>
     </cfRule>
@@ -6116,7 +6132,7 @@
           <x14:formula1>
             <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
           </x14:formula1>
-          <xm:sqref>M4:BE9 M22 V22 BD22:BH22 AX22:BB22 AE22 M16:M18 T16:AC18 BI4:BM9</xm:sqref>
+          <xm:sqref>M23 V23 BD23:BH23 AX23:BB23 AE23 M17:M19 T17:AC19 BI4:BM10 M4:BE10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6202,7 +6218,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.75">
       <c r="A4" s="69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
@@ -6259,21 +6275,21 @@
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
       <c r="H7" s="24" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6285,13 +6301,13 @@
         <v>30</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -6306,13 +6322,13 @@
         <v>30</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D9" s="20" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="17"/>
@@ -6362,7 +6378,7 @@
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A12" s="69" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
@@ -6378,16 +6394,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -6399,16 +6415,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -6420,16 +6436,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -6441,21 +6457,21 @@
         <v>11</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="24" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6479,13 +6495,13 @@
         <v>41</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -6497,16 +6513,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="37"/>
@@ -6518,21 +6534,21 @@
         <v>14</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="37"/>
       <c r="H20" s="42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6541,21 +6557,21 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6567,13 +6583,13 @@
         <v>56</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -6585,16 +6601,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -6606,21 +6622,21 @@
         <v>18</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="37"/>
       <c r="H24" s="39" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6629,16 +6645,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="37"/>
@@ -6650,21 +6666,21 @@
         <v>20</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="37"/>
       <c r="H26" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6676,13 +6692,13 @@
         <v>55</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="33"/>
@@ -6694,21 +6710,21 @@
         <v>22</v>
       </c>
       <c r="B28" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="E28" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="24" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6717,16 +6733,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C29" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="E29" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="37"/>
@@ -6738,21 +6754,21 @@
         <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>140</v>
-      </c>
       <c r="E30" s="36" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="37"/>
       <c r="H30" s="38" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6770,7 +6786,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="33"/>
@@ -6785,18 +6801,18 @@
         <v>43</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6808,18 +6824,18 @@
         <v>43</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6831,18 +6847,18 @@
         <v>43</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" thickBot="1">
@@ -6854,18 +6870,18 @@
         <v>43</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11.25" customHeight="1"/>
@@ -6939,1453 +6955,1641 @@
   <sheetData>
     <row r="2" spans="2:76" ht="15" customHeight="1">
       <c r="B2" s="35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="96" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="77" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="77" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="94"/>
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" s="94"/>
+      <c r="AN3" s="94"/>
+      <c r="AO3" s="94"/>
+      <c r="AP3" s="95"/>
+      <c r="AQ3" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR3" s="94"/>
+      <c r="AS3" s="94"/>
+      <c r="AT3" s="94"/>
+      <c r="AU3" s="95"/>
+      <c r="AV3" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW3" s="94"/>
+      <c r="AX3" s="94"/>
+      <c r="AY3" s="94"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="72" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="120" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="116" t="s">
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="77"/>
+      <c r="BF3" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="117"/>
-      <c r="BA3" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="118" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="116" t="s">
-        <v>72</v>
-      </c>
-      <c r="BJ3" s="116"/>
-      <c r="BK3" s="116"/>
-      <c r="BL3" s="116"/>
-      <c r="BM3" s="117"/>
-      <c r="BN3" s="94" t="s">
+      <c r="BG3" s="97"/>
+      <c r="BH3" s="97"/>
+      <c r="BI3" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="BJ3" s="94"/>
+      <c r="BK3" s="94"/>
+      <c r="BL3" s="94"/>
+      <c r="BM3" s="95"/>
+      <c r="BN3" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="BO3" s="94"/>
-      <c r="BP3" s="94"/>
-      <c r="BQ3" s="94"/>
-      <c r="BR3" s="94"/>
-      <c r="BS3" s="94"/>
-      <c r="BT3" s="94"/>
-      <c r="BU3" s="94"/>
-      <c r="BV3" s="94"/>
-      <c r="BW3" s="94"/>
-      <c r="BX3" s="95"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
+      <c r="BS3" s="73"/>
+      <c r="BT3" s="73"/>
+      <c r="BU3" s="73"/>
+      <c r="BV3" s="73"/>
+      <c r="BW3" s="73"/>
+      <c r="BX3" s="74"/>
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
-      <c r="B4" s="135" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="136"/>
-      <c r="BH4" s="136"/>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
-      <c r="BK4" s="136"/>
-      <c r="BL4" s="136"/>
-      <c r="BM4" s="136"/>
-      <c r="BN4" s="136"/>
-      <c r="BO4" s="136"/>
-      <c r="BP4" s="136"/>
-      <c r="BQ4" s="136"/>
-      <c r="BR4" s="136"/>
-      <c r="BS4" s="136"/>
-      <c r="BT4" s="136"/>
-      <c r="BU4" s="136"/>
-      <c r="BV4" s="136"/>
-      <c r="BW4" s="136"/>
-      <c r="BX4" s="137"/>
+      <c r="B4" s="129" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
+      <c r="AG4" s="130"/>
+      <c r="AH4" s="130"/>
+      <c r="AI4" s="130"/>
+      <c r="AJ4" s="130"/>
+      <c r="AK4" s="130"/>
+      <c r="AL4" s="130"/>
+      <c r="AM4" s="130"/>
+      <c r="AN4" s="130"/>
+      <c r="AO4" s="130"/>
+      <c r="AP4" s="130"/>
+      <c r="AQ4" s="130"/>
+      <c r="AR4" s="130"/>
+      <c r="AS4" s="130"/>
+      <c r="AT4" s="130"/>
+      <c r="AU4" s="130"/>
+      <c r="AV4" s="130"/>
+      <c r="AW4" s="130"/>
+      <c r="AX4" s="130"/>
+      <c r="AY4" s="130"/>
+      <c r="AZ4" s="130"/>
+      <c r="BA4" s="130"/>
+      <c r="BB4" s="130"/>
+      <c r="BC4" s="130"/>
+      <c r="BD4" s="130"/>
+      <c r="BE4" s="130"/>
+      <c r="BF4" s="130"/>
+      <c r="BG4" s="130"/>
+      <c r="BH4" s="130"/>
+      <c r="BI4" s="130"/>
+      <c r="BJ4" s="130"/>
+      <c r="BK4" s="130"/>
+      <c r="BL4" s="130"/>
+      <c r="BM4" s="130"/>
+      <c r="BN4" s="130"/>
+      <c r="BO4" s="130"/>
+      <c r="BP4" s="130"/>
+      <c r="BQ4" s="130"/>
+      <c r="BR4" s="130"/>
+      <c r="BS4" s="130"/>
+      <c r="BT4" s="130"/>
+      <c r="BU4" s="130"/>
+      <c r="BV4" s="130"/>
+      <c r="BW4" s="130"/>
+      <c r="BX4" s="131"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="111">
+      <c r="B5" s="86">
         <v>1</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="129"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="129"/>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
-      <c r="AF5" s="131"/>
-      <c r="AG5" s="129"/>
-      <c r="AH5" s="130"/>
-      <c r="AI5" s="130"/>
-      <c r="AJ5" s="130"/>
-      <c r="AK5" s="131"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="130"/>
-      <c r="AN5" s="130"/>
-      <c r="AO5" s="130"/>
-      <c r="AP5" s="131"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="130"/>
-      <c r="AS5" s="130"/>
-      <c r="AT5" s="130"/>
-      <c r="AU5" s="131"/>
-      <c r="AV5" s="129"/>
-      <c r="AW5" s="130"/>
-      <c r="AX5" s="130"/>
-      <c r="AY5" s="130"/>
-      <c r="AZ5" s="131"/>
-      <c r="BA5" s="129"/>
-      <c r="BB5" s="130"/>
-      <c r="BC5" s="130"/>
-      <c r="BD5" s="130"/>
-      <c r="BE5" s="131"/>
-      <c r="BF5" s="133" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
-      <c r="BI5" s="129"/>
-      <c r="BJ5" s="130"/>
-      <c r="BK5" s="130"/>
-      <c r="BL5" s="130"/>
-      <c r="BM5" s="131"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="115"/>
-      <c r="BP5" s="115"/>
-      <c r="BQ5" s="115"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="115"/>
-      <c r="BT5" s="115"/>
-      <c r="BU5" s="115"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="115"/>
-      <c r="BX5" s="132"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="133"/>
+      <c r="O5" s="133"/>
+      <c r="P5" s="133"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133"/>
+      <c r="U5" s="133"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="133"/>
+      <c r="Y5" s="133"/>
+      <c r="Z5" s="133"/>
+      <c r="AA5" s="134"/>
+      <c r="AB5" s="132"/>
+      <c r="AC5" s="133"/>
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="133"/>
+      <c r="AF5" s="134"/>
+      <c r="AG5" s="132"/>
+      <c r="AH5" s="133"/>
+      <c r="AI5" s="133"/>
+      <c r="AJ5" s="133"/>
+      <c r="AK5" s="134"/>
+      <c r="AL5" s="132"/>
+      <c r="AM5" s="133"/>
+      <c r="AN5" s="133"/>
+      <c r="AO5" s="133"/>
+      <c r="AP5" s="134"/>
+      <c r="AQ5" s="132"/>
+      <c r="AR5" s="133"/>
+      <c r="AS5" s="133"/>
+      <c r="AT5" s="133"/>
+      <c r="AU5" s="134"/>
+      <c r="AV5" s="132"/>
+      <c r="AW5" s="133"/>
+      <c r="AX5" s="133"/>
+      <c r="AY5" s="133"/>
+      <c r="AZ5" s="134"/>
+      <c r="BA5" s="132"/>
+      <c r="BB5" s="133"/>
+      <c r="BC5" s="133"/>
+      <c r="BD5" s="133"/>
+      <c r="BE5" s="134"/>
+      <c r="BF5" s="137" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG5" s="138"/>
+      <c r="BH5" s="138"/>
+      <c r="BI5" s="132"/>
+      <c r="BJ5" s="133"/>
+      <c r="BK5" s="133"/>
+      <c r="BL5" s="133"/>
+      <c r="BM5" s="134"/>
+      <c r="BN5" s="90"/>
+      <c r="BO5" s="90"/>
+      <c r="BP5" s="90"/>
+      <c r="BQ5" s="90"/>
+      <c r="BR5" s="90"/>
+      <c r="BS5" s="90"/>
+      <c r="BT5" s="90"/>
+      <c r="BU5" s="90"/>
+      <c r="BV5" s="90"/>
+      <c r="BW5" s="90"/>
+      <c r="BX5" s="136"/>
     </row>
     <row r="6" spans="2:76" ht="16.5">
-      <c r="B6" s="83">
+      <c r="B6" s="101">
         <v>2</v>
       </c>
-      <c r="C6" s="84"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86" t="s">
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="100"/>
-      <c r="S6" s="98"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="100"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AA6" s="99"/>
-      <c r="AB6" s="100"/>
-      <c r="AC6" s="98"/>
-      <c r="AD6" s="98"/>
-      <c r="AE6" s="98"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="100"/>
-      <c r="AH6" s="98"/>
-      <c r="AI6" s="98"/>
-      <c r="AJ6" s="98"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="100"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
-      <c r="AO6" s="98"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="98"/>
-      <c r="AS6" s="98"/>
-      <c r="AT6" s="98"/>
-      <c r="AU6" s="99"/>
-      <c r="AV6" s="100"/>
-      <c r="AW6" s="98"/>
-      <c r="AX6" s="98"/>
-      <c r="AY6" s="98"/>
-      <c r="AZ6" s="99"/>
-      <c r="BA6" s="100"/>
-      <c r="BB6" s="98"/>
-      <c r="BC6" s="98"/>
-      <c r="BD6" s="98"/>
-      <c r="BE6" s="99"/>
-      <c r="BF6" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="BG6" s="107"/>
-      <c r="BH6" s="107"/>
-      <c r="BI6" s="100"/>
-      <c r="BJ6" s="98"/>
-      <c r="BK6" s="98"/>
-      <c r="BL6" s="98"/>
-      <c r="BM6" s="99"/>
-      <c r="BN6" s="87"/>
-      <c r="BO6" s="87"/>
-      <c r="BP6" s="87"/>
-      <c r="BQ6" s="87"/>
-      <c r="BR6" s="87"/>
-      <c r="BS6" s="87"/>
-      <c r="BT6" s="87"/>
-      <c r="BU6" s="87"/>
-      <c r="BV6" s="87"/>
-      <c r="BW6" s="87"/>
-      <c r="BX6" s="101"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="109"/>
+      <c r="N6" s="107"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="107"/>
+      <c r="T6" s="107"/>
+      <c r="U6" s="107"/>
+      <c r="V6" s="108"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="107"/>
+      <c r="Y6" s="107"/>
+      <c r="Z6" s="107"/>
+      <c r="AA6" s="108"/>
+      <c r="AB6" s="106"/>
+      <c r="AC6" s="107"/>
+      <c r="AD6" s="107"/>
+      <c r="AE6" s="107"/>
+      <c r="AF6" s="108"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="107"/>
+      <c r="AI6" s="107"/>
+      <c r="AJ6" s="107"/>
+      <c r="AK6" s="108"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="107"/>
+      <c r="AN6" s="107"/>
+      <c r="AO6" s="107"/>
+      <c r="AP6" s="108"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="107"/>
+      <c r="AS6" s="107"/>
+      <c r="AT6" s="107"/>
+      <c r="AU6" s="108"/>
+      <c r="AV6" s="106"/>
+      <c r="AW6" s="107"/>
+      <c r="AX6" s="107"/>
+      <c r="AY6" s="107"/>
+      <c r="AZ6" s="108"/>
+      <c r="BA6" s="106"/>
+      <c r="BB6" s="107"/>
+      <c r="BC6" s="107"/>
+      <c r="BD6" s="107"/>
+      <c r="BE6" s="108"/>
+      <c r="BF6" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="BG6" s="112"/>
+      <c r="BH6" s="112"/>
+      <c r="BI6" s="106"/>
+      <c r="BJ6" s="107"/>
+      <c r="BK6" s="107"/>
+      <c r="BL6" s="107"/>
+      <c r="BM6" s="108"/>
+      <c r="BN6" s="105"/>
+      <c r="BO6" s="105"/>
+      <c r="BP6" s="105"/>
+      <c r="BQ6" s="105"/>
+      <c r="BR6" s="105"/>
+      <c r="BS6" s="105"/>
+      <c r="BT6" s="105"/>
+      <c r="BU6" s="105"/>
+      <c r="BV6" s="105"/>
+      <c r="BW6" s="105"/>
+      <c r="BX6" s="110"/>
     </row>
     <row r="7" spans="2:76" ht="16.5">
-      <c r="B7" s="83">
+      <c r="B7" s="101">
         <v>3</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+      <c r="C7" s="102"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="99"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="99"/>
-      <c r="AB7" s="100"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="99"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="98"/>
-      <c r="AN7" s="98"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="98"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="98"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="100"/>
-      <c r="AW7" s="98"/>
-      <c r="AX7" s="98"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="100"/>
-      <c r="BB7" s="98"/>
-      <c r="BC7" s="98"/>
-      <c r="BD7" s="98"/>
-      <c r="BE7" s="99"/>
-      <c r="BF7" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG7" s="107"/>
-      <c r="BH7" s="107"/>
-      <c r="BI7" s="100"/>
-      <c r="BJ7" s="98"/>
-      <c r="BK7" s="98"/>
-      <c r="BL7" s="98"/>
-      <c r="BM7" s="99"/>
-      <c r="BN7" s="87"/>
-      <c r="BO7" s="87"/>
-      <c r="BP7" s="87"/>
-      <c r="BQ7" s="87"/>
-      <c r="BR7" s="87"/>
-      <c r="BS7" s="87"/>
-      <c r="BT7" s="87"/>
-      <c r="BU7" s="87"/>
-      <c r="BV7" s="87"/>
-      <c r="BW7" s="87"/>
-      <c r="BX7" s="101"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="106"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="108"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="108"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="108"/>
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
+      <c r="AU7" s="108"/>
+      <c r="AV7" s="106"/>
+      <c r="AW7" s="107"/>
+      <c r="AX7" s="107"/>
+      <c r="AY7" s="107"/>
+      <c r="AZ7" s="108"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="107"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="107"/>
+      <c r="BE7" s="108"/>
+      <c r="BF7" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG7" s="112"/>
+      <c r="BH7" s="112"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="107"/>
+      <c r="BK7" s="107"/>
+      <c r="BL7" s="107"/>
+      <c r="BM7" s="108"/>
+      <c r="BN7" s="105"/>
+      <c r="BO7" s="105"/>
+      <c r="BP7" s="105"/>
+      <c r="BQ7" s="105"/>
+      <c r="BR7" s="105"/>
+      <c r="BS7" s="105"/>
+      <c r="BT7" s="105"/>
+      <c r="BU7" s="105"/>
+      <c r="BV7" s="105"/>
+      <c r="BW7" s="105"/>
+      <c r="BX7" s="110"/>
     </row>
     <row r="8" spans="2:76" ht="16.5">
-      <c r="B8" s="83">
+      <c r="B8" s="101">
         <v>4</v>
       </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="100"/>
-      <c r="X8" s="98"/>
-      <c r="Y8" s="98"/>
-      <c r="Z8" s="98"/>
-      <c r="AA8" s="99"/>
-      <c r="AB8" s="100"/>
-      <c r="AC8" s="98"/>
-      <c r="AD8" s="98"/>
-      <c r="AE8" s="98"/>
-      <c r="AF8" s="99"/>
-      <c r="AG8" s="100"/>
-      <c r="AH8" s="98"/>
-      <c r="AI8" s="98"/>
-      <c r="AJ8" s="98"/>
-      <c r="AK8" s="99"/>
-      <c r="AL8" s="100"/>
-      <c r="AM8" s="98"/>
-      <c r="AN8" s="98"/>
-      <c r="AO8" s="98"/>
-      <c r="AP8" s="99"/>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="98"/>
-      <c r="AS8" s="98"/>
-      <c r="AT8" s="98"/>
-      <c r="AU8" s="99"/>
-      <c r="AV8" s="100"/>
-      <c r="AW8" s="98"/>
-      <c r="AX8" s="98"/>
-      <c r="AY8" s="98"/>
-      <c r="AZ8" s="99"/>
-      <c r="BA8" s="100"/>
-      <c r="BB8" s="98"/>
-      <c r="BC8" s="98"/>
-      <c r="BD8" s="98"/>
-      <c r="BE8" s="99"/>
-      <c r="BF8" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG8" s="107"/>
-      <c r="BH8" s="107"/>
-      <c r="BI8" s="100"/>
-      <c r="BJ8" s="98"/>
-      <c r="BK8" s="98"/>
-      <c r="BL8" s="98"/>
-      <c r="BM8" s="99"/>
-      <c r="BN8" s="87"/>
-      <c r="BO8" s="87"/>
-      <c r="BP8" s="87"/>
-      <c r="BQ8" s="87"/>
-      <c r="BR8" s="87"/>
-      <c r="BS8" s="87"/>
-      <c r="BT8" s="87"/>
-      <c r="BU8" s="87"/>
-      <c r="BV8" s="87"/>
-      <c r="BW8" s="87"/>
-      <c r="BX8" s="101"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="106"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="108"/>
+      <c r="AB8" s="106"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="107"/>
+      <c r="AI8" s="107"/>
+      <c r="AJ8" s="107"/>
+      <c r="AK8" s="108"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="107"/>
+      <c r="AN8" s="107"/>
+      <c r="AO8" s="107"/>
+      <c r="AP8" s="108"/>
+      <c r="AQ8" s="106"/>
+      <c r="AR8" s="107"/>
+      <c r="AS8" s="107"/>
+      <c r="AT8" s="107"/>
+      <c r="AU8" s="108"/>
+      <c r="AV8" s="106"/>
+      <c r="AW8" s="107"/>
+      <c r="AX8" s="107"/>
+      <c r="AY8" s="107"/>
+      <c r="AZ8" s="108"/>
+      <c r="BA8" s="106"/>
+      <c r="BB8" s="107"/>
+      <c r="BC8" s="107"/>
+      <c r="BD8" s="107"/>
+      <c r="BE8" s="108"/>
+      <c r="BF8" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG8" s="112"/>
+      <c r="BH8" s="112"/>
+      <c r="BI8" s="106"/>
+      <c r="BJ8" s="107"/>
+      <c r="BK8" s="107"/>
+      <c r="BL8" s="107"/>
+      <c r="BM8" s="108"/>
+      <c r="BN8" s="105"/>
+      <c r="BO8" s="105"/>
+      <c r="BP8" s="105"/>
+      <c r="BQ8" s="105"/>
+      <c r="BR8" s="105"/>
+      <c r="BS8" s="105"/>
+      <c r="BT8" s="105"/>
+      <c r="BU8" s="105"/>
+      <c r="BV8" s="105"/>
+      <c r="BW8" s="105"/>
+      <c r="BX8" s="110"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="83">
+      <c r="B9" s="101">
         <v>5</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="86" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
-      <c r="R9" s="100"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="99"/>
-      <c r="W9" s="100"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="99"/>
-      <c r="AB9" s="100"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="99"/>
-      <c r="AG9" s="100"/>
-      <c r="AH9" s="98"/>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="99"/>
-      <c r="AL9" s="100"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="98"/>
-      <c r="AO9" s="98"/>
-      <c r="AP9" s="99"/>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="98"/>
-      <c r="AS9" s="98"/>
-      <c r="AT9" s="98"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="100"/>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="98"/>
-      <c r="AY9" s="98"/>
-      <c r="AZ9" s="99"/>
-      <c r="BA9" s="100"/>
-      <c r="BB9" s="98"/>
-      <c r="BC9" s="98"/>
-      <c r="BD9" s="98"/>
-      <c r="BE9" s="99"/>
-      <c r="BF9" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG9" s="107"/>
-      <c r="BH9" s="107"/>
-      <c r="BI9" s="100"/>
-      <c r="BJ9" s="98"/>
-      <c r="BK9" s="98"/>
-      <c r="BL9" s="98"/>
-      <c r="BM9" s="99"/>
-      <c r="BN9" s="87"/>
-      <c r="BO9" s="87"/>
-      <c r="BP9" s="87"/>
-      <c r="BQ9" s="87"/>
-      <c r="BR9" s="87"/>
-      <c r="BS9" s="87"/>
-      <c r="BT9" s="87"/>
-      <c r="BU9" s="87"/>
-      <c r="BV9" s="87"/>
-      <c r="BW9" s="87"/>
-      <c r="BX9" s="101"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="107"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="107"/>
+      <c r="U9" s="107"/>
+      <c r="V9" s="108"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="107"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="107"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="106"/>
+      <c r="AH9" s="107"/>
+      <c r="AI9" s="107"/>
+      <c r="AJ9" s="107"/>
+      <c r="AK9" s="108"/>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="107"/>
+      <c r="AN9" s="107"/>
+      <c r="AO9" s="107"/>
+      <c r="AP9" s="108"/>
+      <c r="AQ9" s="106"/>
+      <c r="AR9" s="107"/>
+      <c r="AS9" s="107"/>
+      <c r="AT9" s="107"/>
+      <c r="AU9" s="108"/>
+      <c r="AV9" s="106"/>
+      <c r="AW9" s="107"/>
+      <c r="AX9" s="107"/>
+      <c r="AY9" s="107"/>
+      <c r="AZ9" s="108"/>
+      <c r="BA9" s="106"/>
+      <c r="BB9" s="107"/>
+      <c r="BC9" s="107"/>
+      <c r="BD9" s="107"/>
+      <c r="BE9" s="108"/>
+      <c r="BF9" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG9" s="112"/>
+      <c r="BH9" s="112"/>
+      <c r="BI9" s="106"/>
+      <c r="BJ9" s="107"/>
+      <c r="BK9" s="107"/>
+      <c r="BL9" s="107"/>
+      <c r="BM9" s="108"/>
+      <c r="BN9" s="105"/>
+      <c r="BO9" s="105"/>
+      <c r="BP9" s="105"/>
+      <c r="BQ9" s="105"/>
+      <c r="BR9" s="105"/>
+      <c r="BS9" s="105"/>
+      <c r="BT9" s="105"/>
+      <c r="BU9" s="105"/>
+      <c r="BV9" s="105"/>
+      <c r="BW9" s="105"/>
+      <c r="BX9" s="110"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="83">
+      <c r="B10" s="101">
         <v>6</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="100"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="100"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="99"/>
-      <c r="AB10" s="100"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="99"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="99"/>
-      <c r="AL10" s="100"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="98"/>
-      <c r="AP10" s="99"/>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="98"/>
-      <c r="AS10" s="98"/>
-      <c r="AT10" s="98"/>
-      <c r="AU10" s="99"/>
-      <c r="AV10" s="100"/>
-      <c r="AW10" s="98"/>
-      <c r="AX10" s="98"/>
-      <c r="AY10" s="98"/>
-      <c r="AZ10" s="99"/>
-      <c r="BA10" s="100"/>
-      <c r="BB10" s="98"/>
-      <c r="BC10" s="98"/>
-      <c r="BD10" s="98"/>
-      <c r="BE10" s="99"/>
-      <c r="BF10" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG10" s="107"/>
-      <c r="BH10" s="107"/>
-      <c r="BI10" s="100"/>
-      <c r="BJ10" s="98"/>
-      <c r="BK10" s="98"/>
-      <c r="BL10" s="98"/>
-      <c r="BM10" s="99"/>
-      <c r="BN10" s="87"/>
-      <c r="BO10" s="87"/>
-      <c r="BP10" s="87"/>
-      <c r="BQ10" s="87"/>
-      <c r="BR10" s="87"/>
-      <c r="BS10" s="87"/>
-      <c r="BT10" s="87"/>
-      <c r="BU10" s="87"/>
-      <c r="BV10" s="87"/>
-      <c r="BW10" s="87"/>
-      <c r="BX10" s="101"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="107"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="107"/>
+      <c r="T10" s="107"/>
+      <c r="U10" s="107"/>
+      <c r="V10" s="108"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="107"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="107"/>
+      <c r="AD10" s="107"/>
+      <c r="AE10" s="107"/>
+      <c r="AF10" s="108"/>
+      <c r="AG10" s="109"/>
+      <c r="AH10" s="107"/>
+      <c r="AI10" s="107"/>
+      <c r="AJ10" s="107"/>
+      <c r="AK10" s="108"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="107"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="107"/>
+      <c r="AP10" s="108"/>
+      <c r="AQ10" s="106"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="108"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="107"/>
+      <c r="AX10" s="107"/>
+      <c r="AY10" s="107"/>
+      <c r="AZ10" s="108"/>
+      <c r="BA10" s="106"/>
+      <c r="BB10" s="107"/>
+      <c r="BC10" s="107"/>
+      <c r="BD10" s="107"/>
+      <c r="BE10" s="108"/>
+      <c r="BF10" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG10" s="112"/>
+      <c r="BH10" s="112"/>
+      <c r="BI10" s="106"/>
+      <c r="BJ10" s="107"/>
+      <c r="BK10" s="107"/>
+      <c r="BL10" s="107"/>
+      <c r="BM10" s="108"/>
+      <c r="BN10" s="105"/>
+      <c r="BO10" s="105"/>
+      <c r="BP10" s="105"/>
+      <c r="BQ10" s="105"/>
+      <c r="BR10" s="105"/>
+      <c r="BS10" s="105"/>
+      <c r="BT10" s="105"/>
+      <c r="BU10" s="105"/>
+      <c r="BV10" s="105"/>
+      <c r="BW10" s="105"/>
+      <c r="BX10" s="110"/>
     </row>
     <row r="11" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B11" s="83">
+      <c r="B11" s="101">
         <v>7</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="81" t="s">
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="91"/>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="90"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="89"/>
-      <c r="AH11" s="90"/>
-      <c r="AI11" s="90"/>
-      <c r="AJ11" s="90"/>
-      <c r="AK11" s="91"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="90"/>
-      <c r="AN11" s="90"/>
-      <c r="AO11" s="90"/>
-      <c r="AP11" s="91"/>
-      <c r="AQ11" s="92"/>
-      <c r="AR11" s="90"/>
-      <c r="AS11" s="90"/>
-      <c r="AT11" s="90"/>
-      <c r="AU11" s="91"/>
-      <c r="AV11" s="92"/>
-      <c r="AW11" s="90"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="91"/>
-      <c r="BA11" s="92"/>
-      <c r="BB11" s="90"/>
-      <c r="BC11" s="90"/>
-      <c r="BD11" s="90"/>
-      <c r="BE11" s="91"/>
-      <c r="BF11" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG11" s="109"/>
-      <c r="BH11" s="109"/>
-      <c r="BI11" s="92"/>
-      <c r="BJ11" s="90"/>
-      <c r="BK11" s="90"/>
-      <c r="BL11" s="90"/>
-      <c r="BM11" s="91"/>
-      <c r="BN11" s="82"/>
-      <c r="BO11" s="82"/>
-      <c r="BP11" s="82"/>
-      <c r="BQ11" s="82"/>
-      <c r="BR11" s="82"/>
-      <c r="BS11" s="82"/>
-      <c r="BT11" s="82"/>
-      <c r="BU11" s="82"/>
-      <c r="BV11" s="82"/>
-      <c r="BW11" s="82"/>
-      <c r="BX11" s="110"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="121"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="121"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="120"/>
+      <c r="AG11" s="118"/>
+      <c r="AH11" s="119"/>
+      <c r="AI11" s="119"/>
+      <c r="AJ11" s="119"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="119"/>
+      <c r="AN11" s="119"/>
+      <c r="AO11" s="119"/>
+      <c r="AP11" s="120"/>
+      <c r="AQ11" s="121"/>
+      <c r="AR11" s="119"/>
+      <c r="AS11" s="119"/>
+      <c r="AT11" s="119"/>
+      <c r="AU11" s="120"/>
+      <c r="AV11" s="121"/>
+      <c r="AW11" s="119"/>
+      <c r="AX11" s="119"/>
+      <c r="AY11" s="119"/>
+      <c r="AZ11" s="120"/>
+      <c r="BA11" s="121"/>
+      <c r="BB11" s="119"/>
+      <c r="BC11" s="119"/>
+      <c r="BD11" s="119"/>
+      <c r="BE11" s="120"/>
+      <c r="BF11" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG11" s="123"/>
+      <c r="BH11" s="123"/>
+      <c r="BI11" s="121"/>
+      <c r="BJ11" s="119"/>
+      <c r="BK11" s="119"/>
+      <c r="BL11" s="119"/>
+      <c r="BM11" s="120"/>
+      <c r="BN11" s="117"/>
+      <c r="BO11" s="117"/>
+      <c r="BP11" s="117"/>
+      <c r="BQ11" s="117"/>
+      <c r="BR11" s="117"/>
+      <c r="BS11" s="117"/>
+      <c r="BT11" s="117"/>
+      <c r="BU11" s="117"/>
+      <c r="BV11" s="117"/>
+      <c r="BW11" s="117"/>
+      <c r="BX11" s="124"/>
     </row>
     <row r="12" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B12" s="135" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="136"/>
-      <c r="Z12" s="136"/>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="136"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="136"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="136"/>
-      <c r="AJ12" s="136"/>
-      <c r="AK12" s="136"/>
-      <c r="AL12" s="136"/>
-      <c r="AM12" s="136"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="136"/>
-      <c r="AP12" s="136"/>
-      <c r="AQ12" s="136"/>
-      <c r="AR12" s="136"/>
-      <c r="AS12" s="136"/>
-      <c r="AT12" s="136"/>
-      <c r="AU12" s="136"/>
-      <c r="AV12" s="136"/>
-      <c r="AW12" s="136"/>
-      <c r="AX12" s="136"/>
-      <c r="AY12" s="136"/>
-      <c r="AZ12" s="136"/>
-      <c r="BA12" s="136"/>
-      <c r="BB12" s="136"/>
-      <c r="BC12" s="136"/>
-      <c r="BD12" s="136"/>
-      <c r="BE12" s="136"/>
-      <c r="BF12" s="136"/>
-      <c r="BG12" s="136"/>
-      <c r="BH12" s="136"/>
-      <c r="BI12" s="136"/>
-      <c r="BJ12" s="136"/>
-      <c r="BK12" s="136"/>
-      <c r="BL12" s="136"/>
-      <c r="BM12" s="136"/>
-      <c r="BN12" s="136"/>
-      <c r="BO12" s="136"/>
-      <c r="BP12" s="136"/>
-      <c r="BQ12" s="136"/>
-      <c r="BR12" s="136"/>
-      <c r="BS12" s="136"/>
-      <c r="BT12" s="136"/>
-      <c r="BU12" s="136"/>
-      <c r="BV12" s="136"/>
-      <c r="BW12" s="136"/>
-      <c r="BX12" s="137"/>
+      <c r="B12" s="129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
+      <c r="M12" s="130"/>
+      <c r="N12" s="130"/>
+      <c r="O12" s="130"/>
+      <c r="P12" s="130"/>
+      <c r="Q12" s="130"/>
+      <c r="R12" s="130"/>
+      <c r="S12" s="130"/>
+      <c r="T12" s="130"/>
+      <c r="U12" s="130"/>
+      <c r="V12" s="130"/>
+      <c r="W12" s="130"/>
+      <c r="X12" s="130"/>
+      <c r="Y12" s="130"/>
+      <c r="Z12" s="130"/>
+      <c r="AA12" s="130"/>
+      <c r="AB12" s="130"/>
+      <c r="AC12" s="130"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="130"/>
+      <c r="AG12" s="130"/>
+      <c r="AH12" s="130"/>
+      <c r="AI12" s="130"/>
+      <c r="AJ12" s="130"/>
+      <c r="AK12" s="130"/>
+      <c r="AL12" s="130"/>
+      <c r="AM12" s="130"/>
+      <c r="AN12" s="130"/>
+      <c r="AO12" s="130"/>
+      <c r="AP12" s="130"/>
+      <c r="AQ12" s="130"/>
+      <c r="AR12" s="130"/>
+      <c r="AS12" s="130"/>
+      <c r="AT12" s="130"/>
+      <c r="AU12" s="130"/>
+      <c r="AV12" s="130"/>
+      <c r="AW12" s="130"/>
+      <c r="AX12" s="130"/>
+      <c r="AY12" s="130"/>
+      <c r="AZ12" s="130"/>
+      <c r="BA12" s="130"/>
+      <c r="BB12" s="130"/>
+      <c r="BC12" s="130"/>
+      <c r="BD12" s="130"/>
+      <c r="BE12" s="130"/>
+      <c r="BF12" s="130"/>
+      <c r="BG12" s="130"/>
+      <c r="BH12" s="130"/>
+      <c r="BI12" s="130"/>
+      <c r="BJ12" s="130"/>
+      <c r="BK12" s="130"/>
+      <c r="BL12" s="130"/>
+      <c r="BM12" s="130"/>
+      <c r="BN12" s="130"/>
+      <c r="BO12" s="130"/>
+      <c r="BP12" s="130"/>
+      <c r="BQ12" s="130"/>
+      <c r="BR12" s="130"/>
+      <c r="BS12" s="130"/>
+      <c r="BT12" s="130"/>
+      <c r="BU12" s="130"/>
+      <c r="BV12" s="130"/>
+      <c r="BW12" s="130"/>
+      <c r="BX12" s="131"/>
     </row>
     <row r="13" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B13" s="111">
+      <c r="B13" s="86">
         <v>8</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114" t="s">
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="88"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="75"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="74"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="74"/>
-      <c r="AM13" s="75"/>
-      <c r="AN13" s="75"/>
-      <c r="AO13" s="75"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="74"/>
-      <c r="AR13" s="75"/>
-      <c r="AS13" s="75"/>
-      <c r="AT13" s="75"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="74"/>
-      <c r="AW13" s="75"/>
-      <c r="AX13" s="75"/>
-      <c r="AY13" s="75"/>
-      <c r="AZ13" s="76"/>
-      <c r="BA13" s="74"/>
-      <c r="BB13" s="75"/>
-      <c r="BC13" s="75"/>
-      <c r="BD13" s="75"/>
-      <c r="BE13" s="76"/>
-      <c r="BF13" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG13" s="107"/>
-      <c r="BH13" s="107"/>
-      <c r="BI13" s="74"/>
-      <c r="BJ13" s="75"/>
-      <c r="BK13" s="75"/>
-      <c r="BL13" s="75"/>
-      <c r="BM13" s="76"/>
-      <c r="BN13" s="102"/>
-      <c r="BO13" s="102"/>
-      <c r="BP13" s="102"/>
-      <c r="BQ13" s="102"/>
-      <c r="BR13" s="102"/>
-      <c r="BS13" s="102"/>
-      <c r="BT13" s="102"/>
-      <c r="BU13" s="102"/>
-      <c r="BV13" s="102"/>
-      <c r="BW13" s="102"/>
-      <c r="BX13" s="103"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="92"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="91"/>
+      <c r="AC13" s="92"/>
+      <c r="AD13" s="92"/>
+      <c r="AE13" s="92"/>
+      <c r="AF13" s="93"/>
+      <c r="AG13" s="91"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="92"/>
+      <c r="AJ13" s="92"/>
+      <c r="AK13" s="93"/>
+      <c r="AL13" s="91"/>
+      <c r="AM13" s="92"/>
+      <c r="AN13" s="92"/>
+      <c r="AO13" s="92"/>
+      <c r="AP13" s="93"/>
+      <c r="AQ13" s="91"/>
+      <c r="AR13" s="92"/>
+      <c r="AS13" s="92"/>
+      <c r="AT13" s="92"/>
+      <c r="AU13" s="93"/>
+      <c r="AV13" s="91"/>
+      <c r="AW13" s="92"/>
+      <c r="AX13" s="92"/>
+      <c r="AY13" s="92"/>
+      <c r="AZ13" s="93"/>
+      <c r="BA13" s="91"/>
+      <c r="BB13" s="92"/>
+      <c r="BC13" s="92"/>
+      <c r="BD13" s="92"/>
+      <c r="BE13" s="93"/>
+      <c r="BF13" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG13" s="112"/>
+      <c r="BH13" s="112"/>
+      <c r="BI13" s="91"/>
+      <c r="BJ13" s="92"/>
+      <c r="BK13" s="92"/>
+      <c r="BL13" s="92"/>
+      <c r="BM13" s="93"/>
+      <c r="BN13" s="125"/>
+      <c r="BO13" s="125"/>
+      <c r="BP13" s="125"/>
+      <c r="BQ13" s="125"/>
+      <c r="BR13" s="125"/>
+      <c r="BS13" s="125"/>
+      <c r="BT13" s="125"/>
+      <c r="BU13" s="125"/>
+      <c r="BV13" s="125"/>
+      <c r="BW13" s="125"/>
+      <c r="BX13" s="126"/>
     </row>
     <row r="14" spans="2:76" ht="16.5">
-      <c r="B14" s="83">
+      <c r="B14" s="101">
         <v>9</v>
       </c>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="86" t="s">
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="99"/>
-      <c r="R14" s="100"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="99"/>
-      <c r="W14" s="100"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="99"/>
-      <c r="AB14" s="100"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="99"/>
-      <c r="AG14" s="100"/>
-      <c r="AH14" s="98"/>
-      <c r="AI14" s="98"/>
-      <c r="AJ14" s="98"/>
-      <c r="AK14" s="99"/>
-      <c r="AL14" s="100"/>
-      <c r="AM14" s="98"/>
-      <c r="AN14" s="98"/>
-      <c r="AO14" s="98"/>
-      <c r="AP14" s="99"/>
-      <c r="AQ14" s="100"/>
-      <c r="AR14" s="98"/>
-      <c r="AS14" s="98"/>
-      <c r="AT14" s="98"/>
-      <c r="AU14" s="99"/>
-      <c r="AV14" s="100"/>
-      <c r="AW14" s="98"/>
-      <c r="AX14" s="98"/>
-      <c r="AY14" s="98"/>
-      <c r="AZ14" s="99"/>
-      <c r="BA14" s="100"/>
-      <c r="BB14" s="98"/>
-      <c r="BC14" s="98"/>
-      <c r="BD14" s="98"/>
-      <c r="BE14" s="99"/>
-      <c r="BF14" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG14" s="107"/>
-      <c r="BH14" s="107"/>
-      <c r="BI14" s="100"/>
-      <c r="BJ14" s="98"/>
-      <c r="BK14" s="98"/>
-      <c r="BL14" s="98"/>
-      <c r="BM14" s="99"/>
-      <c r="BN14" s="87"/>
-      <c r="BO14" s="87"/>
-      <c r="BP14" s="87"/>
-      <c r="BQ14" s="87"/>
-      <c r="BR14" s="87"/>
-      <c r="BS14" s="87"/>
-      <c r="BT14" s="87"/>
-      <c r="BU14" s="87"/>
-      <c r="BV14" s="87"/>
-      <c r="BW14" s="87"/>
-      <c r="BX14" s="101"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="107"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="106"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="106"/>
+      <c r="AC14" s="107"/>
+      <c r="AD14" s="107"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="108"/>
+      <c r="AG14" s="106"/>
+      <c r="AH14" s="107"/>
+      <c r="AI14" s="107"/>
+      <c r="AJ14" s="107"/>
+      <c r="AK14" s="108"/>
+      <c r="AL14" s="106"/>
+      <c r="AM14" s="107"/>
+      <c r="AN14" s="107"/>
+      <c r="AO14" s="107"/>
+      <c r="AP14" s="108"/>
+      <c r="AQ14" s="106"/>
+      <c r="AR14" s="107"/>
+      <c r="AS14" s="107"/>
+      <c r="AT14" s="107"/>
+      <c r="AU14" s="108"/>
+      <c r="AV14" s="106"/>
+      <c r="AW14" s="107"/>
+      <c r="AX14" s="107"/>
+      <c r="AY14" s="107"/>
+      <c r="AZ14" s="108"/>
+      <c r="BA14" s="106"/>
+      <c r="BB14" s="107"/>
+      <c r="BC14" s="107"/>
+      <c r="BD14" s="107"/>
+      <c r="BE14" s="108"/>
+      <c r="BF14" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG14" s="112"/>
+      <c r="BH14" s="112"/>
+      <c r="BI14" s="106"/>
+      <c r="BJ14" s="107"/>
+      <c r="BK14" s="107"/>
+      <c r="BL14" s="107"/>
+      <c r="BM14" s="108"/>
+      <c r="BN14" s="105"/>
+      <c r="BO14" s="105"/>
+      <c r="BP14" s="105"/>
+      <c r="BQ14" s="105"/>
+      <c r="BR14" s="105"/>
+      <c r="BS14" s="105"/>
+      <c r="BT14" s="105"/>
+      <c r="BU14" s="105"/>
+      <c r="BV14" s="105"/>
+      <c r="BW14" s="105"/>
+      <c r="BX14" s="110"/>
     </row>
     <row r="15" spans="2:76" ht="16.5">
-      <c r="B15" s="83">
+      <c r="B15" s="101">
         <v>10</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86" t="s">
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="99"/>
-      <c r="R15" s="100"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="99"/>
-      <c r="W15" s="100"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="99"/>
-      <c r="AB15" s="100"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="99"/>
-      <c r="AG15" s="100"/>
-      <c r="AH15" s="98"/>
-      <c r="AI15" s="98"/>
-      <c r="AJ15" s="98"/>
-      <c r="AK15" s="99"/>
-      <c r="AL15" s="100"/>
-      <c r="AM15" s="98"/>
-      <c r="AN15" s="98"/>
-      <c r="AO15" s="98"/>
-      <c r="AP15" s="99"/>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="98"/>
-      <c r="AS15" s="98"/>
-      <c r="AT15" s="98"/>
-      <c r="AU15" s="99"/>
-      <c r="AV15" s="100"/>
-      <c r="AW15" s="98"/>
-      <c r="AX15" s="98"/>
-      <c r="AY15" s="98"/>
-      <c r="AZ15" s="99"/>
-      <c r="BA15" s="100"/>
-      <c r="BB15" s="98"/>
-      <c r="BC15" s="98"/>
-      <c r="BD15" s="98"/>
-      <c r="BE15" s="99"/>
-      <c r="BF15" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG15" s="107"/>
-      <c r="BH15" s="107"/>
-      <c r="BI15" s="100"/>
-      <c r="BJ15" s="98"/>
-      <c r="BK15" s="98"/>
-      <c r="BL15" s="98"/>
-      <c r="BM15" s="99"/>
-      <c r="BN15" s="87"/>
-      <c r="BO15" s="87"/>
-      <c r="BP15" s="87"/>
-      <c r="BQ15" s="87"/>
-      <c r="BR15" s="87"/>
-      <c r="BS15" s="87"/>
-      <c r="BT15" s="87"/>
-      <c r="BU15" s="87"/>
-      <c r="BV15" s="87"/>
-      <c r="BW15" s="87"/>
-      <c r="BX15" s="101"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="109"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="107"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="106"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="107"/>
+      <c r="Y15" s="107"/>
+      <c r="Z15" s="107"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="106"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="108"/>
+      <c r="AG15" s="106"/>
+      <c r="AH15" s="107"/>
+      <c r="AI15" s="107"/>
+      <c r="AJ15" s="107"/>
+      <c r="AK15" s="108"/>
+      <c r="AL15" s="106"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="107"/>
+      <c r="AP15" s="108"/>
+      <c r="AQ15" s="106"/>
+      <c r="AR15" s="107"/>
+      <c r="AS15" s="107"/>
+      <c r="AT15" s="107"/>
+      <c r="AU15" s="108"/>
+      <c r="AV15" s="106"/>
+      <c r="AW15" s="107"/>
+      <c r="AX15" s="107"/>
+      <c r="AY15" s="107"/>
+      <c r="AZ15" s="108"/>
+      <c r="BA15" s="106"/>
+      <c r="BB15" s="107"/>
+      <c r="BC15" s="107"/>
+      <c r="BD15" s="107"/>
+      <c r="BE15" s="108"/>
+      <c r="BF15" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG15" s="112"/>
+      <c r="BH15" s="112"/>
+      <c r="BI15" s="106"/>
+      <c r="BJ15" s="107"/>
+      <c r="BK15" s="107"/>
+      <c r="BL15" s="107"/>
+      <c r="BM15" s="108"/>
+      <c r="BN15" s="105"/>
+      <c r="BO15" s="105"/>
+      <c r="BP15" s="105"/>
+      <c r="BQ15" s="105"/>
+      <c r="BR15" s="105"/>
+      <c r="BS15" s="105"/>
+      <c r="BT15" s="105"/>
+      <c r="BU15" s="105"/>
+      <c r="BV15" s="105"/>
+      <c r="BW15" s="105"/>
+      <c r="BX15" s="110"/>
     </row>
     <row r="16" spans="2:76" ht="16.5">
-      <c r="B16" s="83">
+      <c r="B16" s="101">
         <v>11</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="86" t="s">
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="99"/>
-      <c r="R16" s="100"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="100"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="99"/>
-      <c r="AB16" s="100"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="99"/>
-      <c r="AG16" s="100"/>
-      <c r="AH16" s="98"/>
-      <c r="AI16" s="98"/>
-      <c r="AJ16" s="98"/>
-      <c r="AK16" s="99"/>
-      <c r="AL16" s="100"/>
-      <c r="AM16" s="98"/>
-      <c r="AN16" s="98"/>
-      <c r="AO16" s="98"/>
-      <c r="AP16" s="99"/>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="98"/>
-      <c r="AS16" s="98"/>
-      <c r="AT16" s="98"/>
-      <c r="AU16" s="99"/>
-      <c r="AV16" s="100"/>
-      <c r="AW16" s="98"/>
-      <c r="AX16" s="98"/>
-      <c r="AY16" s="98"/>
-      <c r="AZ16" s="99"/>
-      <c r="BA16" s="100"/>
-      <c r="BB16" s="98"/>
-      <c r="BC16" s="98"/>
-      <c r="BD16" s="98"/>
-      <c r="BE16" s="99"/>
-      <c r="BF16" s="106" t="s">
-        <v>139</v>
-      </c>
-      <c r="BG16" s="107"/>
-      <c r="BH16" s="107"/>
-      <c r="BI16" s="100"/>
-      <c r="BJ16" s="98"/>
-      <c r="BK16" s="98"/>
-      <c r="BL16" s="98"/>
-      <c r="BM16" s="99"/>
-      <c r="BN16" s="87"/>
-      <c r="BO16" s="87"/>
-      <c r="BP16" s="87"/>
-      <c r="BQ16" s="87"/>
-      <c r="BR16" s="87"/>
-      <c r="BS16" s="87"/>
-      <c r="BT16" s="87"/>
-      <c r="BU16" s="87"/>
-      <c r="BV16" s="87"/>
-      <c r="BW16" s="87"/>
-      <c r="BX16" s="101"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="106"/>
+      <c r="S16" s="107"/>
+      <c r="T16" s="107"/>
+      <c r="U16" s="107"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="107"/>
+      <c r="Z16" s="107"/>
+      <c r="AA16" s="108"/>
+      <c r="AB16" s="106"/>
+      <c r="AC16" s="107"/>
+      <c r="AD16" s="107"/>
+      <c r="AE16" s="107"/>
+      <c r="AF16" s="108"/>
+      <c r="AG16" s="106"/>
+      <c r="AH16" s="107"/>
+      <c r="AI16" s="107"/>
+      <c r="AJ16" s="107"/>
+      <c r="AK16" s="108"/>
+      <c r="AL16" s="106"/>
+      <c r="AM16" s="107"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="107"/>
+      <c r="AP16" s="108"/>
+      <c r="AQ16" s="106"/>
+      <c r="AR16" s="107"/>
+      <c r="AS16" s="107"/>
+      <c r="AT16" s="107"/>
+      <c r="AU16" s="108"/>
+      <c r="AV16" s="106"/>
+      <c r="AW16" s="107"/>
+      <c r="AX16" s="107"/>
+      <c r="AY16" s="107"/>
+      <c r="AZ16" s="108"/>
+      <c r="BA16" s="106"/>
+      <c r="BB16" s="107"/>
+      <c r="BC16" s="107"/>
+      <c r="BD16" s="107"/>
+      <c r="BE16" s="108"/>
+      <c r="BF16" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="BG16" s="112"/>
+      <c r="BH16" s="112"/>
+      <c r="BI16" s="106"/>
+      <c r="BJ16" s="107"/>
+      <c r="BK16" s="107"/>
+      <c r="BL16" s="107"/>
+      <c r="BM16" s="108"/>
+      <c r="BN16" s="105"/>
+      <c r="BO16" s="105"/>
+      <c r="BP16" s="105"/>
+      <c r="BQ16" s="105"/>
+      <c r="BR16" s="105"/>
+      <c r="BS16" s="105"/>
+      <c r="BT16" s="105"/>
+      <c r="BU16" s="105"/>
+      <c r="BV16" s="105"/>
+      <c r="BW16" s="105"/>
+      <c r="BX16" s="110"/>
     </row>
     <row r="17" spans="2:76" ht="16.5">
-      <c r="B17" s="83">
+      <c r="B17" s="101">
         <v>12</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="86" t="s">
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="100"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="99"/>
-      <c r="W17" s="100"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="99"/>
-      <c r="AB17" s="100"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="99"/>
-      <c r="AG17" s="100"/>
-      <c r="AH17" s="98"/>
-      <c r="AI17" s="98"/>
-      <c r="AJ17" s="98"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="100"/>
-      <c r="AM17" s="98"/>
-      <c r="AN17" s="98"/>
-      <c r="AO17" s="98"/>
-      <c r="AP17" s="99"/>
-      <c r="AQ17" s="100"/>
-      <c r="AR17" s="98"/>
-      <c r="AS17" s="98"/>
-      <c r="AT17" s="98"/>
-      <c r="AU17" s="99"/>
-      <c r="AV17" s="100"/>
-      <c r="AW17" s="98"/>
-      <c r="AX17" s="98"/>
-      <c r="AY17" s="98"/>
-      <c r="AZ17" s="99"/>
-      <c r="BA17" s="100"/>
-      <c r="BB17" s="98"/>
-      <c r="BC17" s="98"/>
-      <c r="BD17" s="98"/>
-      <c r="BE17" s="99"/>
-      <c r="BF17" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG17" s="107"/>
-      <c r="BH17" s="107"/>
-      <c r="BI17" s="100"/>
-      <c r="BJ17" s="98"/>
-      <c r="BK17" s="98"/>
-      <c r="BL17" s="98"/>
-      <c r="BM17" s="99"/>
-      <c r="BN17" s="87"/>
-      <c r="BO17" s="87"/>
-      <c r="BP17" s="87"/>
-      <c r="BQ17" s="87"/>
-      <c r="BR17" s="87"/>
-      <c r="BS17" s="87"/>
-      <c r="BT17" s="87"/>
-      <c r="BU17" s="87"/>
-      <c r="BV17" s="87"/>
-      <c r="BW17" s="87"/>
-      <c r="BX17" s="101"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="107"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="106"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="107"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="108"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="107"/>
+      <c r="AK17" s="108"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="107"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="107"/>
+      <c r="AP17" s="108"/>
+      <c r="AQ17" s="106"/>
+      <c r="AR17" s="107"/>
+      <c r="AS17" s="107"/>
+      <c r="AT17" s="107"/>
+      <c r="AU17" s="108"/>
+      <c r="AV17" s="106"/>
+      <c r="AW17" s="107"/>
+      <c r="AX17" s="107"/>
+      <c r="AY17" s="107"/>
+      <c r="AZ17" s="108"/>
+      <c r="BA17" s="106"/>
+      <c r="BB17" s="107"/>
+      <c r="BC17" s="107"/>
+      <c r="BD17" s="107"/>
+      <c r="BE17" s="108"/>
+      <c r="BF17" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG17" s="112"/>
+      <c r="BH17" s="112"/>
+      <c r="BI17" s="106"/>
+      <c r="BJ17" s="107"/>
+      <c r="BK17" s="107"/>
+      <c r="BL17" s="107"/>
+      <c r="BM17" s="108"/>
+      <c r="BN17" s="105"/>
+      <c r="BO17" s="105"/>
+      <c r="BP17" s="105"/>
+      <c r="BQ17" s="105"/>
+      <c r="BR17" s="105"/>
+      <c r="BS17" s="105"/>
+      <c r="BT17" s="105"/>
+      <c r="BU17" s="105"/>
+      <c r="BV17" s="105"/>
+      <c r="BW17" s="105"/>
+      <c r="BX17" s="110"/>
     </row>
     <row r="18" spans="2:76" ht="16.5">
-      <c r="B18" s="83">
+      <c r="B18" s="101">
         <v>13</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="86" t="s">
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="100"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="100"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="99"/>
-      <c r="AB18" s="100"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="99"/>
-      <c r="AG18" s="97"/>
-      <c r="AH18" s="98"/>
-      <c r="AI18" s="98"/>
-      <c r="AJ18" s="98"/>
-      <c r="AK18" s="99"/>
-      <c r="AL18" s="100"/>
-      <c r="AM18" s="98"/>
-      <c r="AN18" s="98"/>
-      <c r="AO18" s="98"/>
-      <c r="AP18" s="99"/>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="98"/>
-      <c r="AS18" s="98"/>
-      <c r="AT18" s="98"/>
-      <c r="AU18" s="99"/>
-      <c r="AV18" s="100"/>
-      <c r="AW18" s="98"/>
-      <c r="AX18" s="98"/>
-      <c r="AY18" s="98"/>
-      <c r="AZ18" s="99"/>
-      <c r="BA18" s="100"/>
-      <c r="BB18" s="98"/>
-      <c r="BC18" s="98"/>
-      <c r="BD18" s="98"/>
-      <c r="BE18" s="99"/>
-      <c r="BF18" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG18" s="107"/>
-      <c r="BH18" s="107"/>
-      <c r="BI18" s="100"/>
-      <c r="BJ18" s="98"/>
-      <c r="BK18" s="98"/>
-      <c r="BL18" s="98"/>
-      <c r="BM18" s="99"/>
-      <c r="BN18" s="87"/>
-      <c r="BO18" s="87"/>
-      <c r="BP18" s="87"/>
-      <c r="BQ18" s="87"/>
-      <c r="BR18" s="87"/>
-      <c r="BS18" s="87"/>
-      <c r="BT18" s="87"/>
-      <c r="BU18" s="87"/>
-      <c r="BV18" s="87"/>
-      <c r="BW18" s="87"/>
-      <c r="BX18" s="101"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="109"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="107"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="106"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="107"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="108"/>
+      <c r="AG18" s="109"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="107"/>
+      <c r="AK18" s="108"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="107"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="107"/>
+      <c r="AP18" s="108"/>
+      <c r="AQ18" s="106"/>
+      <c r="AR18" s="107"/>
+      <c r="AS18" s="107"/>
+      <c r="AT18" s="107"/>
+      <c r="AU18" s="108"/>
+      <c r="AV18" s="106"/>
+      <c r="AW18" s="107"/>
+      <c r="AX18" s="107"/>
+      <c r="AY18" s="107"/>
+      <c r="AZ18" s="108"/>
+      <c r="BA18" s="106"/>
+      <c r="BB18" s="107"/>
+      <c r="BC18" s="107"/>
+      <c r="BD18" s="107"/>
+      <c r="BE18" s="108"/>
+      <c r="BF18" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG18" s="112"/>
+      <c r="BH18" s="112"/>
+      <c r="BI18" s="106"/>
+      <c r="BJ18" s="107"/>
+      <c r="BK18" s="107"/>
+      <c r="BL18" s="107"/>
+      <c r="BM18" s="108"/>
+      <c r="BN18" s="105"/>
+      <c r="BO18" s="105"/>
+      <c r="BP18" s="105"/>
+      <c r="BQ18" s="105"/>
+      <c r="BR18" s="105"/>
+      <c r="BS18" s="105"/>
+      <c r="BT18" s="105"/>
+      <c r="BU18" s="105"/>
+      <c r="BV18" s="105"/>
+      <c r="BW18" s="105"/>
+      <c r="BX18" s="110"/>
     </row>
     <row r="19" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B19" s="78">
+      <c r="B19" s="113">
         <v>14</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81" t="s">
+      <c r="C19" s="114"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="90"/>
-      <c r="T19" s="90"/>
-      <c r="U19" s="90"/>
-      <c r="V19" s="91"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="90"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="90"/>
-      <c r="AA19" s="91"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="90"/>
-      <c r="AD19" s="90"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="89"/>
-      <c r="AH19" s="90"/>
-      <c r="AI19" s="90"/>
-      <c r="AJ19" s="90"/>
-      <c r="AK19" s="91"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="90"/>
-      <c r="AN19" s="90"/>
-      <c r="AO19" s="90"/>
-      <c r="AP19" s="91"/>
-      <c r="AQ19" s="92"/>
-      <c r="AR19" s="90"/>
-      <c r="AS19" s="90"/>
-      <c r="AT19" s="90"/>
-      <c r="AU19" s="91"/>
-      <c r="AV19" s="92"/>
-      <c r="AW19" s="90"/>
-      <c r="AX19" s="90"/>
-      <c r="AY19" s="90"/>
-      <c r="AZ19" s="91"/>
-      <c r="BA19" s="92"/>
-      <c r="BB19" s="90"/>
-      <c r="BC19" s="90"/>
-      <c r="BD19" s="90"/>
-      <c r="BE19" s="91"/>
-      <c r="BF19" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG19" s="109"/>
-      <c r="BH19" s="109"/>
-      <c r="BI19" s="92"/>
-      <c r="BJ19" s="90"/>
-      <c r="BK19" s="90"/>
-      <c r="BL19" s="90"/>
-      <c r="BM19" s="91"/>
-      <c r="BN19" s="82"/>
-      <c r="BO19" s="82"/>
-      <c r="BP19" s="82"/>
-      <c r="BQ19" s="82"/>
-      <c r="BR19" s="82"/>
-      <c r="BS19" s="82"/>
-      <c r="BT19" s="82"/>
-      <c r="BU19" s="82"/>
-      <c r="BV19" s="82"/>
-      <c r="BW19" s="82"/>
-      <c r="BX19" s="110"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="121"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="119"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="119"/>
+      <c r="AF19" s="120"/>
+      <c r="AG19" s="118"/>
+      <c r="AH19" s="119"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="119"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="121"/>
+      <c r="AM19" s="119"/>
+      <c r="AN19" s="119"/>
+      <c r="AO19" s="119"/>
+      <c r="AP19" s="120"/>
+      <c r="AQ19" s="121"/>
+      <c r="AR19" s="119"/>
+      <c r="AS19" s="119"/>
+      <c r="AT19" s="119"/>
+      <c r="AU19" s="120"/>
+      <c r="AV19" s="121"/>
+      <c r="AW19" s="119"/>
+      <c r="AX19" s="119"/>
+      <c r="AY19" s="119"/>
+      <c r="AZ19" s="120"/>
+      <c r="BA19" s="121"/>
+      <c r="BB19" s="119"/>
+      <c r="BC19" s="119"/>
+      <c r="BD19" s="119"/>
+      <c r="BE19" s="120"/>
+      <c r="BF19" s="122" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG19" s="123"/>
+      <c r="BH19" s="123"/>
+      <c r="BI19" s="121"/>
+      <c r="BJ19" s="119"/>
+      <c r="BK19" s="119"/>
+      <c r="BL19" s="119"/>
+      <c r="BM19" s="120"/>
+      <c r="BN19" s="117"/>
+      <c r="BO19" s="117"/>
+      <c r="BP19" s="117"/>
+      <c r="BQ19" s="117"/>
+      <c r="BR19" s="117"/>
+      <c r="BS19" s="117"/>
+      <c r="BT19" s="117"/>
+      <c r="BU19" s="117"/>
+      <c r="BV19" s="117"/>
+      <c r="BW19" s="117"/>
+      <c r="BX19" s="124"/>
     </row>
     <row r="20" spans="2:76" ht="16.5">
       <c r="B20" s="35" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:76" ht="16.5">
       <c r="I21" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:76" ht="16.5">
       <c r="I22" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:76" ht="9" customHeight="1"/>
     <row r="24" spans="2:76" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="212">
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BM10"/>
+    <mergeCell ref="BN10:BX10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="BN11:BX11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="BA11:BE11"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BM9"/>
+    <mergeCell ref="BN9:BX9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AQ11:AU11"/>
+    <mergeCell ref="AV11:AZ11"/>
+    <mergeCell ref="BF11:BH11"/>
+    <mergeCell ref="BI11:BM11"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="BN5:BX5"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="B4:BX4"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AL13:AP13"/>
+    <mergeCell ref="AQ13:AU13"/>
+    <mergeCell ref="AV13:AZ13"/>
+    <mergeCell ref="BA13:BE13"/>
+    <mergeCell ref="BF13:BH13"/>
+    <mergeCell ref="BI13:BM13"/>
+    <mergeCell ref="BN13:BX13"/>
+    <mergeCell ref="AV14:AZ14"/>
+    <mergeCell ref="BA14:BE14"/>
+    <mergeCell ref="BF14:BH14"/>
+    <mergeCell ref="BI14:BM14"/>
+    <mergeCell ref="BN14:BX14"/>
+    <mergeCell ref="AV15:AZ15"/>
+    <mergeCell ref="BA15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="BI15:BM15"/>
+    <mergeCell ref="BN15:BX15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AL15:AP15"/>
+    <mergeCell ref="AQ15:AU15"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AL14:AP14"/>
+    <mergeCell ref="AQ14:AU14"/>
+    <mergeCell ref="BN16:BX16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AL17:AP17"/>
+    <mergeCell ref="AQ17:AU17"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BA17:BE17"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BM17"/>
+    <mergeCell ref="BN17:BX17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AL16:AP16"/>
+    <mergeCell ref="AQ16:AU16"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AL18:AP18"/>
+    <mergeCell ref="AQ18:AU18"/>
+    <mergeCell ref="AV16:AZ16"/>
+    <mergeCell ref="BA16:BE16"/>
+    <mergeCell ref="BF16:BH16"/>
+    <mergeCell ref="BI16:BM16"/>
     <mergeCell ref="B12:BX12"/>
     <mergeCell ref="AV18:AZ18"/>
     <mergeCell ref="BA18:BE18"/>
@@ -8410,194 +8614,6 @@
     <mergeCell ref="E18:L18"/>
     <mergeCell ref="M18:Q18"/>
     <mergeCell ref="R18:V18"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AL18:AP18"/>
-    <mergeCell ref="AQ18:AU18"/>
-    <mergeCell ref="AV16:AZ16"/>
-    <mergeCell ref="BA16:BE16"/>
-    <mergeCell ref="BF16:BH16"/>
-    <mergeCell ref="BI16:BM16"/>
-    <mergeCell ref="BN16:BX16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="AB17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AL17:AP17"/>
-    <mergeCell ref="AQ17:AU17"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BA17:BE17"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BM17"/>
-    <mergeCell ref="BN17:BX17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AL16:AP16"/>
-    <mergeCell ref="AQ16:AU16"/>
-    <mergeCell ref="AV15:AZ15"/>
-    <mergeCell ref="BA15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="BI15:BM15"/>
-    <mergeCell ref="BN15:BX15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AL15:AP15"/>
-    <mergeCell ref="AQ15:AU15"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AL14:AP14"/>
-    <mergeCell ref="AQ14:AU14"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="BA13:BE13"/>
-    <mergeCell ref="BF13:BH13"/>
-    <mergeCell ref="BI13:BM13"/>
-    <mergeCell ref="BN13:BX13"/>
-    <mergeCell ref="AV14:AZ14"/>
-    <mergeCell ref="BA14:BE14"/>
-    <mergeCell ref="BF14:BH14"/>
-    <mergeCell ref="BI14:BM14"/>
-    <mergeCell ref="BN14:BX14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AL13:AP13"/>
-    <mergeCell ref="AQ13:AU13"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="B4:BX4"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="BN5:BX5"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BN11:BX11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="BA11:BE11"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BM9"/>
-    <mergeCell ref="BN9:BX9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AQ11:AU11"/>
-    <mergeCell ref="AV11:AZ11"/>
-    <mergeCell ref="BF11:BH11"/>
-    <mergeCell ref="BI11:BM11"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BM10"/>
-    <mergeCell ref="BN10:BX10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:BE11 BI5:BM11 M13:BE19 BI13:BM19">

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30620F1-FF02-4D44-89CA-569BB277F7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB540E-2B73-4663-961F-A21B6D3944D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
   <sheets>
     <sheet name="実施結果報告書" sheetId="17" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="172">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -1141,10 +1141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GJ8041_使用者マスタメンテナンス_項目チェック_autocomplete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>３．日付/年度は和暦(YY年MM月DD日)で表示されること</t>
   </si>
   <si>
@@ -1200,10 +1196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>※該当データが存在しませんでした。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>異常処理</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
@@ -1293,22 +1285,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>データが削除済みの場合、エラーメッセージ※が表示されること</t>
-    <rPh sb="4" eb="6">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※データを更新できません。他のユーザーによって変更された可能性があります。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1494,10 +1470,6 @@
       <t>ブ</t>
     </rPh>
     <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>GJ8010_コード一覧表</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>GJ8011</t>
@@ -1583,6 +1555,46 @@
       <t>カッセイカ</t>
     </rPh>
     <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>コード一覧表</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>GJ8010_コード一覧表_項目チェック_autocomplete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データが削除済みの場合、現行システムと一致すること</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※該当データが存在しませんでした。</t>
+  </si>
+  <si>
+    <t>データが削除済みの場合、ダブルクリックしてエラーメッセージ※が表示されること</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2650,15 +2662,15 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2683,6 +2695,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2694,18 +2718,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3932,7 +3944,7 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -3948,26 +3960,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+      <c r="A1" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
       <c r="D1" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="51"/>
       <c r="F1" s="44"/>
-      <c r="G1" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
+      <c r="G1" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
       <c r="J1" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>167</v>
+      <c r="K1" s="49" t="s">
+        <v>163</v>
       </c>
       <c r="M1" t="s">
         <v>69</v>
@@ -3977,17 +3989,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="52"/>
       <c r="E2" s="53"/>
       <c r="F2" s="45"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
       <c r="J2" s="55"/>
-      <c r="K2" s="47"/>
+      <c r="K2" s="49"/>
       <c r="M2" t="s">
         <v>70</v>
       </c>
@@ -3996,9 +4008,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="50" t="s">
         <v>11</v>
       </c>
@@ -4018,9 +4030,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="52"/>
       <c r="E4" s="53"/>
       <c r="F4" s="45"/>
@@ -4034,13 +4046,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="65" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="56" t="s">
@@ -4050,24 +4062,24 @@
         <v>8</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G6" s="56" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="63"/>
+      <c r="K6" s="59"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="57"/>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
@@ -4076,8 +4088,8 @@
       <c r="G7" s="57"/>
       <c r="H7" s="57"/>
       <c r="I7" s="57"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
@@ -4087,7 +4099,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -4095,15 +4107,15 @@
       <c r="G8" s="46"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -4114,8 +4126,8 @@
       <c r="G9" s="46"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -4127,8 +4139,8 @@
       <c r="G10" s="46"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -4140,8 +4152,8 @@
       <c r="G11" s="46"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -4153,8 +4165,8 @@
       <c r="G12" s="46"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -4166,8 +4178,8 @@
       <c r="G13" s="46"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -4179,8 +4191,8 @@
       <c r="G14" s="46"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -4192,8 +4204,8 @@
       <c r="G15" s="46"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -4205,8 +4217,8 @@
       <c r="G16" s="46"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -4218,8 +4230,8 @@
       <c r="G17" s="46"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -4231,8 +4243,8 @@
       <c r="G18" s="46"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -4244,8 +4256,8 @@
       <c r="G19" s="46"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -4257,30 +4269,27 @@
       <c r="G20" s="46"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="J15:K15"/>
     <mergeCell ref="J16:K16"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K7"/>
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
@@ -4294,6 +4303,9 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
@@ -4318,7 +4330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25A2F4-F93D-40FA-AE03-A5E4091A0730}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -4455,10 +4467,10 @@
         <v>67</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
@@ -4481,7 +4493,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -4583,10 +4595,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -4686,7 +4698,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -4707,12 +4719,12 @@
         <v>120</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="24" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4769,27 +4781,27 @@
       <c r="G22" s="33"/>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" s="8" customFormat="1" ht="18.75">
+    <row r="23" spans="1:8" s="8" customFormat="1" ht="37.5">
       <c r="A23" s="19">
         <f t="shared" ca="1" si="2"/>
         <v>17</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="32" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="37"/>
       <c r="H23" s="38" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4801,13 +4813,13 @@
         <v>43</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="33"/>
@@ -4819,22 +4831,20 @@
         <v>19</v>
       </c>
       <c r="B25" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="E25" s="36" t="s">
         <v>169</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>138</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="38" t="s">
-        <v>129</v>
-      </c>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A26" s="19">
@@ -4869,15 +4879,15 @@
         <v>42</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11.25" customHeight="1"/>
@@ -4909,7 +4919,7 @@
   <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8F59141-98C0-4CFB-A959-FB77013F87BA}">
           <x14:formula1>
             <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
@@ -5473,7 +5483,7 @@
       <c r="C9" s="102"/>
       <c r="D9" s="103"/>
       <c r="E9" s="104" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F9" s="105"/>
       <c r="G9" s="105"/>
@@ -5644,7 +5654,7 @@
     </row>
     <row r="13" spans="2:76" ht="16.5">
       <c r="I13" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="2:76" ht="15" customHeight="1">
@@ -6281,10 +6291,10 @@
         <v>67</v>
       </c>
       <c r="D7" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>125</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>126</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="23"/>
@@ -6307,7 +6317,7 @@
         <v>44</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="22"/>
       <c r="G8" s="17"/>
@@ -6328,7 +6338,7 @@
         <v>44</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="17"/>
@@ -6439,13 +6449,13 @@
         <v>79</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -6498,7 +6508,7 @@
         <v>110</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E18" s="20" t="s">
         <v>89</v>
@@ -6513,16 +6523,16 @@
         <v>13</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="37"/>
@@ -6534,21 +6544,21 @@
         <v>14</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C20" s="40" t="s">
         <v>110</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="37"/>
       <c r="H20" s="42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6557,21 +6567,21 @@
         <v>15</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>110</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6586,7 +6596,7 @@
         <v>111</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E22" s="20" t="s">
         <v>89</v>
@@ -6601,16 +6611,16 @@
         <v>17</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -6622,21 +6632,21 @@
         <v>18</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="37"/>
       <c r="H24" s="39" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6645,16 +6655,16 @@
         <v>19</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="37"/>
@@ -6666,21 +6676,21 @@
         <v>20</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>111</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="37"/>
       <c r="H26" s="38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6695,7 +6705,7 @@
         <v>107</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>89</v>
@@ -6710,21 +6720,21 @@
         <v>22</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="32" t="s">
         <v>107</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6733,16 +6743,16 @@
         <v>23</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C29" s="32" t="s">
         <v>107</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="37"/>
@@ -6754,21 +6764,21 @@
         <v>24</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="37"/>
       <c r="H30" s="38" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6801,18 +6811,18 @@
         <v>43</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6824,18 +6834,18 @@
         <v>43</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6847,18 +6857,18 @@
         <v>43</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" thickBot="1">
@@ -6870,18 +6880,18 @@
         <v>43</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>155</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>158</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11.25" customHeight="1"/>
@@ -7065,7 +7075,7 @@
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
       <c r="B4" s="129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="130"/>
       <c r="D4" s="130"/>
@@ -7370,7 +7380,7 @@
       <c r="BD7" s="107"/>
       <c r="BE7" s="108"/>
       <c r="BF7" s="111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BG7" s="112"/>
       <c r="BH7" s="112"/>
@@ -7453,7 +7463,7 @@
       <c r="BD8" s="107"/>
       <c r="BE8" s="108"/>
       <c r="BF8" s="111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BG8" s="112"/>
       <c r="BH8" s="112"/>
@@ -7725,7 +7735,7 @@
     </row>
     <row r="12" spans="2:76" ht="16.5" customHeight="1">
       <c r="B12" s="129" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="130"/>
       <c r="D12" s="130"/>
@@ -8030,7 +8040,7 @@
       <c r="BD15" s="107"/>
       <c r="BE15" s="108"/>
       <c r="BF15" s="111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BG15" s="112"/>
       <c r="BH15" s="112"/>
@@ -8113,7 +8123,7 @@
       <c r="BD16" s="107"/>
       <c r="BE16" s="108"/>
       <c r="BF16" s="111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BG16" s="112"/>
       <c r="BH16" s="112"/>
@@ -8395,7 +8405,7 @@
     </row>
     <row r="22" spans="2:76" ht="16.5">
       <c r="I22" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:76" ht="9" customHeight="1"/>

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBB540E-2B73-4663-961F-A21B6D3944D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A46433-B8CE-4495-98F6-01483FF5C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="3" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
   <sheets>
     <sheet name="実施結果報告書" sheetId="17" r:id="rId1"/>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="170">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -1318,27 +1318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ネットが切れている場合、エラーメッセージ※が表示されること</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※？？？？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データが他のユーザによって更新している場合、エラーメッセージ※が表示されること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データが他のユーザによって更新している場合、現行システムと一致すること</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1593,6 +1572,16 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットが切れている場合、現行システムと一致すること</t>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2662,15 +2651,33 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2689,12 +2696,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2713,18 +2714,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2737,6 +2726,87 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2749,10 +2819,58 @@
     <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2779,133 +2897,22 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="51" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="39" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="6" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2917,26 +2924,8 @@
     <xf numFmtId="177" fontId="21" fillId="6" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="51" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3960,26 +3949,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="50" t="s">
+      <c r="A1" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="57"/>
       <c r="F1" s="44"/>
-      <c r="G1" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="55" t="s">
+      <c r="G1" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="49" t="s">
-        <v>163</v>
+      <c r="K1" s="47" t="s">
+        <v>160</v>
       </c>
       <c r="M1" t="s">
         <v>69</v>
@@ -3989,17 +3978,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="45"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="49"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="47"/>
       <c r="M2" t="s">
         <v>70</v>
       </c>
@@ -4008,88 +3997,88 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="50" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="44"/>
-      <c r="G3" s="54" t="s">
+      <c r="G3" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55" t="s">
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="66"/>
+      <c r="K3" s="48"/>
       <c r="M3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="45"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="67"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="49"/>
       <c r="M4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" s="58" t="s">
+      <c r="H6" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="59"/>
+      <c r="K6" s="63"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="65"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
@@ -4099,7 +4088,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -4107,15 +4096,15 @@
       <c r="G8" s="46"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -4126,8 +4115,8 @@
       <c r="G9" s="46"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -4139,8 +4128,8 @@
       <c r="G10" s="46"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -4152,8 +4141,8 @@
       <c r="G11" s="46"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -4165,8 +4154,8 @@
       <c r="G12" s="46"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -4178,8 +4167,8 @@
       <c r="G13" s="46"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -4191,8 +4180,8 @@
       <c r="G14" s="46"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -4204,8 +4193,8 @@
       <c r="G15" s="46"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -4217,8 +4206,8 @@
       <c r="G16" s="46"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -4230,8 +4219,8 @@
       <c r="G17" s="46"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -4243,8 +4232,8 @@
       <c r="G18" s="46"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -4256,8 +4245,8 @@
       <c r="G19" s="46"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -4269,27 +4258,11 @@
       <c r="G20" s="46"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
@@ -4306,6 +4279,22 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
@@ -4330,7 +4319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25A2F4-F93D-40FA-AE03-A5E4091A0730}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -4595,10 +4584,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -4698,7 +4687,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -4719,12 +4708,12 @@
         <v>120</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4796,12 +4785,12 @@
         <v>127</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="37"/>
       <c r="H23" s="38" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4813,7 +4802,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>40</v>
@@ -4834,13 +4823,13 @@
         <v>126</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>127</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="37"/>
@@ -4879,15 +4868,15 @@
         <v>42</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11.25" customHeight="1"/>
@@ -4957,690 +4946,690 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="75" t="s">
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="98" t="s">
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="98" t="s">
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="76" t="s">
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="99" t="s">
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="99" t="s">
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="99" t="s">
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="94" t="s">
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="117"/>
+      <c r="AV3" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="95"/>
-      <c r="BA3" s="75" t="s">
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="117"/>
+      <c r="BA3" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="96" t="s">
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="BG3" s="97"/>
-      <c r="BH3" s="97"/>
-      <c r="BI3" s="94" t="s">
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="BJ3" s="94"/>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="94"/>
-      <c r="BM3" s="95"/>
-      <c r="BN3" s="73" t="s">
+      <c r="BJ3" s="116"/>
+      <c r="BK3" s="116"/>
+      <c r="BL3" s="116"/>
+      <c r="BM3" s="117"/>
+      <c r="BN3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="73"/>
-      <c r="BT3" s="73"/>
-      <c r="BU3" s="73"/>
-      <c r="BV3" s="73"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="74"/>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="100"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="100"/>
+      <c r="BS3" s="100"/>
+      <c r="BT3" s="100"/>
+      <c r="BU3" s="100"/>
+      <c r="BV3" s="100"/>
+      <c r="BW3" s="100"/>
+      <c r="BX3" s="101"/>
     </row>
     <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="86">
+      <c r="B4" s="111">
         <v>1</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="93"/>
-      <c r="R4" s="91"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="93"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="92"/>
-      <c r="AD4" s="92"/>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="93"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="92"/>
-      <c r="AK4" s="93"/>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="92"/>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="93"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="92"/>
-      <c r="AY4" s="92"/>
-      <c r="AZ4" s="93"/>
-      <c r="BA4" s="91"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="127" t="s">
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="83"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="81"/>
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="83"/>
+      <c r="AB4" s="81"/>
+      <c r="AC4" s="82"/>
+      <c r="AD4" s="82"/>
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="81"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="81"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="81"/>
+      <c r="AR4" s="82"/>
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="81"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="82"/>
+      <c r="AY4" s="82"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="81"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="BG4" s="128"/>
-      <c r="BH4" s="128"/>
-      <c r="BI4" s="91"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="92"/>
-      <c r="BM4" s="93"/>
-      <c r="BN4" s="125"/>
-      <c r="BO4" s="125"/>
-      <c r="BP4" s="125"/>
-      <c r="BQ4" s="125"/>
-      <c r="BR4" s="125"/>
-      <c r="BS4" s="125"/>
-      <c r="BT4" s="125"/>
-      <c r="BU4" s="125"/>
-      <c r="BV4" s="125"/>
-      <c r="BW4" s="125"/>
-      <c r="BX4" s="126"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="81"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="82"/>
+      <c r="BL4" s="82"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="104"/>
+      <c r="BO4" s="104"/>
+      <c r="BP4" s="104"/>
+      <c r="BQ4" s="104"/>
+      <c r="BR4" s="104"/>
+      <c r="BS4" s="104"/>
+      <c r="BT4" s="104"/>
+      <c r="BU4" s="104"/>
+      <c r="BV4" s="104"/>
+      <c r="BW4" s="104"/>
+      <c r="BX4" s="105"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="101">
+      <c r="B5" s="90">
         <v>2</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104" t="s">
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="109"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="107"/>
-      <c r="AI5" s="107"/>
-      <c r="AJ5" s="107"/>
-      <c r="AK5" s="108"/>
-      <c r="AL5" s="106"/>
-      <c r="AM5" s="107"/>
-      <c r="AN5" s="107"/>
-      <c r="AO5" s="107"/>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="106"/>
-      <c r="AR5" s="107"/>
-      <c r="AS5" s="107"/>
-      <c r="AT5" s="107"/>
-      <c r="AU5" s="108"/>
-      <c r="AV5" s="106"/>
-      <c r="AW5" s="107"/>
-      <c r="AX5" s="107"/>
-      <c r="AY5" s="107"/>
-      <c r="AZ5" s="108"/>
-      <c r="BA5" s="106"/>
-      <c r="BB5" s="107"/>
-      <c r="BC5" s="107"/>
-      <c r="BD5" s="107"/>
-      <c r="BE5" s="108"/>
-      <c r="BF5" s="111" t="s">
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="75"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="75"/>
+      <c r="AI5" s="75"/>
+      <c r="AJ5" s="75"/>
+      <c r="AK5" s="76"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="75"/>
+      <c r="AN5" s="75"/>
+      <c r="AO5" s="75"/>
+      <c r="AP5" s="76"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="75"/>
+      <c r="AS5" s="75"/>
+      <c r="AT5" s="75"/>
+      <c r="AU5" s="76"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="76"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="76"/>
+      <c r="BF5" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG5" s="112"/>
-      <c r="BH5" s="112"/>
-      <c r="BI5" s="106"/>
-      <c r="BJ5" s="107"/>
-      <c r="BK5" s="107"/>
-      <c r="BL5" s="107"/>
-      <c r="BM5" s="108"/>
-      <c r="BN5" s="105"/>
-      <c r="BO5" s="105"/>
-      <c r="BP5" s="105"/>
-      <c r="BQ5" s="105"/>
-      <c r="BR5" s="105"/>
-      <c r="BS5" s="105"/>
-      <c r="BT5" s="105"/>
-      <c r="BU5" s="105"/>
-      <c r="BV5" s="105"/>
-      <c r="BW5" s="105"/>
-      <c r="BX5" s="110"/>
+      <c r="BG5" s="78"/>
+      <c r="BH5" s="78"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="75"/>
+      <c r="BK5" s="75"/>
+      <c r="BL5" s="75"/>
+      <c r="BM5" s="76"/>
+      <c r="BN5" s="72"/>
+      <c r="BO5" s="72"/>
+      <c r="BP5" s="72"/>
+      <c r="BQ5" s="72"/>
+      <c r="BR5" s="72"/>
+      <c r="BS5" s="72"/>
+      <c r="BT5" s="72"/>
+      <c r="BU5" s="72"/>
+      <c r="BV5" s="72"/>
+      <c r="BW5" s="72"/>
+      <c r="BX5" s="73"/>
     </row>
     <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="101">
+      <c r="B6" s="90">
         <v>3</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="107"/>
-      <c r="AI6" s="107"/>
-      <c r="AJ6" s="107"/>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="107"/>
-      <c r="AN6" s="107"/>
-      <c r="AO6" s="107"/>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="107"/>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="107"/>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="107"/>
-      <c r="BC6" s="107"/>
-      <c r="BD6" s="107"/>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="111" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="75"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="75"/>
+      <c r="AS6" s="75"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="76"/>
+      <c r="BF6" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG6" s="112"/>
-      <c r="BH6" s="112"/>
-      <c r="BI6" s="106"/>
-      <c r="BJ6" s="107"/>
-      <c r="BK6" s="107"/>
-      <c r="BL6" s="107"/>
-      <c r="BM6" s="108"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
-      <c r="BQ6" s="105"/>
-      <c r="BR6" s="105"/>
-      <c r="BS6" s="105"/>
-      <c r="BT6" s="105"/>
-      <c r="BU6" s="105"/>
-      <c r="BV6" s="105"/>
-      <c r="BW6" s="105"/>
-      <c r="BX6" s="110"/>
+      <c r="BG6" s="78"/>
+      <c r="BH6" s="78"/>
+      <c r="BI6" s="74"/>
+      <c r="BJ6" s="75"/>
+      <c r="BK6" s="75"/>
+      <c r="BL6" s="75"/>
+      <c r="BM6" s="76"/>
+      <c r="BN6" s="72"/>
+      <c r="BO6" s="72"/>
+      <c r="BP6" s="72"/>
+      <c r="BQ6" s="72"/>
+      <c r="BR6" s="72"/>
+      <c r="BS6" s="72"/>
+      <c r="BT6" s="72"/>
+      <c r="BU6" s="72"/>
+      <c r="BV6" s="72"/>
+      <c r="BW6" s="72"/>
+      <c r="BX6" s="73"/>
     </row>
     <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="101">
+      <c r="B7" s="90">
         <v>4</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="108"/>
-      <c r="AL7" s="106"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="108"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="108"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="108"/>
-      <c r="BA7" s="106"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="108"/>
-      <c r="BF7" s="111" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="75"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="76"/>
+      <c r="BF7" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
-      <c r="BI7" s="106"/>
-      <c r="BJ7" s="107"/>
-      <c r="BK7" s="107"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="108"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
-      <c r="BQ7" s="105"/>
-      <c r="BR7" s="105"/>
-      <c r="BS7" s="105"/>
-      <c r="BT7" s="105"/>
-      <c r="BU7" s="105"/>
-      <c r="BV7" s="105"/>
-      <c r="BW7" s="105"/>
-      <c r="BX7" s="110"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="75"/>
+      <c r="BK7" s="75"/>
+      <c r="BL7" s="75"/>
+      <c r="BM7" s="76"/>
+      <c r="BN7" s="72"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="72"/>
+      <c r="BQ7" s="72"/>
+      <c r="BR7" s="72"/>
+      <c r="BS7" s="72"/>
+      <c r="BT7" s="72"/>
+      <c r="BU7" s="72"/>
+      <c r="BV7" s="72"/>
+      <c r="BW7" s="72"/>
+      <c r="BX7" s="73"/>
     </row>
     <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="101">
+      <c r="B8" s="90">
         <v>5</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="107"/>
-      <c r="AN8" s="107"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="108"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="108"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="107"/>
-      <c r="AX8" s="107"/>
-      <c r="AY8" s="107"/>
-      <c r="AZ8" s="108"/>
-      <c r="BA8" s="106"/>
-      <c r="BB8" s="107"/>
-      <c r="BC8" s="107"/>
-      <c r="BD8" s="107"/>
-      <c r="BE8" s="108"/>
-      <c r="BF8" s="111" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="76"/>
+      <c r="BF8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG8" s="112"/>
-      <c r="BH8" s="112"/>
-      <c r="BI8" s="106"/>
-      <c r="BJ8" s="107"/>
-      <c r="BK8" s="107"/>
-      <c r="BL8" s="107"/>
-      <c r="BM8" s="108"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
-      <c r="BP8" s="105"/>
-      <c r="BQ8" s="105"/>
-      <c r="BR8" s="105"/>
-      <c r="BS8" s="105"/>
-      <c r="BT8" s="105"/>
-      <c r="BU8" s="105"/>
-      <c r="BV8" s="105"/>
-      <c r="BW8" s="105"/>
-      <c r="BX8" s="110"/>
+      <c r="BG8" s="78"/>
+      <c r="BH8" s="78"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="75"/>
+      <c r="BK8" s="75"/>
+      <c r="BL8" s="75"/>
+      <c r="BM8" s="76"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="72"/>
+      <c r="BU8" s="72"/>
+      <c r="BV8" s="72"/>
+      <c r="BW8" s="72"/>
+      <c r="BX8" s="73"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="101">
+      <c r="B9" s="90">
         <v>6</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="106"/>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="107"/>
-      <c r="BE9" s="108"/>
-      <c r="BF9" s="111" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="76"/>
+      <c r="BF9" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG9" s="112"/>
-      <c r="BH9" s="112"/>
-      <c r="BI9" s="106"/>
-      <c r="BJ9" s="107"/>
-      <c r="BK9" s="107"/>
-      <c r="BL9" s="107"/>
-      <c r="BM9" s="108"/>
-      <c r="BN9" s="105"/>
-      <c r="BO9" s="105"/>
-      <c r="BP9" s="105"/>
-      <c r="BQ9" s="105"/>
-      <c r="BR9" s="105"/>
-      <c r="BS9" s="105"/>
-      <c r="BT9" s="105"/>
-      <c r="BU9" s="105"/>
-      <c r="BV9" s="105"/>
-      <c r="BW9" s="105"/>
-      <c r="BX9" s="110"/>
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="75"/>
+      <c r="BM9" s="76"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="72"/>
+      <c r="BS9" s="72"/>
+      <c r="BT9" s="72"/>
+      <c r="BU9" s="72"/>
+      <c r="BV9" s="72"/>
+      <c r="BW9" s="72"/>
+      <c r="BX9" s="73"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="113">
+      <c r="B10" s="85">
         <v>7</v>
       </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="116" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="119"/>
-      <c r="O10" s="119"/>
-      <c r="P10" s="119"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="119"/>
-      <c r="Y10" s="119"/>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="119"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="119"/>
-      <c r="AK10" s="120"/>
-      <c r="AL10" s="121"/>
-      <c r="AM10" s="119"/>
-      <c r="AN10" s="119"/>
-      <c r="AO10" s="119"/>
-      <c r="AP10" s="120"/>
-      <c r="AQ10" s="121"/>
-      <c r="AR10" s="119"/>
-      <c r="AS10" s="119"/>
-      <c r="AT10" s="119"/>
-      <c r="AU10" s="120"/>
-      <c r="AV10" s="121"/>
-      <c r="AW10" s="119"/>
-      <c r="AX10" s="119"/>
-      <c r="AY10" s="119"/>
-      <c r="AZ10" s="120"/>
-      <c r="BA10" s="118"/>
-      <c r="BB10" s="119"/>
-      <c r="BC10" s="119"/>
-      <c r="BD10" s="119"/>
-      <c r="BE10" s="120"/>
-      <c r="BF10" s="122" t="s">
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="96"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="96"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="97"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="96"/>
+      <c r="AI10" s="96"/>
+      <c r="AJ10" s="96"/>
+      <c r="AK10" s="97"/>
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="97"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="96"/>
+      <c r="AS10" s="96"/>
+      <c r="AT10" s="96"/>
+      <c r="AU10" s="97"/>
+      <c r="AV10" s="98"/>
+      <c r="AW10" s="96"/>
+      <c r="AX10" s="96"/>
+      <c r="AY10" s="96"/>
+      <c r="AZ10" s="97"/>
+      <c r="BA10" s="95"/>
+      <c r="BB10" s="96"/>
+      <c r="BC10" s="96"/>
+      <c r="BD10" s="96"/>
+      <c r="BE10" s="97"/>
+      <c r="BF10" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG10" s="123"/>
-      <c r="BH10" s="123"/>
-      <c r="BI10" s="121"/>
-      <c r="BJ10" s="119"/>
-      <c r="BK10" s="119"/>
-      <c r="BL10" s="119"/>
-      <c r="BM10" s="120"/>
-      <c r="BN10" s="117"/>
-      <c r="BO10" s="117"/>
-      <c r="BP10" s="117"/>
-      <c r="BQ10" s="117"/>
-      <c r="BR10" s="117"/>
-      <c r="BS10" s="117"/>
-      <c r="BT10" s="117"/>
-      <c r="BU10" s="117"/>
-      <c r="BV10" s="117"/>
-      <c r="BW10" s="117"/>
-      <c r="BX10" s="124"/>
+      <c r="BG10" s="109"/>
+      <c r="BH10" s="109"/>
+      <c r="BI10" s="98"/>
+      <c r="BJ10" s="96"/>
+      <c r="BK10" s="96"/>
+      <c r="BL10" s="96"/>
+      <c r="BM10" s="97"/>
+      <c r="BN10" s="89"/>
+      <c r="BO10" s="89"/>
+      <c r="BP10" s="89"/>
+      <c r="BQ10" s="89"/>
+      <c r="BR10" s="89"/>
+      <c r="BS10" s="89"/>
+      <c r="BT10" s="89"/>
+      <c r="BU10" s="89"/>
+      <c r="BV10" s="89"/>
+      <c r="BW10" s="89"/>
+      <c r="BX10" s="110"/>
     </row>
     <row r="11" spans="2:76" ht="16.5">
       <c r="B11" s="35" t="s">
@@ -5663,146 +5652,146 @@
       </c>
     </row>
     <row r="16" spans="2:76" ht="15" customHeight="1">
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="72" t="s">
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="75" t="s">
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="M16" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="76" t="s">
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="98" t="s">
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="77"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="80"/>
     </row>
     <row r="17" spans="2:39" ht="15" customHeight="1">
-      <c r="B17" s="101">
+      <c r="B17" s="90">
         <v>1</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="92"/>
-      <c r="R17" s="92"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="91"/>
-      <c r="U17" s="92"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="92"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="92"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="93"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="83"/>
     </row>
     <row r="18" spans="2:39" ht="15" customHeight="1">
-      <c r="B18" s="101">
+      <c r="B18" s="90">
         <v>2</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="108"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="107"/>
-      <c r="W18" s="107"/>
-      <c r="X18" s="108"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="108"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="76"/>
     </row>
     <row r="19" spans="2:39" ht="15" customHeight="1">
-      <c r="B19" s="113">
+      <c r="B19" s="85">
         <v>3</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
-      <c r="AB19" s="119"/>
-      <c r="AC19" s="120"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
+      <c r="S19" s="97"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="96"/>
+      <c r="W19" s="96"/>
+      <c r="X19" s="97"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="96"/>
+      <c r="AB19" s="96"/>
+      <c r="AC19" s="97"/>
     </row>
     <row r="21" spans="2:39" ht="16.5">
       <c r="B21" s="35" t="s">
@@ -5810,98 +5799,98 @@
       </c>
     </row>
     <row r="22" spans="2:39" ht="15" customHeight="1">
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="72" t="s">
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="75" t="s">
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="75" t="s">
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="102" t="s">
         <v>118</v>
       </c>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="75" t="s">
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="79"/>
+      <c r="AE22" s="102" t="s">
         <v>119</v>
       </c>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="76"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="77"/>
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="79"/>
+      <c r="AK22" s="79"/>
+      <c r="AL22" s="79"/>
+      <c r="AM22" s="80"/>
     </row>
     <row r="23" spans="2:39" ht="15" customHeight="1">
-      <c r="B23" s="78">
+      <c r="B23" s="121">
         <v>1</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81" t="s">
+      <c r="C23" s="122"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="83"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="84"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="83"/>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="84"/>
-      <c r="AB23" s="84"/>
-      <c r="AC23" s="84"/>
-      <c r="AD23" s="85"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="84"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="84"/>
-      <c r="AJ23" s="84"/>
-      <c r="AK23" s="84"/>
-      <c r="AL23" s="84"/>
-      <c r="AM23" s="85"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="126"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="127"/>
+      <c r="Q23" s="127"/>
+      <c r="R23" s="127"/>
+      <c r="S23" s="127"/>
+      <c r="T23" s="127"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="126"/>
+      <c r="W23" s="127"/>
+      <c r="X23" s="127"/>
+      <c r="Y23" s="127"/>
+      <c r="Z23" s="127"/>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="127"/>
+      <c r="AC23" s="127"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="126"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="127"/>
+      <c r="AI23" s="127"/>
+      <c r="AJ23" s="127"/>
+      <c r="AK23" s="127"/>
+      <c r="AL23" s="127"/>
+      <c r="AM23" s="128"/>
     </row>
     <row r="24" spans="2:39" ht="9" customHeight="1">
       <c r="B24" s="43"/>
@@ -5946,36 +5935,94 @@
     <row r="25" spans="2:39" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="BN9:BX9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BM9"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="V22:AD22"/>
+    <mergeCell ref="AE22:AM22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="V23:AD23"/>
+    <mergeCell ref="AE23:AM23"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="BA4:BE4"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="AQ4:AU4"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BM10"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="BN10:BX10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
     <mergeCell ref="BN5:BX5"/>
     <mergeCell ref="BN4:BX4"/>
     <mergeCell ref="BF4:BH4"/>
@@ -6000,94 +6047,36 @@
     <mergeCell ref="AL5:AP5"/>
     <mergeCell ref="AL6:AP6"/>
     <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BM10"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="BN10:BX10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BA4:BE4"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="V22:AD22"/>
-    <mergeCell ref="AE22:AM22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="V23:AD23"/>
-    <mergeCell ref="AE23:AM23"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="BN9:BX9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BM9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M17:M19">
@@ -6154,7 +6143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747EE681-C22A-4F39-983F-2980DFC3BADB}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -6449,13 +6438,13 @@
         <v>79</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -6532,13 +6521,13 @@
         <v>129</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="37"/>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" ht="37.5">
+    <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A20" s="41">
         <f t="shared" ca="1" si="3"/>
         <v>14</v>
@@ -6553,12 +6542,12 @@
         <v>129</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="37"/>
       <c r="H20" s="42" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6576,13 +6565,11 @@
         <v>129</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="38" t="s">
-        <v>140</v>
-      </c>
+      <c r="H21" s="38"/>
     </row>
     <row r="22" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A22" s="19">
@@ -6664,7 +6651,7 @@
         <v>129</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="37"/>
@@ -6685,13 +6672,11 @@
         <v>129</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="38" t="s">
-        <v>140</v>
-      </c>
+      <c r="H26" s="38"/>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A27" s="19">
@@ -6752,7 +6737,7 @@
         <v>133</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="37"/>
@@ -6773,13 +6758,11 @@
         <v>133</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="37"/>
-      <c r="H30" s="38" t="s">
-        <v>140</v>
-      </c>
+      <c r="H30" s="38"/>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A31" s="19">
@@ -6811,18 +6794,18 @@
         <v>43</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6834,18 +6817,18 @@
         <v>43</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -6857,18 +6840,18 @@
         <v>43</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="19.5" thickBot="1">
@@ -6880,18 +6863,18 @@
         <v>43</v>
       </c>
       <c r="C35" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>152</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="11.25" customHeight="1"/>
@@ -6969,1429 +6952,1429 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="72" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="75" t="s">
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="102" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="98" t="s">
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="98" t="s">
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="76" t="s">
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="99" t="s">
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="79"/>
+      <c r="AG3" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="95"/>
-      <c r="AL3" s="99" t="s">
+      <c r="AH3" s="116"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="117"/>
+      <c r="AL3" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="AM3" s="94"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="99" t="s">
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="117"/>
+      <c r="AQ3" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="94"/>
-      <c r="AS3" s="94"/>
-      <c r="AT3" s="94"/>
-      <c r="AU3" s="95"/>
-      <c r="AV3" s="94" t="s">
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="117"/>
+      <c r="AV3" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="AW3" s="94"/>
-      <c r="AX3" s="94"/>
-      <c r="AY3" s="94"/>
-      <c r="AZ3" s="95"/>
-      <c r="BA3" s="75" t="s">
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="117"/>
+      <c r="BA3" s="102" t="s">
         <v>101</v>
       </c>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="77"/>
-      <c r="BF3" s="96" t="s">
+      <c r="BB3" s="79"/>
+      <c r="BC3" s="79"/>
+      <c r="BD3" s="79"/>
+      <c r="BE3" s="80"/>
+      <c r="BF3" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="BG3" s="97"/>
-      <c r="BH3" s="97"/>
-      <c r="BI3" s="94" t="s">
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="BJ3" s="94"/>
-      <c r="BK3" s="94"/>
-      <c r="BL3" s="94"/>
-      <c r="BM3" s="95"/>
-      <c r="BN3" s="73" t="s">
+      <c r="BJ3" s="116"/>
+      <c r="BK3" s="116"/>
+      <c r="BL3" s="116"/>
+      <c r="BM3" s="117"/>
+      <c r="BN3" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
-      <c r="BS3" s="73"/>
-      <c r="BT3" s="73"/>
-      <c r="BU3" s="73"/>
-      <c r="BV3" s="73"/>
-      <c r="BW3" s="73"/>
-      <c r="BX3" s="74"/>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="100"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="100"/>
+      <c r="BS3" s="100"/>
+      <c r="BT3" s="100"/>
+      <c r="BU3" s="100"/>
+      <c r="BV3" s="100"/>
+      <c r="BW3" s="100"/>
+      <c r="BX3" s="101"/>
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
-      <c r="AG4" s="130"/>
-      <c r="AH4" s="130"/>
-      <c r="AI4" s="130"/>
-      <c r="AJ4" s="130"/>
-      <c r="AK4" s="130"/>
-      <c r="AL4" s="130"/>
-      <c r="AM4" s="130"/>
-      <c r="AN4" s="130"/>
-      <c r="AO4" s="130"/>
-      <c r="AP4" s="130"/>
-      <c r="AQ4" s="130"/>
-      <c r="AR4" s="130"/>
-      <c r="AS4" s="130"/>
-      <c r="AT4" s="130"/>
-      <c r="AU4" s="130"/>
-      <c r="AV4" s="130"/>
-      <c r="AW4" s="130"/>
-      <c r="AX4" s="130"/>
-      <c r="AY4" s="130"/>
-      <c r="AZ4" s="130"/>
-      <c r="BA4" s="130"/>
-      <c r="BB4" s="130"/>
-      <c r="BC4" s="130"/>
-      <c r="BD4" s="130"/>
-      <c r="BE4" s="130"/>
-      <c r="BF4" s="130"/>
-      <c r="BG4" s="130"/>
-      <c r="BH4" s="130"/>
-      <c r="BI4" s="130"/>
-      <c r="BJ4" s="130"/>
-      <c r="BK4" s="130"/>
-      <c r="BL4" s="130"/>
-      <c r="BM4" s="130"/>
-      <c r="BN4" s="130"/>
-      <c r="BO4" s="130"/>
-      <c r="BP4" s="130"/>
-      <c r="BQ4" s="130"/>
-      <c r="BR4" s="130"/>
-      <c r="BS4" s="130"/>
-      <c r="BT4" s="130"/>
-      <c r="BU4" s="130"/>
-      <c r="BV4" s="130"/>
-      <c r="BW4" s="130"/>
-      <c r="BX4" s="131"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
+      <c r="AG4" s="136"/>
+      <c r="AH4" s="136"/>
+      <c r="AI4" s="136"/>
+      <c r="AJ4" s="136"/>
+      <c r="AK4" s="136"/>
+      <c r="AL4" s="136"/>
+      <c r="AM4" s="136"/>
+      <c r="AN4" s="136"/>
+      <c r="AO4" s="136"/>
+      <c r="AP4" s="136"/>
+      <c r="AQ4" s="136"/>
+      <c r="AR4" s="136"/>
+      <c r="AS4" s="136"/>
+      <c r="AT4" s="136"/>
+      <c r="AU4" s="136"/>
+      <c r="AV4" s="136"/>
+      <c r="AW4" s="136"/>
+      <c r="AX4" s="136"/>
+      <c r="AY4" s="136"/>
+      <c r="AZ4" s="136"/>
+      <c r="BA4" s="136"/>
+      <c r="BB4" s="136"/>
+      <c r="BC4" s="136"/>
+      <c r="BD4" s="136"/>
+      <c r="BE4" s="136"/>
+      <c r="BF4" s="136"/>
+      <c r="BG4" s="136"/>
+      <c r="BH4" s="136"/>
+      <c r="BI4" s="136"/>
+      <c r="BJ4" s="136"/>
+      <c r="BK4" s="136"/>
+      <c r="BL4" s="136"/>
+      <c r="BM4" s="136"/>
+      <c r="BN4" s="136"/>
+      <c r="BO4" s="136"/>
+      <c r="BP4" s="136"/>
+      <c r="BQ4" s="136"/>
+      <c r="BR4" s="136"/>
+      <c r="BS4" s="136"/>
+      <c r="BT4" s="136"/>
+      <c r="BU4" s="136"/>
+      <c r="BV4" s="136"/>
+      <c r="BW4" s="136"/>
+      <c r="BX4" s="137"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="86">
+      <c r="B5" s="111">
         <v>1</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89" t="s">
+      <c r="C5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="132"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="132"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
-      <c r="AA5" s="134"/>
-      <c r="AB5" s="132"/>
-      <c r="AC5" s="133"/>
-      <c r="AD5" s="133"/>
-      <c r="AE5" s="133"/>
-      <c r="AF5" s="134"/>
-      <c r="AG5" s="132"/>
-      <c r="AH5" s="133"/>
-      <c r="AI5" s="133"/>
-      <c r="AJ5" s="133"/>
-      <c r="AK5" s="134"/>
-      <c r="AL5" s="132"/>
-      <c r="AM5" s="133"/>
-      <c r="AN5" s="133"/>
-      <c r="AO5" s="133"/>
-      <c r="AP5" s="134"/>
-      <c r="AQ5" s="132"/>
-      <c r="AR5" s="133"/>
-      <c r="AS5" s="133"/>
-      <c r="AT5" s="133"/>
-      <c r="AU5" s="134"/>
-      <c r="AV5" s="132"/>
-      <c r="AW5" s="133"/>
-      <c r="AX5" s="133"/>
-      <c r="AY5" s="133"/>
-      <c r="AZ5" s="134"/>
-      <c r="BA5" s="132"/>
-      <c r="BB5" s="133"/>
-      <c r="BC5" s="133"/>
-      <c r="BD5" s="133"/>
-      <c r="BE5" s="134"/>
-      <c r="BF5" s="137" t="s">
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="131"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="131"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
+      <c r="AA5" s="131"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
+      <c r="AF5" s="131"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="130"/>
+      <c r="AI5" s="130"/>
+      <c r="AJ5" s="130"/>
+      <c r="AK5" s="131"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="130"/>
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="131"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="130"/>
+      <c r="AS5" s="130"/>
+      <c r="AT5" s="130"/>
+      <c r="AU5" s="131"/>
+      <c r="AV5" s="129"/>
+      <c r="AW5" s="130"/>
+      <c r="AX5" s="130"/>
+      <c r="AY5" s="130"/>
+      <c r="AZ5" s="131"/>
+      <c r="BA5" s="129"/>
+      <c r="BB5" s="130"/>
+      <c r="BC5" s="130"/>
+      <c r="BD5" s="130"/>
+      <c r="BE5" s="131"/>
+      <c r="BF5" s="133" t="s">
         <v>71</v>
       </c>
-      <c r="BG5" s="138"/>
-      <c r="BH5" s="138"/>
-      <c r="BI5" s="132"/>
-      <c r="BJ5" s="133"/>
-      <c r="BK5" s="133"/>
-      <c r="BL5" s="133"/>
-      <c r="BM5" s="134"/>
-      <c r="BN5" s="90"/>
-      <c r="BO5" s="90"/>
-      <c r="BP5" s="90"/>
-      <c r="BQ5" s="90"/>
-      <c r="BR5" s="90"/>
-      <c r="BS5" s="90"/>
-      <c r="BT5" s="90"/>
-      <c r="BU5" s="90"/>
-      <c r="BV5" s="90"/>
-      <c r="BW5" s="90"/>
-      <c r="BX5" s="136"/>
+      <c r="BG5" s="134"/>
+      <c r="BH5" s="134"/>
+      <c r="BI5" s="129"/>
+      <c r="BJ5" s="130"/>
+      <c r="BK5" s="130"/>
+      <c r="BL5" s="130"/>
+      <c r="BM5" s="131"/>
+      <c r="BN5" s="115"/>
+      <c r="BO5" s="115"/>
+      <c r="BP5" s="115"/>
+      <c r="BQ5" s="115"/>
+      <c r="BR5" s="115"/>
+      <c r="BS5" s="115"/>
+      <c r="BT5" s="115"/>
+      <c r="BU5" s="115"/>
+      <c r="BV5" s="115"/>
+      <c r="BW5" s="115"/>
+      <c r="BX5" s="132"/>
     </row>
     <row r="6" spans="2:76" ht="16.5">
-      <c r="B6" s="101">
+      <c r="B6" s="90">
         <v>2</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="91"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="108"/>
-      <c r="R6" s="106"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="107"/>
-      <c r="Y6" s="107"/>
-      <c r="Z6" s="107"/>
-      <c r="AA6" s="108"/>
-      <c r="AB6" s="106"/>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
-      <c r="AF6" s="108"/>
-      <c r="AG6" s="106"/>
-      <c r="AH6" s="107"/>
-      <c r="AI6" s="107"/>
-      <c r="AJ6" s="107"/>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="107"/>
-      <c r="AN6" s="107"/>
-      <c r="AO6" s="107"/>
-      <c r="AP6" s="108"/>
-      <c r="AQ6" s="106"/>
-      <c r="AR6" s="107"/>
-      <c r="AS6" s="107"/>
-      <c r="AT6" s="107"/>
-      <c r="AU6" s="108"/>
-      <c r="AV6" s="106"/>
-      <c r="AW6" s="107"/>
-      <c r="AX6" s="107"/>
-      <c r="AY6" s="107"/>
-      <c r="AZ6" s="108"/>
-      <c r="BA6" s="106"/>
-      <c r="BB6" s="107"/>
-      <c r="BC6" s="107"/>
-      <c r="BD6" s="107"/>
-      <c r="BE6" s="108"/>
-      <c r="BF6" s="111" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="75"/>
+      <c r="Z6" s="75"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="75"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="75"/>
+      <c r="AI6" s="75"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="75"/>
+      <c r="AN6" s="75"/>
+      <c r="AO6" s="75"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="74"/>
+      <c r="AR6" s="75"/>
+      <c r="AS6" s="75"/>
+      <c r="AT6" s="75"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="74"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="74"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="76"/>
+      <c r="BF6" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="BG6" s="112"/>
-      <c r="BH6" s="112"/>
-      <c r="BI6" s="106"/>
-      <c r="BJ6" s="107"/>
-      <c r="BK6" s="107"/>
-      <c r="BL6" s="107"/>
-      <c r="BM6" s="108"/>
-      <c r="BN6" s="105"/>
-      <c r="BO6" s="105"/>
-      <c r="BP6" s="105"/>
-      <c r="BQ6" s="105"/>
-      <c r="BR6" s="105"/>
-      <c r="BS6" s="105"/>
-      <c r="BT6" s="105"/>
-      <c r="BU6" s="105"/>
-      <c r="BV6" s="105"/>
-      <c r="BW6" s="105"/>
-      <c r="BX6" s="110"/>
+      <c r="BG6" s="78"/>
+      <c r="BH6" s="78"/>
+      <c r="BI6" s="74"/>
+      <c r="BJ6" s="75"/>
+      <c r="BK6" s="75"/>
+      <c r="BL6" s="75"/>
+      <c r="BM6" s="76"/>
+      <c r="BN6" s="72"/>
+      <c r="BO6" s="72"/>
+      <c r="BP6" s="72"/>
+      <c r="BQ6" s="72"/>
+      <c r="BR6" s="72"/>
+      <c r="BS6" s="72"/>
+      <c r="BT6" s="72"/>
+      <c r="BU6" s="72"/>
+      <c r="BV6" s="72"/>
+      <c r="BW6" s="72"/>
+      <c r="BX6" s="73"/>
     </row>
     <row r="7" spans="2:76" ht="16.5">
-      <c r="B7" s="101">
+      <c r="B7" s="90">
         <v>3</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="105"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="106"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="108"/>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="107"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="108"/>
-      <c r="AL7" s="106"/>
-      <c r="AM7" s="107"/>
-      <c r="AN7" s="107"/>
-      <c r="AO7" s="107"/>
-      <c r="AP7" s="108"/>
-      <c r="AQ7" s="106"/>
-      <c r="AR7" s="107"/>
-      <c r="AS7" s="107"/>
-      <c r="AT7" s="107"/>
-      <c r="AU7" s="108"/>
-      <c r="AV7" s="106"/>
-      <c r="AW7" s="107"/>
-      <c r="AX7" s="107"/>
-      <c r="AY7" s="107"/>
-      <c r="AZ7" s="108"/>
-      <c r="BA7" s="106"/>
-      <c r="BB7" s="107"/>
-      <c r="BC7" s="107"/>
-      <c r="BD7" s="107"/>
-      <c r="BE7" s="108"/>
-      <c r="BF7" s="111" t="s">
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="75"/>
+      <c r="Y7" s="75"/>
+      <c r="Z7" s="75"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="75"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="75"/>
+      <c r="AJ7" s="75"/>
+      <c r="AK7" s="76"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="75"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="75"/>
+      <c r="AP7" s="76"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="75"/>
+      <c r="AS7" s="75"/>
+      <c r="AT7" s="75"/>
+      <c r="AU7" s="76"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="76"/>
+      <c r="BA7" s="74"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="76"/>
+      <c r="BF7" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="BG7" s="112"/>
-      <c r="BH7" s="112"/>
-      <c r="BI7" s="106"/>
-      <c r="BJ7" s="107"/>
-      <c r="BK7" s="107"/>
-      <c r="BL7" s="107"/>
-      <c r="BM7" s="108"/>
-      <c r="BN7" s="105"/>
-      <c r="BO7" s="105"/>
-      <c r="BP7" s="105"/>
-      <c r="BQ7" s="105"/>
-      <c r="BR7" s="105"/>
-      <c r="BS7" s="105"/>
-      <c r="BT7" s="105"/>
-      <c r="BU7" s="105"/>
-      <c r="BV7" s="105"/>
-      <c r="BW7" s="105"/>
-      <c r="BX7" s="110"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="74"/>
+      <c r="BJ7" s="75"/>
+      <c r="BK7" s="75"/>
+      <c r="BL7" s="75"/>
+      <c r="BM7" s="76"/>
+      <c r="BN7" s="72"/>
+      <c r="BO7" s="72"/>
+      <c r="BP7" s="72"/>
+      <c r="BQ7" s="72"/>
+      <c r="BR7" s="72"/>
+      <c r="BS7" s="72"/>
+      <c r="BT7" s="72"/>
+      <c r="BU7" s="72"/>
+      <c r="BV7" s="72"/>
+      <c r="BW7" s="72"/>
+      <c r="BX7" s="73"/>
     </row>
     <row r="8" spans="2:76" ht="16.5">
-      <c r="B8" s="101">
+      <c r="B8" s="90">
         <v>4</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="108"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="107"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="107"/>
-      <c r="AI8" s="107"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="108"/>
-      <c r="AL8" s="106"/>
-      <c r="AM8" s="107"/>
-      <c r="AN8" s="107"/>
-      <c r="AO8" s="107"/>
-      <c r="AP8" s="108"/>
-      <c r="AQ8" s="106"/>
-      <c r="AR8" s="107"/>
-      <c r="AS8" s="107"/>
-      <c r="AT8" s="107"/>
-      <c r="AU8" s="108"/>
-      <c r="AV8" s="106"/>
-      <c r="AW8" s="107"/>
-      <c r="AX8" s="107"/>
-      <c r="AY8" s="107"/>
-      <c r="AZ8" s="108"/>
-      <c r="BA8" s="106"/>
-      <c r="BB8" s="107"/>
-      <c r="BC8" s="107"/>
-      <c r="BD8" s="107"/>
-      <c r="BE8" s="108"/>
-      <c r="BF8" s="111" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="76"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="76"/>
+      <c r="BF8" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="BG8" s="112"/>
-      <c r="BH8" s="112"/>
-      <c r="BI8" s="106"/>
-      <c r="BJ8" s="107"/>
-      <c r="BK8" s="107"/>
-      <c r="BL8" s="107"/>
-      <c r="BM8" s="108"/>
-      <c r="BN8" s="105"/>
-      <c r="BO8" s="105"/>
-      <c r="BP8" s="105"/>
-      <c r="BQ8" s="105"/>
-      <c r="BR8" s="105"/>
-      <c r="BS8" s="105"/>
-      <c r="BT8" s="105"/>
-      <c r="BU8" s="105"/>
-      <c r="BV8" s="105"/>
-      <c r="BW8" s="105"/>
-      <c r="BX8" s="110"/>
+      <c r="BG8" s="78"/>
+      <c r="BH8" s="78"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="75"/>
+      <c r="BK8" s="75"/>
+      <c r="BL8" s="75"/>
+      <c r="BM8" s="76"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="72"/>
+      <c r="BT8" s="72"/>
+      <c r="BU8" s="72"/>
+      <c r="BV8" s="72"/>
+      <c r="BW8" s="72"/>
+      <c r="BX8" s="73"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="101">
+      <c r="B9" s="90">
         <v>5</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="104" t="s">
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="105"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="107"/>
-      <c r="P9" s="107"/>
-      <c r="Q9" s="108"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="107"/>
-      <c r="T9" s="107"/>
-      <c r="U9" s="107"/>
-      <c r="V9" s="108"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="107"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="107"/>
-      <c r="AF9" s="108"/>
-      <c r="AG9" s="106"/>
-      <c r="AH9" s="107"/>
-      <c r="AI9" s="107"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="108"/>
-      <c r="AL9" s="106"/>
-      <c r="AM9" s="107"/>
-      <c r="AN9" s="107"/>
-      <c r="AO9" s="107"/>
-      <c r="AP9" s="108"/>
-      <c r="AQ9" s="106"/>
-      <c r="AR9" s="107"/>
-      <c r="AS9" s="107"/>
-      <c r="AT9" s="107"/>
-      <c r="AU9" s="108"/>
-      <c r="AV9" s="106"/>
-      <c r="AW9" s="107"/>
-      <c r="AX9" s="107"/>
-      <c r="AY9" s="107"/>
-      <c r="AZ9" s="108"/>
-      <c r="BA9" s="106"/>
-      <c r="BB9" s="107"/>
-      <c r="BC9" s="107"/>
-      <c r="BD9" s="107"/>
-      <c r="BE9" s="108"/>
-      <c r="BF9" s="111" t="s">
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="74"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="74"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="74"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="76"/>
+      <c r="BA9" s="74"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="76"/>
+      <c r="BF9" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG9" s="112"/>
-      <c r="BH9" s="112"/>
-      <c r="BI9" s="106"/>
-      <c r="BJ9" s="107"/>
-      <c r="BK9" s="107"/>
-      <c r="BL9" s="107"/>
-      <c r="BM9" s="108"/>
-      <c r="BN9" s="105"/>
-      <c r="BO9" s="105"/>
-      <c r="BP9" s="105"/>
-      <c r="BQ9" s="105"/>
-      <c r="BR9" s="105"/>
-      <c r="BS9" s="105"/>
-      <c r="BT9" s="105"/>
-      <c r="BU9" s="105"/>
-      <c r="BV9" s="105"/>
-      <c r="BW9" s="105"/>
-      <c r="BX9" s="110"/>
+      <c r="BG9" s="78"/>
+      <c r="BH9" s="78"/>
+      <c r="BI9" s="74"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="75"/>
+      <c r="BM9" s="76"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="72"/>
+      <c r="BS9" s="72"/>
+      <c r="BT9" s="72"/>
+      <c r="BU9" s="72"/>
+      <c r="BV9" s="72"/>
+      <c r="BW9" s="72"/>
+      <c r="BX9" s="73"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="101">
+      <c r="B10" s="90">
         <v>6</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104" t="s">
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="107"/>
-      <c r="Q10" s="108"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="107"/>
-      <c r="T10" s="107"/>
-      <c r="U10" s="107"/>
-      <c r="V10" s="108"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="107"/>
-      <c r="AA10" s="108"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="107"/>
-      <c r="AE10" s="107"/>
-      <c r="AF10" s="108"/>
-      <c r="AG10" s="109"/>
-      <c r="AH10" s="107"/>
-      <c r="AI10" s="107"/>
-      <c r="AJ10" s="107"/>
-      <c r="AK10" s="108"/>
-      <c r="AL10" s="106"/>
-      <c r="AM10" s="107"/>
-      <c r="AN10" s="107"/>
-      <c r="AO10" s="107"/>
-      <c r="AP10" s="108"/>
-      <c r="AQ10" s="106"/>
-      <c r="AR10" s="107"/>
-      <c r="AS10" s="107"/>
-      <c r="AT10" s="107"/>
-      <c r="AU10" s="108"/>
-      <c r="AV10" s="106"/>
-      <c r="AW10" s="107"/>
-      <c r="AX10" s="107"/>
-      <c r="AY10" s="107"/>
-      <c r="AZ10" s="108"/>
-      <c r="BA10" s="106"/>
-      <c r="BB10" s="107"/>
-      <c r="BC10" s="107"/>
-      <c r="BD10" s="107"/>
-      <c r="BE10" s="108"/>
-      <c r="BF10" s="111" t="s">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="75"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="103"/>
+      <c r="AH10" s="75"/>
+      <c r="AI10" s="75"/>
+      <c r="AJ10" s="75"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="75"/>
+      <c r="AN10" s="75"/>
+      <c r="AO10" s="75"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="75"/>
+      <c r="AS10" s="75"/>
+      <c r="AT10" s="75"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="75"/>
+      <c r="AX10" s="75"/>
+      <c r="AY10" s="75"/>
+      <c r="AZ10" s="76"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="75"/>
+      <c r="BC10" s="75"/>
+      <c r="BD10" s="75"/>
+      <c r="BE10" s="76"/>
+      <c r="BF10" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG10" s="112"/>
-      <c r="BH10" s="112"/>
-      <c r="BI10" s="106"/>
-      <c r="BJ10" s="107"/>
-      <c r="BK10" s="107"/>
-      <c r="BL10" s="107"/>
-      <c r="BM10" s="108"/>
-      <c r="BN10" s="105"/>
-      <c r="BO10" s="105"/>
-      <c r="BP10" s="105"/>
-      <c r="BQ10" s="105"/>
-      <c r="BR10" s="105"/>
-      <c r="BS10" s="105"/>
-      <c r="BT10" s="105"/>
-      <c r="BU10" s="105"/>
-      <c r="BV10" s="105"/>
-      <c r="BW10" s="105"/>
-      <c r="BX10" s="110"/>
+      <c r="BG10" s="78"/>
+      <c r="BH10" s="78"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="75"/>
+      <c r="BM10" s="76"/>
+      <c r="BN10" s="72"/>
+      <c r="BO10" s="72"/>
+      <c r="BP10" s="72"/>
+      <c r="BQ10" s="72"/>
+      <c r="BR10" s="72"/>
+      <c r="BS10" s="72"/>
+      <c r="BT10" s="72"/>
+      <c r="BU10" s="72"/>
+      <c r="BV10" s="72"/>
+      <c r="BW10" s="72"/>
+      <c r="BX10" s="73"/>
     </row>
     <row r="11" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B11" s="101">
+      <c r="B11" s="90">
         <v>7</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="116" t="s">
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="119"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="119"/>
-      <c r="U11" s="119"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="119"/>
-      <c r="Y11" s="119"/>
-      <c r="Z11" s="119"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="119"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="119"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="119"/>
-      <c r="AI11" s="119"/>
-      <c r="AJ11" s="119"/>
-      <c r="AK11" s="120"/>
-      <c r="AL11" s="121"/>
-      <c r="AM11" s="119"/>
-      <c r="AN11" s="119"/>
-      <c r="AO11" s="119"/>
-      <c r="AP11" s="120"/>
-      <c r="AQ11" s="121"/>
-      <c r="AR11" s="119"/>
-      <c r="AS11" s="119"/>
-      <c r="AT11" s="119"/>
-      <c r="AU11" s="120"/>
-      <c r="AV11" s="121"/>
-      <c r="AW11" s="119"/>
-      <c r="AX11" s="119"/>
-      <c r="AY11" s="119"/>
-      <c r="AZ11" s="120"/>
-      <c r="BA11" s="121"/>
-      <c r="BB11" s="119"/>
-      <c r="BC11" s="119"/>
-      <c r="BD11" s="119"/>
-      <c r="BE11" s="120"/>
-      <c r="BF11" s="122" t="s">
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="96"/>
+      <c r="AD11" s="96"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="97"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="96"/>
+      <c r="AI11" s="96"/>
+      <c r="AJ11" s="96"/>
+      <c r="AK11" s="97"/>
+      <c r="AL11" s="98"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="97"/>
+      <c r="AQ11" s="98"/>
+      <c r="AR11" s="96"/>
+      <c r="AS11" s="96"/>
+      <c r="AT11" s="96"/>
+      <c r="AU11" s="97"/>
+      <c r="AV11" s="98"/>
+      <c r="AW11" s="96"/>
+      <c r="AX11" s="96"/>
+      <c r="AY11" s="96"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="98"/>
+      <c r="BB11" s="96"/>
+      <c r="BC11" s="96"/>
+      <c r="BD11" s="96"/>
+      <c r="BE11" s="97"/>
+      <c r="BF11" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG11" s="123"/>
-      <c r="BH11" s="123"/>
-      <c r="BI11" s="121"/>
-      <c r="BJ11" s="119"/>
-      <c r="BK11" s="119"/>
-      <c r="BL11" s="119"/>
-      <c r="BM11" s="120"/>
-      <c r="BN11" s="117"/>
-      <c r="BO11" s="117"/>
-      <c r="BP11" s="117"/>
-      <c r="BQ11" s="117"/>
-      <c r="BR11" s="117"/>
-      <c r="BS11" s="117"/>
-      <c r="BT11" s="117"/>
-      <c r="BU11" s="117"/>
-      <c r="BV11" s="117"/>
-      <c r="BW11" s="117"/>
-      <c r="BX11" s="124"/>
+      <c r="BG11" s="109"/>
+      <c r="BH11" s="109"/>
+      <c r="BI11" s="98"/>
+      <c r="BJ11" s="96"/>
+      <c r="BK11" s="96"/>
+      <c r="BL11" s="96"/>
+      <c r="BM11" s="97"/>
+      <c r="BN11" s="89"/>
+      <c r="BO11" s="89"/>
+      <c r="BP11" s="89"/>
+      <c r="BQ11" s="89"/>
+      <c r="BR11" s="89"/>
+      <c r="BS11" s="89"/>
+      <c r="BT11" s="89"/>
+      <c r="BU11" s="89"/>
+      <c r="BV11" s="89"/>
+      <c r="BW11" s="89"/>
+      <c r="BX11" s="110"/>
     </row>
     <row r="12" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="130"/>
-      <c r="K12" s="130"/>
-      <c r="L12" s="130"/>
-      <c r="M12" s="130"/>
-      <c r="N12" s="130"/>
-      <c r="O12" s="130"/>
-      <c r="P12" s="130"/>
-      <c r="Q12" s="130"/>
-      <c r="R12" s="130"/>
-      <c r="S12" s="130"/>
-      <c r="T12" s="130"/>
-      <c r="U12" s="130"/>
-      <c r="V12" s="130"/>
-      <c r="W12" s="130"/>
-      <c r="X12" s="130"/>
-      <c r="Y12" s="130"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="130"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="130"/>
-      <c r="AG12" s="130"/>
-      <c r="AH12" s="130"/>
-      <c r="AI12" s="130"/>
-      <c r="AJ12" s="130"/>
-      <c r="AK12" s="130"/>
-      <c r="AL12" s="130"/>
-      <c r="AM12" s="130"/>
-      <c r="AN12" s="130"/>
-      <c r="AO12" s="130"/>
-      <c r="AP12" s="130"/>
-      <c r="AQ12" s="130"/>
-      <c r="AR12" s="130"/>
-      <c r="AS12" s="130"/>
-      <c r="AT12" s="130"/>
-      <c r="AU12" s="130"/>
-      <c r="AV12" s="130"/>
-      <c r="AW12" s="130"/>
-      <c r="AX12" s="130"/>
-      <c r="AY12" s="130"/>
-      <c r="AZ12" s="130"/>
-      <c r="BA12" s="130"/>
-      <c r="BB12" s="130"/>
-      <c r="BC12" s="130"/>
-      <c r="BD12" s="130"/>
-      <c r="BE12" s="130"/>
-      <c r="BF12" s="130"/>
-      <c r="BG12" s="130"/>
-      <c r="BH12" s="130"/>
-      <c r="BI12" s="130"/>
-      <c r="BJ12" s="130"/>
-      <c r="BK12" s="130"/>
-      <c r="BL12" s="130"/>
-      <c r="BM12" s="130"/>
-      <c r="BN12" s="130"/>
-      <c r="BO12" s="130"/>
-      <c r="BP12" s="130"/>
-      <c r="BQ12" s="130"/>
-      <c r="BR12" s="130"/>
-      <c r="BS12" s="130"/>
-      <c r="BT12" s="130"/>
-      <c r="BU12" s="130"/>
-      <c r="BV12" s="130"/>
-      <c r="BW12" s="130"/>
-      <c r="BX12" s="131"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="136"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="136"/>
+      <c r="S12" s="136"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="136"/>
+      <c r="V12" s="136"/>
+      <c r="W12" s="136"/>
+      <c r="X12" s="136"/>
+      <c r="Y12" s="136"/>
+      <c r="Z12" s="136"/>
+      <c r="AA12" s="136"/>
+      <c r="AB12" s="136"/>
+      <c r="AC12" s="136"/>
+      <c r="AD12" s="136"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="136"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="136"/>
+      <c r="AJ12" s="136"/>
+      <c r="AK12" s="136"/>
+      <c r="AL12" s="136"/>
+      <c r="AM12" s="136"/>
+      <c r="AN12" s="136"/>
+      <c r="AO12" s="136"/>
+      <c r="AP12" s="136"/>
+      <c r="AQ12" s="136"/>
+      <c r="AR12" s="136"/>
+      <c r="AS12" s="136"/>
+      <c r="AT12" s="136"/>
+      <c r="AU12" s="136"/>
+      <c r="AV12" s="136"/>
+      <c r="AW12" s="136"/>
+      <c r="AX12" s="136"/>
+      <c r="AY12" s="136"/>
+      <c r="AZ12" s="136"/>
+      <c r="BA12" s="136"/>
+      <c r="BB12" s="136"/>
+      <c r="BC12" s="136"/>
+      <c r="BD12" s="136"/>
+      <c r="BE12" s="136"/>
+      <c r="BF12" s="136"/>
+      <c r="BG12" s="136"/>
+      <c r="BH12" s="136"/>
+      <c r="BI12" s="136"/>
+      <c r="BJ12" s="136"/>
+      <c r="BK12" s="136"/>
+      <c r="BL12" s="136"/>
+      <c r="BM12" s="136"/>
+      <c r="BN12" s="136"/>
+      <c r="BO12" s="136"/>
+      <c r="BP12" s="136"/>
+      <c r="BQ12" s="136"/>
+      <c r="BR12" s="136"/>
+      <c r="BS12" s="136"/>
+      <c r="BT12" s="136"/>
+      <c r="BU12" s="136"/>
+      <c r="BV12" s="136"/>
+      <c r="BW12" s="136"/>
+      <c r="BX12" s="137"/>
     </row>
     <row r="13" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B13" s="86">
+      <c r="B13" s="111">
         <v>8</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89" t="s">
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="91"/>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="92"/>
-      <c r="AA13" s="93"/>
-      <c r="AB13" s="91"/>
-      <c r="AC13" s="92"/>
-      <c r="AD13" s="92"/>
-      <c r="AE13" s="92"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="91"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="92"/>
-      <c r="AJ13" s="92"/>
-      <c r="AK13" s="93"/>
-      <c r="AL13" s="91"/>
-      <c r="AM13" s="92"/>
-      <c r="AN13" s="92"/>
-      <c r="AO13" s="92"/>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="91"/>
-      <c r="AR13" s="92"/>
-      <c r="AS13" s="92"/>
-      <c r="AT13" s="92"/>
-      <c r="AU13" s="93"/>
-      <c r="AV13" s="91"/>
-      <c r="AW13" s="92"/>
-      <c r="AX13" s="92"/>
-      <c r="AY13" s="92"/>
-      <c r="AZ13" s="93"/>
-      <c r="BA13" s="91"/>
-      <c r="BB13" s="92"/>
-      <c r="BC13" s="92"/>
-      <c r="BD13" s="92"/>
-      <c r="BE13" s="93"/>
-      <c r="BF13" s="111" t="s">
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="82"/>
+      <c r="T13" s="82"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="83"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="82"/>
+      <c r="Y13" s="82"/>
+      <c r="Z13" s="82"/>
+      <c r="AA13" s="83"/>
+      <c r="AB13" s="81"/>
+      <c r="AC13" s="82"/>
+      <c r="AD13" s="82"/>
+      <c r="AE13" s="82"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="81"/>
+      <c r="AH13" s="82"/>
+      <c r="AI13" s="82"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="83"/>
+      <c r="AL13" s="81"/>
+      <c r="AM13" s="82"/>
+      <c r="AN13" s="82"/>
+      <c r="AO13" s="82"/>
+      <c r="AP13" s="83"/>
+      <c r="AQ13" s="81"/>
+      <c r="AR13" s="82"/>
+      <c r="AS13" s="82"/>
+      <c r="AT13" s="82"/>
+      <c r="AU13" s="83"/>
+      <c r="AV13" s="81"/>
+      <c r="AW13" s="82"/>
+      <c r="AX13" s="82"/>
+      <c r="AY13" s="82"/>
+      <c r="AZ13" s="83"/>
+      <c r="BA13" s="81"/>
+      <c r="BB13" s="82"/>
+      <c r="BC13" s="82"/>
+      <c r="BD13" s="82"/>
+      <c r="BE13" s="83"/>
+      <c r="BF13" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG13" s="112"/>
-      <c r="BH13" s="112"/>
-      <c r="BI13" s="91"/>
-      <c r="BJ13" s="92"/>
-      <c r="BK13" s="92"/>
-      <c r="BL13" s="92"/>
-      <c r="BM13" s="93"/>
-      <c r="BN13" s="125"/>
-      <c r="BO13" s="125"/>
-      <c r="BP13" s="125"/>
-      <c r="BQ13" s="125"/>
-      <c r="BR13" s="125"/>
-      <c r="BS13" s="125"/>
-      <c r="BT13" s="125"/>
-      <c r="BU13" s="125"/>
-      <c r="BV13" s="125"/>
-      <c r="BW13" s="125"/>
-      <c r="BX13" s="126"/>
+      <c r="BG13" s="78"/>
+      <c r="BH13" s="78"/>
+      <c r="BI13" s="81"/>
+      <c r="BJ13" s="82"/>
+      <c r="BK13" s="82"/>
+      <c r="BL13" s="82"/>
+      <c r="BM13" s="83"/>
+      <c r="BN13" s="104"/>
+      <c r="BO13" s="104"/>
+      <c r="BP13" s="104"/>
+      <c r="BQ13" s="104"/>
+      <c r="BR13" s="104"/>
+      <c r="BS13" s="104"/>
+      <c r="BT13" s="104"/>
+      <c r="BU13" s="104"/>
+      <c r="BV13" s="104"/>
+      <c r="BW13" s="104"/>
+      <c r="BX13" s="105"/>
     </row>
     <row r="14" spans="2:76" ht="16.5">
-      <c r="B14" s="101">
+      <c r="B14" s="90">
         <v>9</v>
       </c>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104" t="s">
+      <c r="C14" s="91"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="107"/>
-      <c r="P14" s="107"/>
-      <c r="Q14" s="108"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="108"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="107"/>
-      <c r="AD14" s="107"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="108"/>
-      <c r="AG14" s="106"/>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="107"/>
-      <c r="AJ14" s="107"/>
-      <c r="AK14" s="108"/>
-      <c r="AL14" s="106"/>
-      <c r="AM14" s="107"/>
-      <c r="AN14" s="107"/>
-      <c r="AO14" s="107"/>
-      <c r="AP14" s="108"/>
-      <c r="AQ14" s="106"/>
-      <c r="AR14" s="107"/>
-      <c r="AS14" s="107"/>
-      <c r="AT14" s="107"/>
-      <c r="AU14" s="108"/>
-      <c r="AV14" s="106"/>
-      <c r="AW14" s="107"/>
-      <c r="AX14" s="107"/>
-      <c r="AY14" s="107"/>
-      <c r="AZ14" s="108"/>
-      <c r="BA14" s="106"/>
-      <c r="BB14" s="107"/>
-      <c r="BC14" s="107"/>
-      <c r="BD14" s="107"/>
-      <c r="BE14" s="108"/>
-      <c r="BF14" s="111" t="s">
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="75"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="75"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="75"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="75"/>
+      <c r="Y14" s="75"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="75"/>
+      <c r="AN14" s="75"/>
+      <c r="AO14" s="75"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="75"/>
+      <c r="AS14" s="75"/>
+      <c r="AT14" s="75"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="75"/>
+      <c r="AX14" s="75"/>
+      <c r="AY14" s="75"/>
+      <c r="AZ14" s="76"/>
+      <c r="BA14" s="74"/>
+      <c r="BB14" s="75"/>
+      <c r="BC14" s="75"/>
+      <c r="BD14" s="75"/>
+      <c r="BE14" s="76"/>
+      <c r="BF14" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG14" s="112"/>
-      <c r="BH14" s="112"/>
-      <c r="BI14" s="106"/>
-      <c r="BJ14" s="107"/>
-      <c r="BK14" s="107"/>
-      <c r="BL14" s="107"/>
-      <c r="BM14" s="108"/>
-      <c r="BN14" s="105"/>
-      <c r="BO14" s="105"/>
-      <c r="BP14" s="105"/>
-      <c r="BQ14" s="105"/>
-      <c r="BR14" s="105"/>
-      <c r="BS14" s="105"/>
-      <c r="BT14" s="105"/>
-      <c r="BU14" s="105"/>
-      <c r="BV14" s="105"/>
-      <c r="BW14" s="105"/>
-      <c r="BX14" s="110"/>
+      <c r="BG14" s="78"/>
+      <c r="BH14" s="78"/>
+      <c r="BI14" s="74"/>
+      <c r="BJ14" s="75"/>
+      <c r="BK14" s="75"/>
+      <c r="BL14" s="75"/>
+      <c r="BM14" s="76"/>
+      <c r="BN14" s="72"/>
+      <c r="BO14" s="72"/>
+      <c r="BP14" s="72"/>
+      <c r="BQ14" s="72"/>
+      <c r="BR14" s="72"/>
+      <c r="BS14" s="72"/>
+      <c r="BT14" s="72"/>
+      <c r="BU14" s="72"/>
+      <c r="BV14" s="72"/>
+      <c r="BW14" s="72"/>
+      <c r="BX14" s="73"/>
     </row>
     <row r="15" spans="2:76" ht="16.5">
-      <c r="B15" s="101">
+      <c r="B15" s="90">
         <v>10</v>
       </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="107"/>
-      <c r="P15" s="107"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="107"/>
-      <c r="T15" s="107"/>
-      <c r="U15" s="107"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="107"/>
-      <c r="Y15" s="107"/>
-      <c r="Z15" s="107"/>
-      <c r="AA15" s="108"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="107"/>
-      <c r="AD15" s="107"/>
-      <c r="AE15" s="107"/>
-      <c r="AF15" s="108"/>
-      <c r="AG15" s="106"/>
-      <c r="AH15" s="107"/>
-      <c r="AI15" s="107"/>
-      <c r="AJ15" s="107"/>
-      <c r="AK15" s="108"/>
-      <c r="AL15" s="106"/>
-      <c r="AM15" s="107"/>
-      <c r="AN15" s="107"/>
-      <c r="AO15" s="107"/>
-      <c r="AP15" s="108"/>
-      <c r="AQ15" s="106"/>
-      <c r="AR15" s="107"/>
-      <c r="AS15" s="107"/>
-      <c r="AT15" s="107"/>
-      <c r="AU15" s="108"/>
-      <c r="AV15" s="106"/>
-      <c r="AW15" s="107"/>
-      <c r="AX15" s="107"/>
-      <c r="AY15" s="107"/>
-      <c r="AZ15" s="108"/>
-      <c r="BA15" s="106"/>
-      <c r="BB15" s="107"/>
-      <c r="BC15" s="107"/>
-      <c r="BD15" s="107"/>
-      <c r="BE15" s="108"/>
-      <c r="BF15" s="111" t="s">
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="75"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="75"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="75"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="74"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="74"/>
+      <c r="AM15" s="75"/>
+      <c r="AN15" s="75"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="74"/>
+      <c r="AR15" s="75"/>
+      <c r="AS15" s="75"/>
+      <c r="AT15" s="75"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="75"/>
+      <c r="AX15" s="75"/>
+      <c r="AY15" s="75"/>
+      <c r="AZ15" s="76"/>
+      <c r="BA15" s="74"/>
+      <c r="BB15" s="75"/>
+      <c r="BC15" s="75"/>
+      <c r="BD15" s="75"/>
+      <c r="BE15" s="76"/>
+      <c r="BF15" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="BG15" s="112"/>
-      <c r="BH15" s="112"/>
-      <c r="BI15" s="106"/>
-      <c r="BJ15" s="107"/>
-      <c r="BK15" s="107"/>
-      <c r="BL15" s="107"/>
-      <c r="BM15" s="108"/>
-      <c r="BN15" s="105"/>
-      <c r="BO15" s="105"/>
-      <c r="BP15" s="105"/>
-      <c r="BQ15" s="105"/>
-      <c r="BR15" s="105"/>
-      <c r="BS15" s="105"/>
-      <c r="BT15" s="105"/>
-      <c r="BU15" s="105"/>
-      <c r="BV15" s="105"/>
-      <c r="BW15" s="105"/>
-      <c r="BX15" s="110"/>
+      <c r="BG15" s="78"/>
+      <c r="BH15" s="78"/>
+      <c r="BI15" s="74"/>
+      <c r="BJ15" s="75"/>
+      <c r="BK15" s="75"/>
+      <c r="BL15" s="75"/>
+      <c r="BM15" s="76"/>
+      <c r="BN15" s="72"/>
+      <c r="BO15" s="72"/>
+      <c r="BP15" s="72"/>
+      <c r="BQ15" s="72"/>
+      <c r="BR15" s="72"/>
+      <c r="BS15" s="72"/>
+      <c r="BT15" s="72"/>
+      <c r="BU15" s="72"/>
+      <c r="BV15" s="72"/>
+      <c r="BW15" s="72"/>
+      <c r="BX15" s="73"/>
     </row>
     <row r="16" spans="2:76" ht="16.5">
-      <c r="B16" s="101">
+      <c r="B16" s="90">
         <v>11</v>
       </c>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104" t="s">
+      <c r="C16" s="91"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="105"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="107"/>
-      <c r="P16" s="107"/>
-      <c r="Q16" s="108"/>
-      <c r="R16" s="106"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="107"/>
-      <c r="U16" s="107"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="107"/>
-      <c r="Z16" s="107"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="107"/>
-      <c r="AD16" s="107"/>
-      <c r="AE16" s="107"/>
-      <c r="AF16" s="108"/>
-      <c r="AG16" s="106"/>
-      <c r="AH16" s="107"/>
-      <c r="AI16" s="107"/>
-      <c r="AJ16" s="107"/>
-      <c r="AK16" s="108"/>
-      <c r="AL16" s="106"/>
-      <c r="AM16" s="107"/>
-      <c r="AN16" s="107"/>
-      <c r="AO16" s="107"/>
-      <c r="AP16" s="108"/>
-      <c r="AQ16" s="106"/>
-      <c r="AR16" s="107"/>
-      <c r="AS16" s="107"/>
-      <c r="AT16" s="107"/>
-      <c r="AU16" s="108"/>
-      <c r="AV16" s="106"/>
-      <c r="AW16" s="107"/>
-      <c r="AX16" s="107"/>
-      <c r="AY16" s="107"/>
-      <c r="AZ16" s="108"/>
-      <c r="BA16" s="106"/>
-      <c r="BB16" s="107"/>
-      <c r="BC16" s="107"/>
-      <c r="BD16" s="107"/>
-      <c r="BE16" s="108"/>
-      <c r="BF16" s="111" t="s">
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="74"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="74"/>
+      <c r="AM16" s="75"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="75"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="74"/>
+      <c r="AR16" s="75"/>
+      <c r="AS16" s="75"/>
+      <c r="AT16" s="75"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="75"/>
+      <c r="AX16" s="75"/>
+      <c r="AY16" s="75"/>
+      <c r="AZ16" s="76"/>
+      <c r="BA16" s="74"/>
+      <c r="BB16" s="75"/>
+      <c r="BC16" s="75"/>
+      <c r="BD16" s="75"/>
+      <c r="BE16" s="76"/>
+      <c r="BF16" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="BG16" s="112"/>
-      <c r="BH16" s="112"/>
-      <c r="BI16" s="106"/>
-      <c r="BJ16" s="107"/>
-      <c r="BK16" s="107"/>
-      <c r="BL16" s="107"/>
-      <c r="BM16" s="108"/>
-      <c r="BN16" s="105"/>
-      <c r="BO16" s="105"/>
-      <c r="BP16" s="105"/>
-      <c r="BQ16" s="105"/>
-      <c r="BR16" s="105"/>
-      <c r="BS16" s="105"/>
-      <c r="BT16" s="105"/>
-      <c r="BU16" s="105"/>
-      <c r="BV16" s="105"/>
-      <c r="BW16" s="105"/>
-      <c r="BX16" s="110"/>
+      <c r="BG16" s="78"/>
+      <c r="BH16" s="78"/>
+      <c r="BI16" s="74"/>
+      <c r="BJ16" s="75"/>
+      <c r="BK16" s="75"/>
+      <c r="BL16" s="75"/>
+      <c r="BM16" s="76"/>
+      <c r="BN16" s="72"/>
+      <c r="BO16" s="72"/>
+      <c r="BP16" s="72"/>
+      <c r="BQ16" s="72"/>
+      <c r="BR16" s="72"/>
+      <c r="BS16" s="72"/>
+      <c r="BT16" s="72"/>
+      <c r="BU16" s="72"/>
+      <c r="BV16" s="72"/>
+      <c r="BW16" s="72"/>
+      <c r="BX16" s="73"/>
     </row>
     <row r="17" spans="2:76" ht="16.5">
-      <c r="B17" s="101">
+      <c r="B17" s="90">
         <v>12</v>
       </c>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="104" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="105"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="107"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="108"/>
-      <c r="R17" s="106"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="108"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="107"/>
-      <c r="AD17" s="107"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="108"/>
-      <c r="AG17" s="106"/>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="107"/>
-      <c r="AK17" s="108"/>
-      <c r="AL17" s="106"/>
-      <c r="AM17" s="107"/>
-      <c r="AN17" s="107"/>
-      <c r="AO17" s="107"/>
-      <c r="AP17" s="108"/>
-      <c r="AQ17" s="106"/>
-      <c r="AR17" s="107"/>
-      <c r="AS17" s="107"/>
-      <c r="AT17" s="107"/>
-      <c r="AU17" s="108"/>
-      <c r="AV17" s="106"/>
-      <c r="AW17" s="107"/>
-      <c r="AX17" s="107"/>
-      <c r="AY17" s="107"/>
-      <c r="AZ17" s="108"/>
-      <c r="BA17" s="106"/>
-      <c r="BB17" s="107"/>
-      <c r="BC17" s="107"/>
-      <c r="BD17" s="107"/>
-      <c r="BE17" s="108"/>
-      <c r="BF17" s="111" t="s">
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="75"/>
+      <c r="P17" s="75"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="75"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="75"/>
+      <c r="Y17" s="75"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="75"/>
+      <c r="AN17" s="75"/>
+      <c r="AO17" s="75"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="75"/>
+      <c r="AS17" s="75"/>
+      <c r="AT17" s="75"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="75"/>
+      <c r="AX17" s="75"/>
+      <c r="AY17" s="75"/>
+      <c r="AZ17" s="76"/>
+      <c r="BA17" s="74"/>
+      <c r="BB17" s="75"/>
+      <c r="BC17" s="75"/>
+      <c r="BD17" s="75"/>
+      <c r="BE17" s="76"/>
+      <c r="BF17" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG17" s="112"/>
-      <c r="BH17" s="112"/>
-      <c r="BI17" s="106"/>
-      <c r="BJ17" s="107"/>
-      <c r="BK17" s="107"/>
-      <c r="BL17" s="107"/>
-      <c r="BM17" s="108"/>
-      <c r="BN17" s="105"/>
-      <c r="BO17" s="105"/>
-      <c r="BP17" s="105"/>
-      <c r="BQ17" s="105"/>
-      <c r="BR17" s="105"/>
-      <c r="BS17" s="105"/>
-      <c r="BT17" s="105"/>
-      <c r="BU17" s="105"/>
-      <c r="BV17" s="105"/>
-      <c r="BW17" s="105"/>
-      <c r="BX17" s="110"/>
+      <c r="BG17" s="78"/>
+      <c r="BH17" s="78"/>
+      <c r="BI17" s="74"/>
+      <c r="BJ17" s="75"/>
+      <c r="BK17" s="75"/>
+      <c r="BL17" s="75"/>
+      <c r="BM17" s="76"/>
+      <c r="BN17" s="72"/>
+      <c r="BO17" s="72"/>
+      <c r="BP17" s="72"/>
+      <c r="BQ17" s="72"/>
+      <c r="BR17" s="72"/>
+      <c r="BS17" s="72"/>
+      <c r="BT17" s="72"/>
+      <c r="BU17" s="72"/>
+      <c r="BV17" s="72"/>
+      <c r="BW17" s="72"/>
+      <c r="BX17" s="73"/>
     </row>
     <row r="18" spans="2:76" ht="16.5">
-      <c r="B18" s="101">
+      <c r="B18" s="90">
         <v>13</v>
       </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="104" t="s">
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="107"/>
-      <c r="P18" s="107"/>
-      <c r="Q18" s="108"/>
-      <c r="R18" s="106"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="108"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="107"/>
-      <c r="AD18" s="107"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="108"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="107"/>
-      <c r="AK18" s="108"/>
-      <c r="AL18" s="106"/>
-      <c r="AM18" s="107"/>
-      <c r="AN18" s="107"/>
-      <c r="AO18" s="107"/>
-      <c r="AP18" s="108"/>
-      <c r="AQ18" s="106"/>
-      <c r="AR18" s="107"/>
-      <c r="AS18" s="107"/>
-      <c r="AT18" s="107"/>
-      <c r="AU18" s="108"/>
-      <c r="AV18" s="106"/>
-      <c r="AW18" s="107"/>
-      <c r="AX18" s="107"/>
-      <c r="AY18" s="107"/>
-      <c r="AZ18" s="108"/>
-      <c r="BA18" s="106"/>
-      <c r="BB18" s="107"/>
-      <c r="BC18" s="107"/>
-      <c r="BD18" s="107"/>
-      <c r="BE18" s="108"/>
-      <c r="BF18" s="111" t="s">
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="103"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="103"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="75"/>
+      <c r="AJ18" s="75"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="74"/>
+      <c r="AM18" s="75"/>
+      <c r="AN18" s="75"/>
+      <c r="AO18" s="75"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="74"/>
+      <c r="AR18" s="75"/>
+      <c r="AS18" s="75"/>
+      <c r="AT18" s="75"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="75"/>
+      <c r="AX18" s="75"/>
+      <c r="AY18" s="75"/>
+      <c r="AZ18" s="76"/>
+      <c r="BA18" s="74"/>
+      <c r="BB18" s="75"/>
+      <c r="BC18" s="75"/>
+      <c r="BD18" s="75"/>
+      <c r="BE18" s="76"/>
+      <c r="BF18" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="BG18" s="112"/>
-      <c r="BH18" s="112"/>
-      <c r="BI18" s="106"/>
-      <c r="BJ18" s="107"/>
-      <c r="BK18" s="107"/>
-      <c r="BL18" s="107"/>
-      <c r="BM18" s="108"/>
-      <c r="BN18" s="105"/>
-      <c r="BO18" s="105"/>
-      <c r="BP18" s="105"/>
-      <c r="BQ18" s="105"/>
-      <c r="BR18" s="105"/>
-      <c r="BS18" s="105"/>
-      <c r="BT18" s="105"/>
-      <c r="BU18" s="105"/>
-      <c r="BV18" s="105"/>
-      <c r="BW18" s="105"/>
-      <c r="BX18" s="110"/>
+      <c r="BG18" s="78"/>
+      <c r="BH18" s="78"/>
+      <c r="BI18" s="74"/>
+      <c r="BJ18" s="75"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="75"/>
+      <c r="BM18" s="76"/>
+      <c r="BN18" s="72"/>
+      <c r="BO18" s="72"/>
+      <c r="BP18" s="72"/>
+      <c r="BQ18" s="72"/>
+      <c r="BR18" s="72"/>
+      <c r="BS18" s="72"/>
+      <c r="BT18" s="72"/>
+      <c r="BU18" s="72"/>
+      <c r="BV18" s="72"/>
+      <c r="BW18" s="72"/>
+      <c r="BX18" s="73"/>
     </row>
     <row r="19" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B19" s="113">
+      <c r="B19" s="85">
         <v>14</v>
       </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="121"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="121"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="119"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="119"/>
-      <c r="AF19" s="120"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="119"/>
-      <c r="AI19" s="119"/>
-      <c r="AJ19" s="119"/>
-      <c r="AK19" s="120"/>
-      <c r="AL19" s="121"/>
-      <c r="AM19" s="119"/>
-      <c r="AN19" s="119"/>
-      <c r="AO19" s="119"/>
-      <c r="AP19" s="120"/>
-      <c r="AQ19" s="121"/>
-      <c r="AR19" s="119"/>
-      <c r="AS19" s="119"/>
-      <c r="AT19" s="119"/>
-      <c r="AU19" s="120"/>
-      <c r="AV19" s="121"/>
-      <c r="AW19" s="119"/>
-      <c r="AX19" s="119"/>
-      <c r="AY19" s="119"/>
-      <c r="AZ19" s="120"/>
-      <c r="BA19" s="121"/>
-      <c r="BB19" s="119"/>
-      <c r="BC19" s="119"/>
-      <c r="BD19" s="119"/>
-      <c r="BE19" s="120"/>
-      <c r="BF19" s="122" t="s">
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="96"/>
+      <c r="T19" s="96"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="97"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="96"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="96"/>
+      <c r="AD19" s="96"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="97"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="96"/>
+      <c r="AI19" s="96"/>
+      <c r="AJ19" s="96"/>
+      <c r="AK19" s="97"/>
+      <c r="AL19" s="98"/>
+      <c r="AM19" s="96"/>
+      <c r="AN19" s="96"/>
+      <c r="AO19" s="96"/>
+      <c r="AP19" s="97"/>
+      <c r="AQ19" s="98"/>
+      <c r="AR19" s="96"/>
+      <c r="AS19" s="96"/>
+      <c r="AT19" s="96"/>
+      <c r="AU19" s="97"/>
+      <c r="AV19" s="98"/>
+      <c r="AW19" s="96"/>
+      <c r="AX19" s="96"/>
+      <c r="AY19" s="96"/>
+      <c r="AZ19" s="97"/>
+      <c r="BA19" s="98"/>
+      <c r="BB19" s="96"/>
+      <c r="BC19" s="96"/>
+      <c r="BD19" s="96"/>
+      <c r="BE19" s="97"/>
+      <c r="BF19" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG19" s="123"/>
-      <c r="BH19" s="123"/>
-      <c r="BI19" s="121"/>
-      <c r="BJ19" s="119"/>
-      <c r="BK19" s="119"/>
-      <c r="BL19" s="119"/>
-      <c r="BM19" s="120"/>
-      <c r="BN19" s="117"/>
-      <c r="BO19" s="117"/>
-      <c r="BP19" s="117"/>
-      <c r="BQ19" s="117"/>
-      <c r="BR19" s="117"/>
-      <c r="BS19" s="117"/>
-      <c r="BT19" s="117"/>
-      <c r="BU19" s="117"/>
-      <c r="BV19" s="117"/>
-      <c r="BW19" s="117"/>
-      <c r="BX19" s="124"/>
+      <c r="BG19" s="109"/>
+      <c r="BH19" s="109"/>
+      <c r="BI19" s="98"/>
+      <c r="BJ19" s="96"/>
+      <c r="BK19" s="96"/>
+      <c r="BL19" s="96"/>
+      <c r="BM19" s="97"/>
+      <c r="BN19" s="89"/>
+      <c r="BO19" s="89"/>
+      <c r="BP19" s="89"/>
+      <c r="BQ19" s="89"/>
+      <c r="BR19" s="89"/>
+      <c r="BS19" s="89"/>
+      <c r="BT19" s="89"/>
+      <c r="BU19" s="89"/>
+      <c r="BV19" s="89"/>
+      <c r="BW19" s="89"/>
+      <c r="BX19" s="110"/>
     </row>
     <row r="20" spans="2:76" ht="16.5">
       <c r="B20" s="35" t="s">
@@ -8412,42 +8395,158 @@
     <row r="24" spans="2:76" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="212">
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BM10"/>
-    <mergeCell ref="BN10:BX10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="B12:BX12"/>
+    <mergeCell ref="AV18:AZ18"/>
+    <mergeCell ref="BA18:BE18"/>
+    <mergeCell ref="BF18:BH18"/>
+    <mergeCell ref="BI18:BM18"/>
+    <mergeCell ref="BN18:BX18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="W19:AA19"/>
+    <mergeCell ref="AB19:AF19"/>
+    <mergeCell ref="AG19:AK19"/>
+    <mergeCell ref="AL19:AP19"/>
+    <mergeCell ref="AQ19:AU19"/>
+    <mergeCell ref="AV19:AZ19"/>
+    <mergeCell ref="BA19:BE19"/>
+    <mergeCell ref="BF19:BH19"/>
+    <mergeCell ref="BI19:BM19"/>
+    <mergeCell ref="BN19:BX19"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AL18:AP18"/>
+    <mergeCell ref="AQ18:AU18"/>
+    <mergeCell ref="AV16:AZ16"/>
+    <mergeCell ref="BA16:BE16"/>
+    <mergeCell ref="BF16:BH16"/>
+    <mergeCell ref="BI16:BM16"/>
+    <mergeCell ref="BN16:BX16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AL17:AP17"/>
+    <mergeCell ref="AQ17:AU17"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BA17:BE17"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BM17"/>
+    <mergeCell ref="BN17:BX17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AL16:AP16"/>
+    <mergeCell ref="AQ16:AU16"/>
+    <mergeCell ref="AV15:AZ15"/>
+    <mergeCell ref="BA15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="BI15:BM15"/>
+    <mergeCell ref="BN15:BX15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AL15:AP15"/>
+    <mergeCell ref="AQ15:AU15"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AL14:AP14"/>
+    <mergeCell ref="AQ14:AU14"/>
+    <mergeCell ref="AV13:AZ13"/>
+    <mergeCell ref="BA13:BE13"/>
+    <mergeCell ref="BF13:BH13"/>
+    <mergeCell ref="BI13:BM13"/>
+    <mergeCell ref="BN13:BX13"/>
+    <mergeCell ref="AV14:AZ14"/>
+    <mergeCell ref="BA14:BE14"/>
+    <mergeCell ref="BF14:BH14"/>
+    <mergeCell ref="BI14:BM14"/>
+    <mergeCell ref="BN14:BX14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AL13:AP13"/>
+    <mergeCell ref="AQ13:AU13"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="B4:BX4"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="BN5:BX5"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="BF7:BH7"/>
     <mergeCell ref="BN11:BX11"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:L11"/>
@@ -8472,158 +8571,42 @@
     <mergeCell ref="AV11:AZ11"/>
     <mergeCell ref="BF11:BH11"/>
     <mergeCell ref="BI11:BM11"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="BN5:BX5"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="B4:BX4"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AL13:AP13"/>
-    <mergeCell ref="AQ13:AU13"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="BA13:BE13"/>
-    <mergeCell ref="BF13:BH13"/>
-    <mergeCell ref="BI13:BM13"/>
-    <mergeCell ref="BN13:BX13"/>
-    <mergeCell ref="AV14:AZ14"/>
-    <mergeCell ref="BA14:BE14"/>
-    <mergeCell ref="BF14:BH14"/>
-    <mergeCell ref="BI14:BM14"/>
-    <mergeCell ref="BN14:BX14"/>
-    <mergeCell ref="AV15:AZ15"/>
-    <mergeCell ref="BA15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="BI15:BM15"/>
-    <mergeCell ref="BN15:BX15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AL15:AP15"/>
-    <mergeCell ref="AQ15:AU15"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AL14:AP14"/>
-    <mergeCell ref="AQ14:AU14"/>
-    <mergeCell ref="BN16:BX16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="AB17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AL17:AP17"/>
-    <mergeCell ref="AQ17:AU17"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BA17:BE17"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BM17"/>
-    <mergeCell ref="BN17:BX17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AL16:AP16"/>
-    <mergeCell ref="AQ16:AU16"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AL18:AP18"/>
-    <mergeCell ref="AQ18:AU18"/>
-    <mergeCell ref="AV16:AZ16"/>
-    <mergeCell ref="BA16:BE16"/>
-    <mergeCell ref="BF16:BH16"/>
-    <mergeCell ref="BI16:BM16"/>
-    <mergeCell ref="B12:BX12"/>
-    <mergeCell ref="AV18:AZ18"/>
-    <mergeCell ref="BA18:BE18"/>
-    <mergeCell ref="BF18:BH18"/>
-    <mergeCell ref="BI18:BM18"/>
-    <mergeCell ref="BN18:BX18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="W19:AA19"/>
-    <mergeCell ref="AB19:AF19"/>
-    <mergeCell ref="AG19:AK19"/>
-    <mergeCell ref="AL19:AP19"/>
-    <mergeCell ref="AQ19:AU19"/>
-    <mergeCell ref="AV19:AZ19"/>
-    <mergeCell ref="BA19:BE19"/>
-    <mergeCell ref="BF19:BH19"/>
-    <mergeCell ref="BI19:BM19"/>
-    <mergeCell ref="BN19:BX19"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BM10"/>
+    <mergeCell ref="BN10:BX10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:BE11 BI5:BM11 M13:BE19 BI13:BM19">

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A46433-B8CE-4495-98F6-01483FF5C7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F838A2-2A9C-4794-8F94-CC4F4E1BF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="3" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
   <sheets>
     <sheet name="実施結果報告書" sheetId="17" r:id="rId1"/>
@@ -3933,7 +3933,7 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -4319,7 +4319,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25A2F4-F93D-40FA-AE03-A5E4091A0730}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A14" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -6143,7 +6145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747EE681-C22A-4F39-983F-2980DFC3BADB}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>

--- a/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
+++ b/Documents/50.単体テスト/01_単体テスト設計/比較テスト仕様書（GJ8010_コードマスタメンテナンス）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\youkei\Documents\50.単体テスト\01_単体テスト設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\AIplus_NAS\養鶏-互助防疫システム\backup\12_Documents\50.単体テスト\01_単体テスト設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F838A2-2A9C-4794-8F94-CC4F4E1BF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3459158-60EE-42ED-ACC1-A056CDCDC767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="880" activeTab="1" xr2:uid="{8AE4BD12-0B13-430A-A994-A2059EDE9970}"/>
   </bookViews>
   <sheets>
     <sheet name="実施結果報告書" sheetId="17" r:id="rId1"/>
@@ -216,7 +216,7 @@
     <definedName name="P.3">'[3]プロセス（課税明細書）'!$A$129</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">GJ8010_コード一覧表_チェックリスト!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">GJ8010_コード一覧表_項目チェック!$A$1:$CA$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8011_コードマスタメンテナンス_チェックリスト!$A$1:$I$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">GJ8011_コードマスタメンテナンス_チェックリスト!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">GJ8011_コードマスタメンテナンス_項目チェック!$A$1:$CA$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">実施結果報告書!$A$1:$K$20</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="170">
   <si>
     <t>新規登録</t>
     <rPh sb="0" eb="4">
@@ -1305,33 +1305,6 @@
     <phoneticPr fontId="12"/>
   </si>
   <si>
-    <t>※既存システムのGJ8010にての削除ボタンを参照</t>
-    <rPh sb="1" eb="3">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データが他のユーザによって更新している場合、現行システムと一致すること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テスト方法不明</t>
-    <rPh sb="3" eb="5">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>フメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>非活性化の状態で表示されること</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1576,12 +1549,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ネットが切れている場合、現行システムと一致すること</t>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
+    <t>※既存システムの一覧画面にての削除ボタンを参照</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ150%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>解像度1920×1080　ディスプレイ200%　ブラウザ100%で正常に表示できること</t>
+    <rPh sb="33" eb="35">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>仕様変更</t>
+    <rPh sb="0" eb="4">
+      <t>シヨウヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2513,7 +2519,7 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2630,15 +2636,6 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="49" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2651,69 +2648,69 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2726,45 +2723,129 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="5" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="36" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="41" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="42" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="35" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="29" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="45" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2780,21 +2861,6 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="27" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2807,20 +2873,14 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="37" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="24" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="28" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2834,68 +2894,14 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="40" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="43" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="44" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="30" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="38" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="34" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="46" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="38" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="5" borderId="46" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="53" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="54" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="55" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="21" fillId="6" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="6" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="6" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="50" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2906,6 +2912,9 @@
     <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="32" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2914,18 +2923,6 @@
     </xf>
     <xf numFmtId="177" fontId="21" fillId="0" borderId="52" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="6" borderId="24" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="6" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="6" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="31" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2937,21 +2934,7 @@
     <cellStyle name="標準 5" xfId="4" xr:uid="{995CF52B-56E0-4E71-A9B5-D761A557A3F5}"/>
     <cellStyle name="標準 6" xfId="5" xr:uid="{5AB37F2C-1356-43C0-A642-8019E4F0971A}"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -3933,7 +3916,7 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
@@ -3949,26 +3932,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A1" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="A1" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="47" t="s">
-        <v>160</v>
+      <c r="K1" s="46" t="s">
+        <v>157</v>
       </c>
       <c r="M1" t="s">
         <v>69</v>
@@ -3978,17 +3961,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="47"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="46"/>
       <c r="M2" t="s">
         <v>70</v>
       </c>
@@ -3997,51 +3980,56 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="60" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="61" t="s">
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="48"/>
+      <c r="K3" s="63"/>
       <c r="M3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="49"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="64"/>
       <c r="M4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="M5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="62" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="53" t="s">
@@ -4051,34 +4039,34 @@
         <v>8</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G6" s="53" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="J6" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="63"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="67"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="58"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1">
       <c r="A8" s="1">
@@ -4088,23 +4076,23 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="46"/>
+      <c r="G8" s="43"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1">
       <c r="A9" s="1">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>6</v>
@@ -4112,11 +4100,11 @@
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="46"/>
+      <c r="G9" s="43"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
@@ -4125,11 +4113,11 @@
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="46"/>
+      <c r="G10" s="43"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
@@ -4138,11 +4126,11 @@
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="46"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
@@ -4151,11 +4139,11 @@
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="46"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="1"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
@@ -4164,11 +4152,11 @@
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="46"/>
+      <c r="G13" s="43"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
@@ -4177,11 +4165,11 @@
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="46"/>
+      <c r="G14" s="43"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
@@ -4190,11 +4178,11 @@
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="46"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
@@ -4203,11 +4191,11 @@
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="46"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="1"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1">
       <c r="A17" s="1"/>
@@ -4216,11 +4204,11 @@
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="46"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="1"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1">
       <c r="A18" s="1"/>
@@ -4229,11 +4217,11 @@
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="46"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="1"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1">
       <c r="A19" s="1"/>
@@ -4242,11 +4230,11 @@
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="46"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1">
       <c r="A20" s="1"/>
@@ -4255,14 +4243,30 @@
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="A1:C4"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="J12:K12"/>
@@ -4279,29 +4283,13 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G8:G20">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4319,9 +4307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E25A2F4-F93D-40FA-AE03-A5E4091A0730}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
@@ -4355,13 +4341,13 @@
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
@@ -4394,16 +4380,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
@@ -4586,10 +4572,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -4619,16 +4605,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
     </row>
     <row r="16" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A16" s="19">
@@ -4689,7 +4675,7 @@
         <v>39</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -4710,25 +4696,25 @@
         <v>120</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
       <c r="H19" s="24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="71"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A21" s="19">
@@ -4787,12 +4773,12 @@
         <v>127</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="37"/>
       <c r="H23" s="38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
@@ -4804,7 +4790,7 @@
         <v>43</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D24" s="32" t="s">
         <v>40</v>
@@ -4825,13 +4811,13 @@
         <v>126</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>127</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="37"/>
@@ -4870,15 +4856,15 @@
         <v>42</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="11.25" customHeight="1"/>
@@ -4891,18 +4877,18 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F5:F14 F21:F27">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4913,7 +4899,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B8F59141-98C0-4CFB-A959-FB77013F87BA}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>F16:F19 F5:F14 F21:F27</xm:sqref>
         </x14:dataValidation>
@@ -4948,690 +4934,690 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="99" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="102" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="84" t="s">
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="84" t="s">
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="79" t="s">
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="120" t="s">
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="120" t="s">
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="120" t="s">
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="116" t="s">
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="117"/>
-      <c r="BA3" s="102" t="s">
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="118" t="s">
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="116" t="s">
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="94"/>
+      <c r="BI3" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="BJ3" s="116"/>
-      <c r="BK3" s="116"/>
-      <c r="BL3" s="116"/>
-      <c r="BM3" s="117"/>
-      <c r="BN3" s="100" t="s">
+      <c r="BJ3" s="91"/>
+      <c r="BK3" s="91"/>
+      <c r="BL3" s="91"/>
+      <c r="BM3" s="92"/>
+      <c r="BN3" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="BO3" s="100"/>
-      <c r="BP3" s="100"/>
-      <c r="BQ3" s="100"/>
-      <c r="BR3" s="100"/>
-      <c r="BS3" s="100"/>
-      <c r="BT3" s="100"/>
-      <c r="BU3" s="100"/>
-      <c r="BV3" s="100"/>
-      <c r="BW3" s="100"/>
-      <c r="BX3" s="101"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="71"/>
     </row>
     <row r="4" spans="2:76" ht="16.5">
-      <c r="B4" s="111">
+      <c r="B4" s="83">
         <v>1</v>
       </c>
-      <c r="C4" s="112"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="114" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="94"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="83"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="81"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="82"/>
-      <c r="AA4" s="83"/>
-      <c r="AB4" s="81"/>
-      <c r="AC4" s="82"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="82"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="81"/>
-      <c r="AH4" s="82"/>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82"/>
-      <c r="AK4" s="83"/>
-      <c r="AL4" s="81"/>
-      <c r="AM4" s="82"/>
-      <c r="AN4" s="82"/>
-      <c r="AO4" s="82"/>
-      <c r="AP4" s="83"/>
-      <c r="AQ4" s="81"/>
-      <c r="AR4" s="82"/>
-      <c r="AS4" s="82"/>
-      <c r="AT4" s="82"/>
-      <c r="AU4" s="83"/>
-      <c r="AV4" s="81"/>
-      <c r="AW4" s="82"/>
-      <c r="AX4" s="82"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="83"/>
-      <c r="BA4" s="81"/>
-      <c r="BB4" s="82"/>
-      <c r="BC4" s="82"/>
-      <c r="BD4" s="82"/>
-      <c r="BE4" s="83"/>
-      <c r="BF4" s="106" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="89"/>
+      <c r="P4" s="89"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="88"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="88"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="90"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="88"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="88"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="BG4" s="107"/>
-      <c r="BH4" s="107"/>
-      <c r="BI4" s="81"/>
-      <c r="BJ4" s="82"/>
-      <c r="BK4" s="82"/>
-      <c r="BL4" s="82"/>
-      <c r="BM4" s="83"/>
-      <c r="BN4" s="104"/>
-      <c r="BO4" s="104"/>
-      <c r="BP4" s="104"/>
-      <c r="BQ4" s="104"/>
-      <c r="BR4" s="104"/>
-      <c r="BS4" s="104"/>
-      <c r="BT4" s="104"/>
-      <c r="BU4" s="104"/>
-      <c r="BV4" s="104"/>
-      <c r="BW4" s="104"/>
-      <c r="BX4" s="105"/>
+      <c r="BG4" s="125"/>
+      <c r="BH4" s="125"/>
+      <c r="BI4" s="88"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="90"/>
+      <c r="BN4" s="122"/>
+      <c r="BO4" s="122"/>
+      <c r="BP4" s="122"/>
+      <c r="BQ4" s="122"/>
+      <c r="BR4" s="122"/>
+      <c r="BS4" s="122"/>
+      <c r="BT4" s="122"/>
+      <c r="BU4" s="122"/>
+      <c r="BV4" s="122"/>
+      <c r="BW4" s="122"/>
+      <c r="BX4" s="123"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="90">
+      <c r="B5" s="98">
         <v>2</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="74"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="75"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="75"/>
-      <c r="AI5" s="75"/>
-      <c r="AJ5" s="75"/>
-      <c r="AK5" s="76"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="75"/>
-      <c r="AN5" s="75"/>
-      <c r="AO5" s="75"/>
-      <c r="AP5" s="76"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="75"/>
-      <c r="AS5" s="75"/>
-      <c r="AT5" s="75"/>
-      <c r="AU5" s="76"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="75"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="74"/>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="75"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="76"/>
-      <c r="BF5" s="77" t="s">
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="102"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="104"/>
+      <c r="Y5" s="104"/>
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="105"/>
+      <c r="AB5" s="103"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="104"/>
+      <c r="AF5" s="105"/>
+      <c r="AG5" s="103"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="105"/>
+      <c r="AL5" s="103"/>
+      <c r="AM5" s="104"/>
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="105"/>
+      <c r="AQ5" s="103"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="104"/>
+      <c r="AT5" s="104"/>
+      <c r="AU5" s="105"/>
+      <c r="AV5" s="103"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="104"/>
+      <c r="AZ5" s="105"/>
+      <c r="BA5" s="103"/>
+      <c r="BB5" s="104"/>
+      <c r="BC5" s="104"/>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="105"/>
+      <c r="BF5" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG5" s="78"/>
-      <c r="BH5" s="78"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="75"/>
-      <c r="BK5" s="75"/>
-      <c r="BL5" s="75"/>
-      <c r="BM5" s="76"/>
-      <c r="BN5" s="72"/>
-      <c r="BO5" s="72"/>
-      <c r="BP5" s="72"/>
-      <c r="BQ5" s="72"/>
-      <c r="BR5" s="72"/>
-      <c r="BS5" s="72"/>
-      <c r="BT5" s="72"/>
-      <c r="BU5" s="72"/>
-      <c r="BV5" s="72"/>
-      <c r="BW5" s="72"/>
-      <c r="BX5" s="73"/>
+      <c r="BG5" s="109"/>
+      <c r="BH5" s="109"/>
+      <c r="BI5" s="103"/>
+      <c r="BJ5" s="104"/>
+      <c r="BK5" s="104"/>
+      <c r="BL5" s="104"/>
+      <c r="BM5" s="105"/>
+      <c r="BN5" s="102"/>
+      <c r="BO5" s="102"/>
+      <c r="BP5" s="102"/>
+      <c r="BQ5" s="102"/>
+      <c r="BR5" s="102"/>
+      <c r="BS5" s="102"/>
+      <c r="BT5" s="102"/>
+      <c r="BU5" s="102"/>
+      <c r="BV5" s="102"/>
+      <c r="BW5" s="102"/>
+      <c r="BX5" s="107"/>
     </row>
     <row r="6" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B6" s="90">
+      <c r="B6" s="98">
         <v>3</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="75"/>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="75"/>
-      <c r="BC6" s="75"/>
-      <c r="BD6" s="75"/>
-      <c r="BE6" s="76"/>
-      <c r="BF6" s="77" t="s">
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="103"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="103"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG6" s="78"/>
-      <c r="BH6" s="78"/>
-      <c r="BI6" s="74"/>
-      <c r="BJ6" s="75"/>
-      <c r="BK6" s="75"/>
-      <c r="BL6" s="75"/>
-      <c r="BM6" s="76"/>
-      <c r="BN6" s="72"/>
-      <c r="BO6" s="72"/>
-      <c r="BP6" s="72"/>
-      <c r="BQ6" s="72"/>
-      <c r="BR6" s="72"/>
-      <c r="BS6" s="72"/>
-      <c r="BT6" s="72"/>
-      <c r="BU6" s="72"/>
-      <c r="BV6" s="72"/>
-      <c r="BW6" s="72"/>
-      <c r="BX6" s="73"/>
+      <c r="BG6" s="109"/>
+      <c r="BH6" s="109"/>
+      <c r="BI6" s="103"/>
+      <c r="BJ6" s="104"/>
+      <c r="BK6" s="104"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="102"/>
+      <c r="BO6" s="102"/>
+      <c r="BP6" s="102"/>
+      <c r="BQ6" s="102"/>
+      <c r="BR6" s="102"/>
+      <c r="BS6" s="102"/>
+      <c r="BT6" s="102"/>
+      <c r="BU6" s="102"/>
+      <c r="BV6" s="102"/>
+      <c r="BW6" s="102"/>
+      <c r="BX6" s="107"/>
     </row>
     <row r="7" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B7" s="90">
+      <c r="B7" s="98">
         <v>4</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="76"/>
-      <c r="BF7" s="77" t="s">
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="104"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="104"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="104"/>
+      <c r="AX7" s="104"/>
+      <c r="AY7" s="104"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="103"/>
+      <c r="BB7" s="104"/>
+      <c r="BC7" s="104"/>
+      <c r="BD7" s="104"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG7" s="78"/>
-      <c r="BH7" s="78"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="75"/>
-      <c r="BK7" s="75"/>
-      <c r="BL7" s="75"/>
-      <c r="BM7" s="76"/>
-      <c r="BN7" s="72"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="72"/>
-      <c r="BR7" s="72"/>
-      <c r="BS7" s="72"/>
-      <c r="BT7" s="72"/>
-      <c r="BU7" s="72"/>
-      <c r="BV7" s="72"/>
-      <c r="BW7" s="72"/>
-      <c r="BX7" s="73"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="109"/>
+      <c r="BI7" s="103"/>
+      <c r="BJ7" s="104"/>
+      <c r="BK7" s="104"/>
+      <c r="BL7" s="104"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="102"/>
+      <c r="BO7" s="102"/>
+      <c r="BP7" s="102"/>
+      <c r="BQ7" s="102"/>
+      <c r="BR7" s="102"/>
+      <c r="BS7" s="102"/>
+      <c r="BT7" s="102"/>
+      <c r="BU7" s="102"/>
+      <c r="BV7" s="102"/>
+      <c r="BW7" s="102"/>
+      <c r="BX7" s="107"/>
     </row>
     <row r="8" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B8" s="90">
+      <c r="B8" s="98">
         <v>5</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="76"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="75"/>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="76"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="76"/>
-      <c r="BF8" s="77" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="103"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG8" s="78"/>
-      <c r="BH8" s="78"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="75"/>
-      <c r="BK8" s="75"/>
-      <c r="BL8" s="75"/>
-      <c r="BM8" s="76"/>
-      <c r="BN8" s="72"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="72"/>
-      <c r="BU8" s="72"/>
-      <c r="BV8" s="72"/>
-      <c r="BW8" s="72"/>
-      <c r="BX8" s="73"/>
+      <c r="BG8" s="109"/>
+      <c r="BH8" s="109"/>
+      <c r="BI8" s="103"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="104"/>
+      <c r="BL8" s="104"/>
+      <c r="BM8" s="105"/>
+      <c r="BN8" s="102"/>
+      <c r="BO8" s="102"/>
+      <c r="BP8" s="102"/>
+      <c r="BQ8" s="102"/>
+      <c r="BR8" s="102"/>
+      <c r="BS8" s="102"/>
+      <c r="BT8" s="102"/>
+      <c r="BU8" s="102"/>
+      <c r="BV8" s="102"/>
+      <c r="BW8" s="102"/>
+      <c r="BX8" s="107"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="90">
+      <c r="B9" s="98">
         <v>6</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="76"/>
-      <c r="BF9" s="77" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="103"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="103"/>
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="104"/>
+      <c r="AY9" s="104"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="103"/>
+      <c r="BB9" s="104"/>
+      <c r="BC9" s="104"/>
+      <c r="BD9" s="104"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG9" s="78"/>
-      <c r="BH9" s="78"/>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="75"/>
-      <c r="BL9" s="75"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="72"/>
-      <c r="BO9" s="72"/>
-      <c r="BP9" s="72"/>
-      <c r="BQ9" s="72"/>
-      <c r="BR9" s="72"/>
-      <c r="BS9" s="72"/>
-      <c r="BT9" s="72"/>
-      <c r="BU9" s="72"/>
-      <c r="BV9" s="72"/>
-      <c r="BW9" s="72"/>
-      <c r="BX9" s="73"/>
+      <c r="BG9" s="109"/>
+      <c r="BH9" s="109"/>
+      <c r="BI9" s="103"/>
+      <c r="BJ9" s="104"/>
+      <c r="BK9" s="104"/>
+      <c r="BL9" s="104"/>
+      <c r="BM9" s="105"/>
+      <c r="BN9" s="102"/>
+      <c r="BO9" s="102"/>
+      <c r="BP9" s="102"/>
+      <c r="BQ9" s="102"/>
+      <c r="BR9" s="102"/>
+      <c r="BS9" s="102"/>
+      <c r="BT9" s="102"/>
+      <c r="BU9" s="102"/>
+      <c r="BV9" s="102"/>
+      <c r="BW9" s="102"/>
+      <c r="BX9" s="107"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="85">
+      <c r="B10" s="110">
         <v>7</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88" t="s">
+      <c r="C10" s="111"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="96"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="98"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="98"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="98"/>
-      <c r="AW10" s="96"/>
-      <c r="AX10" s="96"/>
-      <c r="AY10" s="96"/>
-      <c r="AZ10" s="97"/>
-      <c r="BA10" s="95"/>
-      <c r="BB10" s="96"/>
-      <c r="BC10" s="96"/>
-      <c r="BD10" s="96"/>
-      <c r="BE10" s="97"/>
-      <c r="BF10" s="108" t="s">
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="116"/>
+      <c r="P10" s="116"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="116"/>
+      <c r="T10" s="116"/>
+      <c r="U10" s="116"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="116"/>
+      <c r="Y10" s="116"/>
+      <c r="Z10" s="116"/>
+      <c r="AA10" s="117"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="116"/>
+      <c r="AD10" s="116"/>
+      <c r="AE10" s="116"/>
+      <c r="AF10" s="117"/>
+      <c r="AG10" s="118"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="116"/>
+      <c r="AJ10" s="116"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="118"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="116"/>
+      <c r="AP10" s="117"/>
+      <c r="AQ10" s="118"/>
+      <c r="AR10" s="116"/>
+      <c r="AS10" s="116"/>
+      <c r="AT10" s="116"/>
+      <c r="AU10" s="117"/>
+      <c r="AV10" s="118"/>
+      <c r="AW10" s="116"/>
+      <c r="AX10" s="116"/>
+      <c r="AY10" s="116"/>
+      <c r="AZ10" s="117"/>
+      <c r="BA10" s="115"/>
+      <c r="BB10" s="116"/>
+      <c r="BC10" s="116"/>
+      <c r="BD10" s="116"/>
+      <c r="BE10" s="117"/>
+      <c r="BF10" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="BG10" s="109"/>
-      <c r="BH10" s="109"/>
-      <c r="BI10" s="98"/>
-      <c r="BJ10" s="96"/>
-      <c r="BK10" s="96"/>
-      <c r="BL10" s="96"/>
-      <c r="BM10" s="97"/>
-      <c r="BN10" s="89"/>
-      <c r="BO10" s="89"/>
-      <c r="BP10" s="89"/>
-      <c r="BQ10" s="89"/>
-      <c r="BR10" s="89"/>
-      <c r="BS10" s="89"/>
-      <c r="BT10" s="89"/>
-      <c r="BU10" s="89"/>
-      <c r="BV10" s="89"/>
-      <c r="BW10" s="89"/>
-      <c r="BX10" s="110"/>
+      <c r="BG10" s="120"/>
+      <c r="BH10" s="120"/>
+      <c r="BI10" s="118"/>
+      <c r="BJ10" s="116"/>
+      <c r="BK10" s="116"/>
+      <c r="BL10" s="116"/>
+      <c r="BM10" s="117"/>
+      <c r="BN10" s="114"/>
+      <c r="BO10" s="114"/>
+      <c r="BP10" s="114"/>
+      <c r="BQ10" s="114"/>
+      <c r="BR10" s="114"/>
+      <c r="BS10" s="114"/>
+      <c r="BT10" s="114"/>
+      <c r="BU10" s="114"/>
+      <c r="BV10" s="114"/>
+      <c r="BW10" s="114"/>
+      <c r="BX10" s="121"/>
     </row>
     <row r="11" spans="2:76" ht="16.5">
       <c r="B11" s="35" t="s">
@@ -5654,146 +5640,146 @@
       </c>
     </row>
     <row r="16" spans="2:76" ht="15" customHeight="1">
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="99" t="s">
+      <c r="C16" s="70"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="102" t="s">
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="79" t="s">
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="80"/>
-      <c r="Y16" s="84" t="s">
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="80"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="73"/>
+      <c r="AC16" s="74"/>
     </row>
     <row r="17" spans="2:39" ht="15" customHeight="1">
-      <c r="B17" s="90">
+      <c r="B17" s="98">
         <v>1</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93" t="s">
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="83"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="88"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="88"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="90"/>
     </row>
     <row r="18" spans="2:39" ht="15" customHeight="1">
-      <c r="B18" s="90">
+      <c r="B18" s="98">
         <v>2</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93" t="s">
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="74"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="76"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="105"/>
+      <c r="T18" s="103"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="104"/>
+      <c r="W18" s="104"/>
+      <c r="X18" s="105"/>
+      <c r="Y18" s="103"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="105"/>
     </row>
     <row r="19" spans="2:39" ht="15" customHeight="1">
-      <c r="B19" s="85">
+      <c r="B19" s="110">
         <v>3</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88" t="s">
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="97"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="116"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="116"/>
+      <c r="AB19" s="116"/>
+      <c r="AC19" s="117"/>
     </row>
     <row r="21" spans="2:39" ht="16.5">
       <c r="B21" s="35" t="s">
@@ -5801,206 +5787,196 @@
       </c>
     </row>
     <row r="22" spans="2:39" ht="15" customHeight="1">
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="99" t="s">
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="102" t="s">
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="72" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="102" t="s">
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="79"/>
-      <c r="AE22" s="102" t="s">
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="73"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79"/>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="79"/>
-      <c r="AK22" s="79"/>
-      <c r="AL22" s="79"/>
-      <c r="AM22" s="80"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
+      <c r="AI22" s="73"/>
+      <c r="AJ22" s="73"/>
+      <c r="AK22" s="73"/>
+      <c r="AL22" s="73"/>
+      <c r="AM22" s="74"/>
     </row>
     <row r="23" spans="2:39" ht="15" customHeight="1">
-      <c r="B23" s="121">
+      <c r="B23" s="75">
         <v>1</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="124" t="s">
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="127"/>
-      <c r="O23" s="127"/>
-      <c r="P23" s="127"/>
-      <c r="Q23" s="127"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="127"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="127"/>
-      <c r="X23" s="127"/>
-      <c r="Y23" s="127"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="127"/>
-      <c r="AC23" s="127"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="126"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="127"/>
-      <c r="AH23" s="127"/>
-      <c r="AI23" s="127"/>
-      <c r="AJ23" s="127"/>
-      <c r="AK23" s="127"/>
-      <c r="AL23" s="127"/>
-      <c r="AM23" s="128"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="81"/>
+      <c r="Y23" s="81"/>
+      <c r="Z23" s="81"/>
+      <c r="AA23" s="81"/>
+      <c r="AB23" s="81"/>
+      <c r="AC23" s="81"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="81"/>
+      <c r="AG23" s="81"/>
+      <c r="AH23" s="81"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="81"/>
+      <c r="AL23" s="81"/>
+      <c r="AM23" s="82"/>
     </row>
     <row r="24" spans="2:39" ht="9" customHeight="1">
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="43"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="43"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="43"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="43"/>
-      <c r="AI24" s="43"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="43"/>
-      <c r="AL24" s="43"/>
-      <c r="AM24" s="43"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="40"/>
+      <c r="P24" s="40"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="40"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="40"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="40"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
+      <c r="AK24" s="40"/>
+      <c r="AL24" s="40"/>
+      <c r="AM24" s="40"/>
     </row>
     <row r="25" spans="2:39" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="142">
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:L22"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="V22:AD22"/>
-    <mergeCell ref="AE22:AM22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:L23"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="V23:AD23"/>
-    <mergeCell ref="AE23:AM23"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BA4:BE4"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="AQ4:AU4"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="BN9:BX9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BM9"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="T17:X17"/>
+    <mergeCell ref="Y16:AC16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:L19"/>
+    <mergeCell ref="Y17:AC17"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="Y19:AC19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:X18"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="BN5:BX5"/>
+    <mergeCell ref="BN4:BX4"/>
+    <mergeCell ref="BF4:BH4"/>
+    <mergeCell ref="BI4:BM4"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV4:AZ4"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="AL4:AP4"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AL7:AP7"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="E10:L10"/>
     <mergeCell ref="BN8:BX8"/>
@@ -6025,99 +6001,109 @@
     <mergeCell ref="E9:L9"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="R9:V9"/>
-    <mergeCell ref="BN5:BX5"/>
-    <mergeCell ref="BN4:BX4"/>
-    <mergeCell ref="BF4:BH4"/>
-    <mergeCell ref="BI4:BM4"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV4:AZ4"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="AL4:AP4"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="T17:X17"/>
-    <mergeCell ref="Y16:AC16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:L19"/>
-    <mergeCell ref="Y17:AC17"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:X19"/>
-    <mergeCell ref="Y19:AC19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:X18"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="BN9:BX9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BM9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="BA4:BE4"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="AQ4:AU4"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:L22"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="V22:AD22"/>
+    <mergeCell ref="AE22:AM22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:L23"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="V23:AD23"/>
+    <mergeCell ref="AE23:AM23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M17:M19">
-    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23 V23 AE23">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:BE10">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:AC19">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI4:BM10">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6131,9 +6117,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BC5E840C-2576-4CC1-A138-CABF1EAB342F}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
-          <xm:sqref>M23 V23 BD23:BH23 AX23:BB23 AE23 M17:M19 T17:AC19 BI4:BM10 M4:BE10</xm:sqref>
+          <xm:sqref>M23 V23 BI4:BM10 M4:BE10 AE23 M17:M19 T17:AC19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6143,7 +6129,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747EE681-C22A-4F39-983F-2980DFC3BADB}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -6179,13 +6165,13 @@
       <c r="A2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
@@ -6218,18 +6204,18 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-    </row>
-    <row r="5" spans="1:8" ht="18.75">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+    </row>
+    <row r="5" spans="1:8" ht="37.5">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -6240,10 +6226,10 @@
         <v>27</v>
       </c>
       <c r="D5" s="21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="23"/>
@@ -6261,10 +6247,10 @@
         <v>27</v>
       </c>
       <c r="D6" s="21">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="23"/>
@@ -6378,16 +6364,16 @@
       <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="71"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
     </row>
     <row r="13" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A13" s="19">
@@ -6440,13 +6426,13 @@
         <v>79</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -6476,20 +6462,20 @@
       </c>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="71"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A18" s="19">
-        <f t="shared" ref="A18:A35" ca="1" si="3">IF(ISNUMBER(OFFSET(A18, -1, 0)), OFFSET(A18, -1, 0) + 1, OFFSET(A17, -1, 0) + 1)</f>
+        <f t="shared" ref="A18:A29" ca="1" si="3">IF(ISNUMBER(OFFSET(A18, -1, 0)), OFFSET(A18, -1, 0) + 1, OFFSET(A17, -1, 0) + 1)</f>
         <v>12</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -6523,34 +6509,32 @@
         <v>129</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="37"/>
       <c r="H19" s="38"/>
     </row>
     <row r="20" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A20" s="41">
-        <f t="shared" ca="1" si="3"/>
+      <c r="A20" s="19">
+        <f ca="1">IF(ISNUMBER(OFFSET(A20, -1, 0)), OFFSET(A20, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>14</v>
       </c>
-      <c r="B20" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="40" t="s">
+      <c r="B20" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E20" s="40" t="s">
-        <v>139</v>
+      <c r="E20" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="42" t="s">
-        <v>140</v>
-      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A21" s="19">
@@ -6561,25 +6545,25 @@
         <v>128</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>169</v>
+      <c r="E21" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" s="8" customFormat="1" ht="18.75">
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" s="8" customFormat="1" ht="37.5">
       <c r="A22" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>16</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>111</v>
@@ -6588,34 +6572,36 @@
         <v>129</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="39" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="23" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A23" s="19">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISNUMBER(OFFSET(A23, -1, 0)), OFFSET(A23, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>17</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>111</v>
+      <c r="B23" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" s="8" customFormat="1" ht="37.5">
+      <c r="G23" s="33"/>
+      <c r="H23" s="34"/>
+    </row>
+    <row r="24" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A24" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>18</v>
@@ -6623,263 +6609,135 @@
       <c r="B24" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>111</v>
+      <c r="C24" s="32" t="s">
+        <v>107</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="39" t="s">
-        <v>136</v>
+      <c r="G24" s="22"/>
+      <c r="H24" s="24" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A25" s="19">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(ISNUMBER(OFFSET(A25, -1, 0)), OFFSET(A25, -1, 0) + 1, OFFSET(#REF!, -1, 0) + 1)</f>
         <v>19</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>139</v>
+      <c r="B25" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="39"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A26" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>20</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>129</v>
+      <c r="B26" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>40</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="22"/>
+        <v>148</v>
+      </c>
+      <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
+      <c r="H26" s="38" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A27" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>21</v>
       </c>
-      <c r="B27" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
+      <c r="B27" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="38" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="8" customFormat="1" ht="18.75">
       <c r="A28" s="19">
         <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A29" s="19">
+      <c r="B28" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" thickBot="1">
+      <c r="A29" s="25">
         <f t="shared" ca="1" si="3"/>
         <v>23</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A30" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E30" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A31" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B31" s="32" t="s">
+      <c r="B29" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34"/>
-    </row>
-    <row r="32" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A32" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A33" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="36" t="s">
+      <c r="C29" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="8" customFormat="1" ht="18.75">
-      <c r="A34" s="19">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="36" t="s">
+      <c r="D29" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="19.5" thickBot="1">
-      <c r="A35" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="11.25" customHeight="1"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="11.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:F2"/>
@@ -6888,27 +6746,19 @@
     <mergeCell ref="A17:H17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="F5:F11">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+  <conditionalFormatting sqref="F5:F11 F18:F29">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"―"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"NG"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F35">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"―"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6919,9 +6769,9 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28B6207B-457A-46AB-91D0-3EF4408CED82}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F11 F18:F35 F13:F16</xm:sqref>
+          <xm:sqref>F5:F11 F13:F16 F18:F29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6954,206 +6804,206 @@
       </c>
     </row>
     <row r="3" spans="2:76" ht="15" customHeight="1">
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="99" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="102" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="84" t="s">
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="84" t="s">
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="95" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="79" t="s">
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="79"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="79"/>
-      <c r="AG3" s="120" t="s">
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="116"/>
-      <c r="AJ3" s="116"/>
-      <c r="AK3" s="117"/>
-      <c r="AL3" s="120" t="s">
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="91"/>
+      <c r="AJ3" s="91"/>
+      <c r="AK3" s="92"/>
+      <c r="AL3" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="AM3" s="116"/>
-      <c r="AN3" s="116"/>
-      <c r="AO3" s="116"/>
-      <c r="AP3" s="117"/>
-      <c r="AQ3" s="120" t="s">
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="92"/>
+      <c r="AQ3" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AR3" s="116"/>
-      <c r="AS3" s="116"/>
-      <c r="AT3" s="116"/>
-      <c r="AU3" s="117"/>
-      <c r="AV3" s="116" t="s">
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="91"/>
+      <c r="AT3" s="91"/>
+      <c r="AU3" s="92"/>
+      <c r="AV3" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="AW3" s="116"/>
-      <c r="AX3" s="116"/>
-      <c r="AY3" s="116"/>
-      <c r="AZ3" s="117"/>
-      <c r="BA3" s="102" t="s">
+      <c r="AW3" s="91"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="92"/>
+      <c r="BA3" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="BB3" s="79"/>
-      <c r="BC3" s="79"/>
-      <c r="BD3" s="79"/>
-      <c r="BE3" s="80"/>
-      <c r="BF3" s="118" t="s">
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="116" t="s">
+      <c r="BG3" s="94"/>
+      <c r="BH3" s="94"/>
+      <c r="BI3" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="BJ3" s="116"/>
-      <c r="BK3" s="116"/>
-      <c r="BL3" s="116"/>
-      <c r="BM3" s="117"/>
-      <c r="BN3" s="100" t="s">
+      <c r="BJ3" s="91"/>
+      <c r="BK3" s="91"/>
+      <c r="BL3" s="91"/>
+      <c r="BM3" s="92"/>
+      <c r="BN3" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="BO3" s="100"/>
-      <c r="BP3" s="100"/>
-      <c r="BQ3" s="100"/>
-      <c r="BR3" s="100"/>
-      <c r="BS3" s="100"/>
-      <c r="BT3" s="100"/>
-      <c r="BU3" s="100"/>
-      <c r="BV3" s="100"/>
-      <c r="BW3" s="100"/>
-      <c r="BX3" s="101"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="71"/>
     </row>
     <row r="4" spans="2:76" ht="15" customHeight="1">
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
-      <c r="AX4" s="136"/>
-      <c r="AY4" s="136"/>
-      <c r="AZ4" s="136"/>
-      <c r="BA4" s="136"/>
-      <c r="BB4" s="136"/>
-      <c r="BC4" s="136"/>
-      <c r="BD4" s="136"/>
-      <c r="BE4" s="136"/>
-      <c r="BF4" s="136"/>
-      <c r="BG4" s="136"/>
-      <c r="BH4" s="136"/>
-      <c r="BI4" s="136"/>
-      <c r="BJ4" s="136"/>
-      <c r="BK4" s="136"/>
-      <c r="BL4" s="136"/>
-      <c r="BM4" s="136"/>
-      <c r="BN4" s="136"/>
-      <c r="BO4" s="136"/>
-      <c r="BP4" s="136"/>
-      <c r="BQ4" s="136"/>
-      <c r="BR4" s="136"/>
-      <c r="BS4" s="136"/>
-      <c r="BT4" s="136"/>
-      <c r="BU4" s="136"/>
-      <c r="BV4" s="136"/>
-      <c r="BW4" s="136"/>
-      <c r="BX4" s="137"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
+      <c r="AD4" s="127"/>
+      <c r="AE4" s="127"/>
+      <c r="AF4" s="127"/>
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="127"/>
+      <c r="AJ4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="127"/>
+      <c r="AS4" s="127"/>
+      <c r="AT4" s="127"/>
+      <c r="AU4" s="127"/>
+      <c r="AV4" s="127"/>
+      <c r="AW4" s="127"/>
+      <c r="AX4" s="127"/>
+      <c r="AY4" s="127"/>
+      <c r="AZ4" s="127"/>
+      <c r="BA4" s="127"/>
+      <c r="BB4" s="127"/>
+      <c r="BC4" s="127"/>
+      <c r="BD4" s="127"/>
+      <c r="BE4" s="127"/>
+      <c r="BF4" s="127"/>
+      <c r="BG4" s="127"/>
+      <c r="BH4" s="127"/>
+      <c r="BI4" s="127"/>
+      <c r="BJ4" s="127"/>
+      <c r="BK4" s="127"/>
+      <c r="BL4" s="127"/>
+      <c r="BM4" s="127"/>
+      <c r="BN4" s="127"/>
+      <c r="BO4" s="127"/>
+      <c r="BP4" s="127"/>
+      <c r="BQ4" s="127"/>
+      <c r="BR4" s="127"/>
+      <c r="BS4" s="127"/>
+      <c r="BT4" s="127"/>
+      <c r="BU4" s="127"/>
+      <c r="BV4" s="127"/>
+      <c r="BW4" s="127"/>
+      <c r="BX4" s="128"/>
     </row>
     <row r="5" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B5" s="111">
+      <c r="B5" s="83">
         <v>1</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="114" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="138"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="132"/>
       <c r="N5" s="130"/>
       <c r="O5" s="130"/>
       <c r="P5" s="130"/>
@@ -7198,1185 +7048,1185 @@
       <c r="BC5" s="130"/>
       <c r="BD5" s="130"/>
       <c r="BE5" s="131"/>
-      <c r="BF5" s="133" t="s">
+      <c r="BF5" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="BG5" s="134"/>
-      <c r="BH5" s="134"/>
+      <c r="BG5" s="135"/>
+      <c r="BH5" s="135"/>
       <c r="BI5" s="129"/>
       <c r="BJ5" s="130"/>
       <c r="BK5" s="130"/>
       <c r="BL5" s="130"/>
       <c r="BM5" s="131"/>
-      <c r="BN5" s="115"/>
-      <c r="BO5" s="115"/>
-      <c r="BP5" s="115"/>
-      <c r="BQ5" s="115"/>
-      <c r="BR5" s="115"/>
-      <c r="BS5" s="115"/>
-      <c r="BT5" s="115"/>
-      <c r="BU5" s="115"/>
-      <c r="BV5" s="115"/>
-      <c r="BW5" s="115"/>
-      <c r="BX5" s="132"/>
+      <c r="BN5" s="87"/>
+      <c r="BO5" s="87"/>
+      <c r="BP5" s="87"/>
+      <c r="BQ5" s="87"/>
+      <c r="BR5" s="87"/>
+      <c r="BS5" s="87"/>
+      <c r="BT5" s="87"/>
+      <c r="BU5" s="87"/>
+      <c r="BV5" s="87"/>
+      <c r="BW5" s="87"/>
+      <c r="BX5" s="133"/>
     </row>
     <row r="6" spans="2:76" ht="16.5">
-      <c r="B6" s="90">
+      <c r="B6" s="98">
         <v>2</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="93" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="74"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="74"/>
-      <c r="AC6" s="75"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="75"/>
-      <c r="AI6" s="75"/>
-      <c r="AJ6" s="75"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="74"/>
-      <c r="AM6" s="75"/>
-      <c r="AN6" s="75"/>
-      <c r="AO6" s="75"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="74"/>
-      <c r="AR6" s="75"/>
-      <c r="AS6" s="75"/>
-      <c r="AT6" s="75"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="74"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="74"/>
-      <c r="BB6" s="75"/>
-      <c r="BC6" s="75"/>
-      <c r="BD6" s="75"/>
-      <c r="BE6" s="76"/>
-      <c r="BF6" s="77" t="s">
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="104"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="103"/>
+      <c r="S6" s="104"/>
+      <c r="T6" s="104"/>
+      <c r="U6" s="104"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="104"/>
+      <c r="Y6" s="104"/>
+      <c r="Z6" s="104"/>
+      <c r="AA6" s="105"/>
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="104"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="104"/>
+      <c r="AF6" s="105"/>
+      <c r="AG6" s="103"/>
+      <c r="AH6" s="104"/>
+      <c r="AI6" s="104"/>
+      <c r="AJ6" s="104"/>
+      <c r="AK6" s="105"/>
+      <c r="AL6" s="103"/>
+      <c r="AM6" s="104"/>
+      <c r="AN6" s="104"/>
+      <c r="AO6" s="104"/>
+      <c r="AP6" s="105"/>
+      <c r="AQ6" s="103"/>
+      <c r="AR6" s="104"/>
+      <c r="AS6" s="104"/>
+      <c r="AT6" s="104"/>
+      <c r="AU6" s="105"/>
+      <c r="AV6" s="103"/>
+      <c r="AW6" s="104"/>
+      <c r="AX6" s="104"/>
+      <c r="AY6" s="104"/>
+      <c r="AZ6" s="105"/>
+      <c r="BA6" s="103"/>
+      <c r="BB6" s="104"/>
+      <c r="BC6" s="104"/>
+      <c r="BD6" s="104"/>
+      <c r="BE6" s="105"/>
+      <c r="BF6" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="BG6" s="78"/>
-      <c r="BH6" s="78"/>
-      <c r="BI6" s="74"/>
-      <c r="BJ6" s="75"/>
-      <c r="BK6" s="75"/>
-      <c r="BL6" s="75"/>
-      <c r="BM6" s="76"/>
-      <c r="BN6" s="72"/>
-      <c r="BO6" s="72"/>
-      <c r="BP6" s="72"/>
-      <c r="BQ6" s="72"/>
-      <c r="BR6" s="72"/>
-      <c r="BS6" s="72"/>
-      <c r="BT6" s="72"/>
-      <c r="BU6" s="72"/>
-      <c r="BV6" s="72"/>
-      <c r="BW6" s="72"/>
-      <c r="BX6" s="73"/>
+      <c r="BG6" s="109"/>
+      <c r="BH6" s="109"/>
+      <c r="BI6" s="103"/>
+      <c r="BJ6" s="104"/>
+      <c r="BK6" s="104"/>
+      <c r="BL6" s="104"/>
+      <c r="BM6" s="105"/>
+      <c r="BN6" s="102"/>
+      <c r="BO6" s="102"/>
+      <c r="BP6" s="102"/>
+      <c r="BQ6" s="102"/>
+      <c r="BR6" s="102"/>
+      <c r="BS6" s="102"/>
+      <c r="BT6" s="102"/>
+      <c r="BU6" s="102"/>
+      <c r="BV6" s="102"/>
+      <c r="BW6" s="102"/>
+      <c r="BX6" s="107"/>
     </row>
     <row r="7" spans="2:76" ht="16.5">
-      <c r="B7" s="90">
+      <c r="B7" s="98">
         <v>3</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="75"/>
-      <c r="Y7" s="75"/>
-      <c r="Z7" s="75"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="75"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="75"/>
-      <c r="AJ7" s="75"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="75"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="75"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="75"/>
-      <c r="AS7" s="75"/>
-      <c r="AT7" s="75"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="74"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="76"/>
-      <c r="BF7" s="77" t="s">
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="103"/>
+      <c r="S7" s="104"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="104"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="103"/>
+      <c r="X7" s="104"/>
+      <c r="Y7" s="104"/>
+      <c r="Z7" s="104"/>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="104"/>
+      <c r="AF7" s="105"/>
+      <c r="AG7" s="103"/>
+      <c r="AH7" s="104"/>
+      <c r="AI7" s="104"/>
+      <c r="AJ7" s="104"/>
+      <c r="AK7" s="105"/>
+      <c r="AL7" s="103"/>
+      <c r="AM7" s="104"/>
+      <c r="AN7" s="104"/>
+      <c r="AO7" s="104"/>
+      <c r="AP7" s="105"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="104"/>
+      <c r="AT7" s="104"/>
+      <c r="AU7" s="105"/>
+      <c r="AV7" s="103"/>
+      <c r="AW7" s="104"/>
+      <c r="AX7" s="104"/>
+      <c r="AY7" s="104"/>
+      <c r="AZ7" s="105"/>
+      <c r="BA7" s="103"/>
+      <c r="BB7" s="104"/>
+      <c r="BC7" s="104"/>
+      <c r="BD7" s="104"/>
+      <c r="BE7" s="105"/>
+      <c r="BF7" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="BG7" s="78"/>
-      <c r="BH7" s="78"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="75"/>
-      <c r="BK7" s="75"/>
-      <c r="BL7" s="75"/>
-      <c r="BM7" s="76"/>
-      <c r="BN7" s="72"/>
-      <c r="BO7" s="72"/>
-      <c r="BP7" s="72"/>
-      <c r="BQ7" s="72"/>
-      <c r="BR7" s="72"/>
-      <c r="BS7" s="72"/>
-      <c r="BT7" s="72"/>
-      <c r="BU7" s="72"/>
-      <c r="BV7" s="72"/>
-      <c r="BW7" s="72"/>
-      <c r="BX7" s="73"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="109"/>
+      <c r="BI7" s="103"/>
+      <c r="BJ7" s="104"/>
+      <c r="BK7" s="104"/>
+      <c r="BL7" s="104"/>
+      <c r="BM7" s="105"/>
+      <c r="BN7" s="102"/>
+      <c r="BO7" s="102"/>
+      <c r="BP7" s="102"/>
+      <c r="BQ7" s="102"/>
+      <c r="BR7" s="102"/>
+      <c r="BS7" s="102"/>
+      <c r="BT7" s="102"/>
+      <c r="BU7" s="102"/>
+      <c r="BV7" s="102"/>
+      <c r="BW7" s="102"/>
+      <c r="BX7" s="107"/>
     </row>
     <row r="8" spans="2:76" ht="16.5">
-      <c r="B8" s="90">
+      <c r="B8" s="98">
         <v>4</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="93" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="75"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="75"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="75"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="75"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="75"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="75"/>
-      <c r="AJ8" s="75"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="75"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="75"/>
-      <c r="AP8" s="76"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="75"/>
-      <c r="AS8" s="75"/>
-      <c r="AT8" s="75"/>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="76"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="76"/>
-      <c r="BF8" s="77" t="s">
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="103"/>
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="104"/>
+      <c r="AA8" s="105"/>
+      <c r="AB8" s="103"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="104"/>
+      <c r="AF8" s="105"/>
+      <c r="AG8" s="103"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="104"/>
+      <c r="AK8" s="105"/>
+      <c r="AL8" s="103"/>
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="104"/>
+      <c r="AP8" s="105"/>
+      <c r="AQ8" s="103"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="104"/>
+      <c r="AU8" s="105"/>
+      <c r="AV8" s="103"/>
+      <c r="AW8" s="104"/>
+      <c r="AX8" s="104"/>
+      <c r="AY8" s="104"/>
+      <c r="AZ8" s="105"/>
+      <c r="BA8" s="103"/>
+      <c r="BB8" s="104"/>
+      <c r="BC8" s="104"/>
+      <c r="BD8" s="104"/>
+      <c r="BE8" s="105"/>
+      <c r="BF8" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="BG8" s="78"/>
-      <c r="BH8" s="78"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="75"/>
-      <c r="BK8" s="75"/>
-      <c r="BL8" s="75"/>
-      <c r="BM8" s="76"/>
-      <c r="BN8" s="72"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="72"/>
-      <c r="BT8" s="72"/>
-      <c r="BU8" s="72"/>
-      <c r="BV8" s="72"/>
-      <c r="BW8" s="72"/>
-      <c r="BX8" s="73"/>
+      <c r="BG8" s="109"/>
+      <c r="BH8" s="109"/>
+      <c r="BI8" s="103"/>
+      <c r="BJ8" s="104"/>
+      <c r="BK8" s="104"/>
+      <c r="BL8" s="104"/>
+      <c r="BM8" s="105"/>
+      <c r="BN8" s="102"/>
+      <c r="BO8" s="102"/>
+      <c r="BP8" s="102"/>
+      <c r="BQ8" s="102"/>
+      <c r="BR8" s="102"/>
+      <c r="BS8" s="102"/>
+      <c r="BT8" s="102"/>
+      <c r="BU8" s="102"/>
+      <c r="BV8" s="102"/>
+      <c r="BW8" s="102"/>
+      <c r="BX8" s="107"/>
     </row>
     <row r="9" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B9" s="90">
+      <c r="B9" s="98">
         <v>5</v>
       </c>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93" t="s">
+      <c r="C9" s="99"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="103"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="74"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="74"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="74"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="74"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="76"/>
-      <c r="BF9" s="77" t="s">
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="106"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="103"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="103"/>
+      <c r="X9" s="104"/>
+      <c r="Y9" s="104"/>
+      <c r="Z9" s="104"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="103"/>
+      <c r="AC9" s="104"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="104"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="104"/>
+      <c r="AI9" s="104"/>
+      <c r="AJ9" s="104"/>
+      <c r="AK9" s="105"/>
+      <c r="AL9" s="103"/>
+      <c r="AM9" s="104"/>
+      <c r="AN9" s="104"/>
+      <c r="AO9" s="104"/>
+      <c r="AP9" s="105"/>
+      <c r="AQ9" s="103"/>
+      <c r="AR9" s="104"/>
+      <c r="AS9" s="104"/>
+      <c r="AT9" s="104"/>
+      <c r="AU9" s="105"/>
+      <c r="AV9" s="103"/>
+      <c r="AW9" s="104"/>
+      <c r="AX9" s="104"/>
+      <c r="AY9" s="104"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="103"/>
+      <c r="BB9" s="104"/>
+      <c r="BC9" s="104"/>
+      <c r="BD9" s="104"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG9" s="78"/>
-      <c r="BH9" s="78"/>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="75"/>
-      <c r="BL9" s="75"/>
-      <c r="BM9" s="76"/>
-      <c r="BN9" s="72"/>
-      <c r="BO9" s="72"/>
-      <c r="BP9" s="72"/>
-      <c r="BQ9" s="72"/>
-      <c r="BR9" s="72"/>
-      <c r="BS9" s="72"/>
-      <c r="BT9" s="72"/>
-      <c r="BU9" s="72"/>
-      <c r="BV9" s="72"/>
-      <c r="BW9" s="72"/>
-      <c r="BX9" s="73"/>
+      <c r="BG9" s="109"/>
+      <c r="BH9" s="109"/>
+      <c r="BI9" s="103"/>
+      <c r="BJ9" s="104"/>
+      <c r="BK9" s="104"/>
+      <c r="BL9" s="104"/>
+      <c r="BM9" s="105"/>
+      <c r="BN9" s="102"/>
+      <c r="BO9" s="102"/>
+      <c r="BP9" s="102"/>
+      <c r="BQ9" s="102"/>
+      <c r="BR9" s="102"/>
+      <c r="BS9" s="102"/>
+      <c r="BT9" s="102"/>
+      <c r="BU9" s="102"/>
+      <c r="BV9" s="102"/>
+      <c r="BW9" s="102"/>
+      <c r="BX9" s="107"/>
     </row>
     <row r="10" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B10" s="90">
+      <c r="B10" s="98">
         <v>6</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93" t="s">
+      <c r="C10" s="99"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="74"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="103"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="74"/>
-      <c r="AM10" s="75"/>
-      <c r="AN10" s="75"/>
-      <c r="AO10" s="75"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="74"/>
-      <c r="AR10" s="75"/>
-      <c r="AS10" s="75"/>
-      <c r="AT10" s="75"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="74"/>
-      <c r="AW10" s="75"/>
-      <c r="AX10" s="75"/>
-      <c r="AY10" s="75"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="74"/>
-      <c r="BB10" s="75"/>
-      <c r="BC10" s="75"/>
-      <c r="BD10" s="75"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="77" t="s">
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="105"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="105"/>
+      <c r="AB10" s="103"/>
+      <c r="AC10" s="104"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="104"/>
+      <c r="AF10" s="105"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="104"/>
+      <c r="AI10" s="104"/>
+      <c r="AJ10" s="104"/>
+      <c r="AK10" s="105"/>
+      <c r="AL10" s="103"/>
+      <c r="AM10" s="104"/>
+      <c r="AN10" s="104"/>
+      <c r="AO10" s="104"/>
+      <c r="AP10" s="105"/>
+      <c r="AQ10" s="103"/>
+      <c r="AR10" s="104"/>
+      <c r="AS10" s="104"/>
+      <c r="AT10" s="104"/>
+      <c r="AU10" s="105"/>
+      <c r="AV10" s="103"/>
+      <c r="AW10" s="104"/>
+      <c r="AX10" s="104"/>
+      <c r="AY10" s="104"/>
+      <c r="AZ10" s="105"/>
+      <c r="BA10" s="103"/>
+      <c r="BB10" s="104"/>
+      <c r="BC10" s="104"/>
+      <c r="BD10" s="104"/>
+      <c r="BE10" s="105"/>
+      <c r="BF10" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG10" s="78"/>
-      <c r="BH10" s="78"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="75"/>
-      <c r="BK10" s="75"/>
-      <c r="BL10" s="75"/>
-      <c r="BM10" s="76"/>
-      <c r="BN10" s="72"/>
-      <c r="BO10" s="72"/>
-      <c r="BP10" s="72"/>
-      <c r="BQ10" s="72"/>
-      <c r="BR10" s="72"/>
-      <c r="BS10" s="72"/>
-      <c r="BT10" s="72"/>
-      <c r="BU10" s="72"/>
-      <c r="BV10" s="72"/>
-      <c r="BW10" s="72"/>
-      <c r="BX10" s="73"/>
+      <c r="BG10" s="109"/>
+      <c r="BH10" s="109"/>
+      <c r="BI10" s="103"/>
+      <c r="BJ10" s="104"/>
+      <c r="BK10" s="104"/>
+      <c r="BL10" s="104"/>
+      <c r="BM10" s="105"/>
+      <c r="BN10" s="102"/>
+      <c r="BO10" s="102"/>
+      <c r="BP10" s="102"/>
+      <c r="BQ10" s="102"/>
+      <c r="BR10" s="102"/>
+      <c r="BS10" s="102"/>
+      <c r="BT10" s="102"/>
+      <c r="BU10" s="102"/>
+      <c r="BV10" s="102"/>
+      <c r="BW10" s="102"/>
+      <c r="BX10" s="107"/>
     </row>
     <row r="11" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B11" s="90">
+      <c r="B11" s="98">
         <v>7</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="88" t="s">
+      <c r="C11" s="99"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="96"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="98"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="97"/>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="98"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="98"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="96"/>
-      <c r="AT11" s="96"/>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="98"/>
-      <c r="AW11" s="96"/>
-      <c r="AX11" s="96"/>
-      <c r="AY11" s="96"/>
-      <c r="AZ11" s="97"/>
-      <c r="BA11" s="98"/>
-      <c r="BB11" s="96"/>
-      <c r="BC11" s="96"/>
-      <c r="BD11" s="96"/>
-      <c r="BE11" s="97"/>
-      <c r="BF11" s="108" t="s">
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="116"/>
+      <c r="P11" s="116"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="117"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="116"/>
+      <c r="AD11" s="116"/>
+      <c r="AE11" s="116"/>
+      <c r="AF11" s="117"/>
+      <c r="AG11" s="115"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="116"/>
+      <c r="AJ11" s="116"/>
+      <c r="AK11" s="117"/>
+      <c r="AL11" s="118"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="116"/>
+      <c r="AP11" s="117"/>
+      <c r="AQ11" s="118"/>
+      <c r="AR11" s="116"/>
+      <c r="AS11" s="116"/>
+      <c r="AT11" s="116"/>
+      <c r="AU11" s="117"/>
+      <c r="AV11" s="118"/>
+      <c r="AW11" s="116"/>
+      <c r="AX11" s="116"/>
+      <c r="AY11" s="116"/>
+      <c r="AZ11" s="117"/>
+      <c r="BA11" s="118"/>
+      <c r="BB11" s="116"/>
+      <c r="BC11" s="116"/>
+      <c r="BD11" s="116"/>
+      <c r="BE11" s="117"/>
+      <c r="BF11" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="BG11" s="109"/>
-      <c r="BH11" s="109"/>
-      <c r="BI11" s="98"/>
-      <c r="BJ11" s="96"/>
-      <c r="BK11" s="96"/>
-      <c r="BL11" s="96"/>
-      <c r="BM11" s="97"/>
-      <c r="BN11" s="89"/>
-      <c r="BO11" s="89"/>
-      <c r="BP11" s="89"/>
-      <c r="BQ11" s="89"/>
-      <c r="BR11" s="89"/>
-      <c r="BS11" s="89"/>
-      <c r="BT11" s="89"/>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
-      <c r="BW11" s="89"/>
-      <c r="BX11" s="110"/>
+      <c r="BG11" s="120"/>
+      <c r="BH11" s="120"/>
+      <c r="BI11" s="118"/>
+      <c r="BJ11" s="116"/>
+      <c r="BK11" s="116"/>
+      <c r="BL11" s="116"/>
+      <c r="BM11" s="117"/>
+      <c r="BN11" s="114"/>
+      <c r="BO11" s="114"/>
+      <c r="BP11" s="114"/>
+      <c r="BQ11" s="114"/>
+      <c r="BR11" s="114"/>
+      <c r="BS11" s="114"/>
+      <c r="BT11" s="114"/>
+      <c r="BU11" s="114"/>
+      <c r="BV11" s="114"/>
+      <c r="BW11" s="114"/>
+      <c r="BX11" s="121"/>
     </row>
     <row r="12" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="126" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="136"/>
-      <c r="O12" s="136"/>
-      <c r="P12" s="136"/>
-      <c r="Q12" s="136"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="136"/>
-      <c r="Z12" s="136"/>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="136"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="136"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="136"/>
-      <c r="AI12" s="136"/>
-      <c r="AJ12" s="136"/>
-      <c r="AK12" s="136"/>
-      <c r="AL12" s="136"/>
-      <c r="AM12" s="136"/>
-      <c r="AN12" s="136"/>
-      <c r="AO12" s="136"/>
-      <c r="AP12" s="136"/>
-      <c r="AQ12" s="136"/>
-      <c r="AR12" s="136"/>
-      <c r="AS12" s="136"/>
-      <c r="AT12" s="136"/>
-      <c r="AU12" s="136"/>
-      <c r="AV12" s="136"/>
-      <c r="AW12" s="136"/>
-      <c r="AX12" s="136"/>
-      <c r="AY12" s="136"/>
-      <c r="AZ12" s="136"/>
-      <c r="BA12" s="136"/>
-      <c r="BB12" s="136"/>
-      <c r="BC12" s="136"/>
-      <c r="BD12" s="136"/>
-      <c r="BE12" s="136"/>
-      <c r="BF12" s="136"/>
-      <c r="BG12" s="136"/>
-      <c r="BH12" s="136"/>
-      <c r="BI12" s="136"/>
-      <c r="BJ12" s="136"/>
-      <c r="BK12" s="136"/>
-      <c r="BL12" s="136"/>
-      <c r="BM12" s="136"/>
-      <c r="BN12" s="136"/>
-      <c r="BO12" s="136"/>
-      <c r="BP12" s="136"/>
-      <c r="BQ12" s="136"/>
-      <c r="BR12" s="136"/>
-      <c r="BS12" s="136"/>
-      <c r="BT12" s="136"/>
-      <c r="BU12" s="136"/>
-      <c r="BV12" s="136"/>
-      <c r="BW12" s="136"/>
-      <c r="BX12" s="137"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="127"/>
+      <c r="L12" s="127"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="127"/>
+      <c r="O12" s="127"/>
+      <c r="P12" s="127"/>
+      <c r="Q12" s="127"/>
+      <c r="R12" s="127"/>
+      <c r="S12" s="127"/>
+      <c r="T12" s="127"/>
+      <c r="U12" s="127"/>
+      <c r="V12" s="127"/>
+      <c r="W12" s="127"/>
+      <c r="X12" s="127"/>
+      <c r="Y12" s="127"/>
+      <c r="Z12" s="127"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="127"/>
+      <c r="AC12" s="127"/>
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="127"/>
+      <c r="AF12" s="127"/>
+      <c r="AG12" s="127"/>
+      <c r="AH12" s="127"/>
+      <c r="AI12" s="127"/>
+      <c r="AJ12" s="127"/>
+      <c r="AK12" s="127"/>
+      <c r="AL12" s="127"/>
+      <c r="AM12" s="127"/>
+      <c r="AN12" s="127"/>
+      <c r="AO12" s="127"/>
+      <c r="AP12" s="127"/>
+      <c r="AQ12" s="127"/>
+      <c r="AR12" s="127"/>
+      <c r="AS12" s="127"/>
+      <c r="AT12" s="127"/>
+      <c r="AU12" s="127"/>
+      <c r="AV12" s="127"/>
+      <c r="AW12" s="127"/>
+      <c r="AX12" s="127"/>
+      <c r="AY12" s="127"/>
+      <c r="AZ12" s="127"/>
+      <c r="BA12" s="127"/>
+      <c r="BB12" s="127"/>
+      <c r="BC12" s="127"/>
+      <c r="BD12" s="127"/>
+      <c r="BE12" s="127"/>
+      <c r="BF12" s="127"/>
+      <c r="BG12" s="127"/>
+      <c r="BH12" s="127"/>
+      <c r="BI12" s="127"/>
+      <c r="BJ12" s="127"/>
+      <c r="BK12" s="127"/>
+      <c r="BL12" s="127"/>
+      <c r="BM12" s="127"/>
+      <c r="BN12" s="127"/>
+      <c r="BO12" s="127"/>
+      <c r="BP12" s="127"/>
+      <c r="BQ12" s="127"/>
+      <c r="BR12" s="127"/>
+      <c r="BS12" s="127"/>
+      <c r="BT12" s="127"/>
+      <c r="BU12" s="127"/>
+      <c r="BV12" s="127"/>
+      <c r="BW12" s="127"/>
+      <c r="BX12" s="128"/>
     </row>
     <row r="13" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B13" s="111">
+      <c r="B13" s="83">
         <v>8</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="114" t="s">
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="83"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="83"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="82"/>
-      <c r="Y13" s="82"/>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="83"/>
-      <c r="AB13" s="81"/>
-      <c r="AC13" s="82"/>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="82"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="81"/>
-      <c r="AH13" s="82"/>
-      <c r="AI13" s="82"/>
-      <c r="AJ13" s="82"/>
-      <c r="AK13" s="83"/>
-      <c r="AL13" s="81"/>
-      <c r="AM13" s="82"/>
-      <c r="AN13" s="82"/>
-      <c r="AO13" s="82"/>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="81"/>
-      <c r="AR13" s="82"/>
-      <c r="AS13" s="82"/>
-      <c r="AT13" s="82"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="81"/>
-      <c r="AW13" s="82"/>
-      <c r="AX13" s="82"/>
-      <c r="AY13" s="82"/>
-      <c r="AZ13" s="83"/>
-      <c r="BA13" s="81"/>
-      <c r="BB13" s="82"/>
-      <c r="BC13" s="82"/>
-      <c r="BD13" s="82"/>
-      <c r="BE13" s="83"/>
-      <c r="BF13" s="77" t="s">
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="88"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="88"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="89"/>
+      <c r="AF13" s="90"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="89"/>
+      <c r="AI13" s="89"/>
+      <c r="AJ13" s="89"/>
+      <c r="AK13" s="90"/>
+      <c r="AL13" s="88"/>
+      <c r="AM13" s="89"/>
+      <c r="AN13" s="89"/>
+      <c r="AO13" s="89"/>
+      <c r="AP13" s="90"/>
+      <c r="AQ13" s="88"/>
+      <c r="AR13" s="89"/>
+      <c r="AS13" s="89"/>
+      <c r="AT13" s="89"/>
+      <c r="AU13" s="90"/>
+      <c r="AV13" s="88"/>
+      <c r="AW13" s="89"/>
+      <c r="AX13" s="89"/>
+      <c r="AY13" s="89"/>
+      <c r="AZ13" s="90"/>
+      <c r="BA13" s="88"/>
+      <c r="BB13" s="89"/>
+      <c r="BC13" s="89"/>
+      <c r="BD13" s="89"/>
+      <c r="BE13" s="90"/>
+      <c r="BF13" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG13" s="78"/>
-      <c r="BH13" s="78"/>
-      <c r="BI13" s="81"/>
-      <c r="BJ13" s="82"/>
-      <c r="BK13" s="82"/>
-      <c r="BL13" s="82"/>
-      <c r="BM13" s="83"/>
-      <c r="BN13" s="104"/>
-      <c r="BO13" s="104"/>
-      <c r="BP13" s="104"/>
-      <c r="BQ13" s="104"/>
-      <c r="BR13" s="104"/>
-      <c r="BS13" s="104"/>
-      <c r="BT13" s="104"/>
-      <c r="BU13" s="104"/>
-      <c r="BV13" s="104"/>
-      <c r="BW13" s="104"/>
-      <c r="BX13" s="105"/>
+      <c r="BG13" s="109"/>
+      <c r="BH13" s="109"/>
+      <c r="BI13" s="88"/>
+      <c r="BJ13" s="89"/>
+      <c r="BK13" s="89"/>
+      <c r="BL13" s="89"/>
+      <c r="BM13" s="90"/>
+      <c r="BN13" s="122"/>
+      <c r="BO13" s="122"/>
+      <c r="BP13" s="122"/>
+      <c r="BQ13" s="122"/>
+      <c r="BR13" s="122"/>
+      <c r="BS13" s="122"/>
+      <c r="BT13" s="122"/>
+      <c r="BU13" s="122"/>
+      <c r="BV13" s="122"/>
+      <c r="BW13" s="122"/>
+      <c r="BX13" s="123"/>
     </row>
     <row r="14" spans="2:76" ht="16.5">
-      <c r="B14" s="90">
+      <c r="B14" s="98">
         <v>9</v>
       </c>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93" t="s">
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="75"/>
-      <c r="T14" s="75"/>
-      <c r="U14" s="75"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="75"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="75"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="74"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="74"/>
-      <c r="AM14" s="75"/>
-      <c r="AN14" s="75"/>
-      <c r="AO14" s="75"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="74"/>
-      <c r="AR14" s="75"/>
-      <c r="AS14" s="75"/>
-      <c r="AT14" s="75"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="74"/>
-      <c r="AW14" s="75"/>
-      <c r="AX14" s="75"/>
-      <c r="AY14" s="75"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="74"/>
-      <c r="BB14" s="75"/>
-      <c r="BC14" s="75"/>
-      <c r="BD14" s="75"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="77" t="s">
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="105"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="105"/>
+      <c r="AB14" s="103"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="105"/>
+      <c r="AG14" s="103"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="104"/>
+      <c r="AK14" s="105"/>
+      <c r="AL14" s="103"/>
+      <c r="AM14" s="104"/>
+      <c r="AN14" s="104"/>
+      <c r="AO14" s="104"/>
+      <c r="AP14" s="105"/>
+      <c r="AQ14" s="103"/>
+      <c r="AR14" s="104"/>
+      <c r="AS14" s="104"/>
+      <c r="AT14" s="104"/>
+      <c r="AU14" s="105"/>
+      <c r="AV14" s="103"/>
+      <c r="AW14" s="104"/>
+      <c r="AX14" s="104"/>
+      <c r="AY14" s="104"/>
+      <c r="AZ14" s="105"/>
+      <c r="BA14" s="103"/>
+      <c r="BB14" s="104"/>
+      <c r="BC14" s="104"/>
+      <c r="BD14" s="104"/>
+      <c r="BE14" s="105"/>
+      <c r="BF14" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG14" s="78"/>
-      <c r="BH14" s="78"/>
-      <c r="BI14" s="74"/>
-      <c r="BJ14" s="75"/>
-      <c r="BK14" s="75"/>
-      <c r="BL14" s="75"/>
-      <c r="BM14" s="76"/>
-      <c r="BN14" s="72"/>
-      <c r="BO14" s="72"/>
-      <c r="BP14" s="72"/>
-      <c r="BQ14" s="72"/>
-      <c r="BR14" s="72"/>
-      <c r="BS14" s="72"/>
-      <c r="BT14" s="72"/>
-      <c r="BU14" s="72"/>
-      <c r="BV14" s="72"/>
-      <c r="BW14" s="72"/>
-      <c r="BX14" s="73"/>
+      <c r="BG14" s="109"/>
+      <c r="BH14" s="109"/>
+      <c r="BI14" s="103"/>
+      <c r="BJ14" s="104"/>
+      <c r="BK14" s="104"/>
+      <c r="BL14" s="104"/>
+      <c r="BM14" s="105"/>
+      <c r="BN14" s="102"/>
+      <c r="BO14" s="102"/>
+      <c r="BP14" s="102"/>
+      <c r="BQ14" s="102"/>
+      <c r="BR14" s="102"/>
+      <c r="BS14" s="102"/>
+      <c r="BT14" s="102"/>
+      <c r="BU14" s="102"/>
+      <c r="BV14" s="102"/>
+      <c r="BW14" s="102"/>
+      <c r="BX14" s="107"/>
     </row>
     <row r="15" spans="2:76" ht="16.5">
-      <c r="B15" s="90">
+      <c r="B15" s="98">
         <v>10</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="93" t="s">
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="75"/>
-      <c r="T15" s="75"/>
-      <c r="U15" s="75"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="75"/>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="75"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="74"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="74"/>
-      <c r="AM15" s="75"/>
-      <c r="AN15" s="75"/>
-      <c r="AO15" s="75"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="74"/>
-      <c r="AR15" s="75"/>
-      <c r="AS15" s="75"/>
-      <c r="AT15" s="75"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="74"/>
-      <c r="AW15" s="75"/>
-      <c r="AX15" s="75"/>
-      <c r="AY15" s="75"/>
-      <c r="AZ15" s="76"/>
-      <c r="BA15" s="74"/>
-      <c r="BB15" s="75"/>
-      <c r="BC15" s="75"/>
-      <c r="BD15" s="75"/>
-      <c r="BE15" s="76"/>
-      <c r="BF15" s="77" t="s">
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="105"/>
+      <c r="R15" s="103"/>
+      <c r="S15" s="104"/>
+      <c r="T15" s="104"/>
+      <c r="U15" s="104"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="103"/>
+      <c r="X15" s="104"/>
+      <c r="Y15" s="104"/>
+      <c r="Z15" s="104"/>
+      <c r="AA15" s="105"/>
+      <c r="AB15" s="103"/>
+      <c r="AC15" s="104"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="104"/>
+      <c r="AF15" s="105"/>
+      <c r="AG15" s="103"/>
+      <c r="AH15" s="104"/>
+      <c r="AI15" s="104"/>
+      <c r="AJ15" s="104"/>
+      <c r="AK15" s="105"/>
+      <c r="AL15" s="103"/>
+      <c r="AM15" s="104"/>
+      <c r="AN15" s="104"/>
+      <c r="AO15" s="104"/>
+      <c r="AP15" s="105"/>
+      <c r="AQ15" s="103"/>
+      <c r="AR15" s="104"/>
+      <c r="AS15" s="104"/>
+      <c r="AT15" s="104"/>
+      <c r="AU15" s="105"/>
+      <c r="AV15" s="103"/>
+      <c r="AW15" s="104"/>
+      <c r="AX15" s="104"/>
+      <c r="AY15" s="104"/>
+      <c r="AZ15" s="105"/>
+      <c r="BA15" s="103"/>
+      <c r="BB15" s="104"/>
+      <c r="BC15" s="104"/>
+      <c r="BD15" s="104"/>
+      <c r="BE15" s="105"/>
+      <c r="BF15" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="BG15" s="78"/>
-      <c r="BH15" s="78"/>
-      <c r="BI15" s="74"/>
-      <c r="BJ15" s="75"/>
-      <c r="BK15" s="75"/>
-      <c r="BL15" s="75"/>
-      <c r="BM15" s="76"/>
-      <c r="BN15" s="72"/>
-      <c r="BO15" s="72"/>
-      <c r="BP15" s="72"/>
-      <c r="BQ15" s="72"/>
-      <c r="BR15" s="72"/>
-      <c r="BS15" s="72"/>
-      <c r="BT15" s="72"/>
-      <c r="BU15" s="72"/>
-      <c r="BV15" s="72"/>
-      <c r="BW15" s="72"/>
-      <c r="BX15" s="73"/>
+      <c r="BG15" s="109"/>
+      <c r="BH15" s="109"/>
+      <c r="BI15" s="103"/>
+      <c r="BJ15" s="104"/>
+      <c r="BK15" s="104"/>
+      <c r="BL15" s="104"/>
+      <c r="BM15" s="105"/>
+      <c r="BN15" s="102"/>
+      <c r="BO15" s="102"/>
+      <c r="BP15" s="102"/>
+      <c r="BQ15" s="102"/>
+      <c r="BR15" s="102"/>
+      <c r="BS15" s="102"/>
+      <c r="BT15" s="102"/>
+      <c r="BU15" s="102"/>
+      <c r="BV15" s="102"/>
+      <c r="BW15" s="102"/>
+      <c r="BX15" s="107"/>
     </row>
     <row r="16" spans="2:76" ht="16.5">
-      <c r="B16" s="90">
+      <c r="B16" s="98">
         <v>11</v>
       </c>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93" t="s">
+      <c r="C16" s="99"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="74"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="74"/>
-      <c r="AM16" s="75"/>
-      <c r="AN16" s="75"/>
-      <c r="AO16" s="75"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="74"/>
-      <c r="AR16" s="75"/>
-      <c r="AS16" s="75"/>
-      <c r="AT16" s="75"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="74"/>
-      <c r="AW16" s="75"/>
-      <c r="AX16" s="75"/>
-      <c r="AY16" s="75"/>
-      <c r="AZ16" s="76"/>
-      <c r="BA16" s="74"/>
-      <c r="BB16" s="75"/>
-      <c r="BC16" s="75"/>
-      <c r="BD16" s="75"/>
-      <c r="BE16" s="76"/>
-      <c r="BF16" s="77" t="s">
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="106"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="105"/>
+      <c r="R16" s="103"/>
+      <c r="S16" s="104"/>
+      <c r="T16" s="104"/>
+      <c r="U16" s="104"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="103"/>
+      <c r="X16" s="104"/>
+      <c r="Y16" s="104"/>
+      <c r="Z16" s="104"/>
+      <c r="AA16" s="105"/>
+      <c r="AB16" s="103"/>
+      <c r="AC16" s="104"/>
+      <c r="AD16" s="104"/>
+      <c r="AE16" s="104"/>
+      <c r="AF16" s="105"/>
+      <c r="AG16" s="103"/>
+      <c r="AH16" s="104"/>
+      <c r="AI16" s="104"/>
+      <c r="AJ16" s="104"/>
+      <c r="AK16" s="105"/>
+      <c r="AL16" s="103"/>
+      <c r="AM16" s="104"/>
+      <c r="AN16" s="104"/>
+      <c r="AO16" s="104"/>
+      <c r="AP16" s="105"/>
+      <c r="AQ16" s="103"/>
+      <c r="AR16" s="104"/>
+      <c r="AS16" s="104"/>
+      <c r="AT16" s="104"/>
+      <c r="AU16" s="105"/>
+      <c r="AV16" s="103"/>
+      <c r="AW16" s="104"/>
+      <c r="AX16" s="104"/>
+      <c r="AY16" s="104"/>
+      <c r="AZ16" s="105"/>
+      <c r="BA16" s="103"/>
+      <c r="BB16" s="104"/>
+      <c r="BC16" s="104"/>
+      <c r="BD16" s="104"/>
+      <c r="BE16" s="105"/>
+      <c r="BF16" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="BG16" s="78"/>
-      <c r="BH16" s="78"/>
-      <c r="BI16" s="74"/>
-      <c r="BJ16" s="75"/>
-      <c r="BK16" s="75"/>
-      <c r="BL16" s="75"/>
-      <c r="BM16" s="76"/>
-      <c r="BN16" s="72"/>
-      <c r="BO16" s="72"/>
-      <c r="BP16" s="72"/>
-      <c r="BQ16" s="72"/>
-      <c r="BR16" s="72"/>
-      <c r="BS16" s="72"/>
-      <c r="BT16" s="72"/>
-      <c r="BU16" s="72"/>
-      <c r="BV16" s="72"/>
-      <c r="BW16" s="72"/>
-      <c r="BX16" s="73"/>
+      <c r="BG16" s="109"/>
+      <c r="BH16" s="109"/>
+      <c r="BI16" s="103"/>
+      <c r="BJ16" s="104"/>
+      <c r="BK16" s="104"/>
+      <c r="BL16" s="104"/>
+      <c r="BM16" s="105"/>
+      <c r="BN16" s="102"/>
+      <c r="BO16" s="102"/>
+      <c r="BP16" s="102"/>
+      <c r="BQ16" s="102"/>
+      <c r="BR16" s="102"/>
+      <c r="BS16" s="102"/>
+      <c r="BT16" s="102"/>
+      <c r="BU16" s="102"/>
+      <c r="BV16" s="102"/>
+      <c r="BW16" s="102"/>
+      <c r="BX16" s="107"/>
     </row>
     <row r="17" spans="2:76" ht="16.5">
-      <c r="B17" s="90">
+      <c r="B17" s="98">
         <v>12</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93" t="s">
+      <c r="C17" s="99"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="74"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="74"/>
-      <c r="AM17" s="75"/>
-      <c r="AN17" s="75"/>
-      <c r="AO17" s="75"/>
-      <c r="AP17" s="76"/>
-      <c r="AQ17" s="74"/>
-      <c r="AR17" s="75"/>
-      <c r="AS17" s="75"/>
-      <c r="AT17" s="75"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="74"/>
-      <c r="AW17" s="75"/>
-      <c r="AX17" s="75"/>
-      <c r="AY17" s="75"/>
-      <c r="AZ17" s="76"/>
-      <c r="BA17" s="74"/>
-      <c r="BB17" s="75"/>
-      <c r="BC17" s="75"/>
-      <c r="BD17" s="75"/>
-      <c r="BE17" s="76"/>
-      <c r="BF17" s="77" t="s">
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="105"/>
+      <c r="R17" s="103"/>
+      <c r="S17" s="104"/>
+      <c r="T17" s="104"/>
+      <c r="U17" s="104"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="103"/>
+      <c r="X17" s="104"/>
+      <c r="Y17" s="104"/>
+      <c r="Z17" s="104"/>
+      <c r="AA17" s="105"/>
+      <c r="AB17" s="103"/>
+      <c r="AC17" s="104"/>
+      <c r="AD17" s="104"/>
+      <c r="AE17" s="104"/>
+      <c r="AF17" s="105"/>
+      <c r="AG17" s="103"/>
+      <c r="AH17" s="104"/>
+      <c r="AI17" s="104"/>
+      <c r="AJ17" s="104"/>
+      <c r="AK17" s="105"/>
+      <c r="AL17" s="103"/>
+      <c r="AM17" s="104"/>
+      <c r="AN17" s="104"/>
+      <c r="AO17" s="104"/>
+      <c r="AP17" s="105"/>
+      <c r="AQ17" s="103"/>
+      <c r="AR17" s="104"/>
+      <c r="AS17" s="104"/>
+      <c r="AT17" s="104"/>
+      <c r="AU17" s="105"/>
+      <c r="AV17" s="103"/>
+      <c r="AW17" s="104"/>
+      <c r="AX17" s="104"/>
+      <c r="AY17" s="104"/>
+      <c r="AZ17" s="105"/>
+      <c r="BA17" s="103"/>
+      <c r="BB17" s="104"/>
+      <c r="BC17" s="104"/>
+      <c r="BD17" s="104"/>
+      <c r="BE17" s="105"/>
+      <c r="BF17" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG17" s="78"/>
-      <c r="BH17" s="78"/>
-      <c r="BI17" s="74"/>
-      <c r="BJ17" s="75"/>
-      <c r="BK17" s="75"/>
-      <c r="BL17" s="75"/>
-      <c r="BM17" s="76"/>
-      <c r="BN17" s="72"/>
-      <c r="BO17" s="72"/>
-      <c r="BP17" s="72"/>
-      <c r="BQ17" s="72"/>
-      <c r="BR17" s="72"/>
-      <c r="BS17" s="72"/>
-      <c r="BT17" s="72"/>
-      <c r="BU17" s="72"/>
-      <c r="BV17" s="72"/>
-      <c r="BW17" s="72"/>
-      <c r="BX17" s="73"/>
+      <c r="BG17" s="109"/>
+      <c r="BH17" s="109"/>
+      <c r="BI17" s="103"/>
+      <c r="BJ17" s="104"/>
+      <c r="BK17" s="104"/>
+      <c r="BL17" s="104"/>
+      <c r="BM17" s="105"/>
+      <c r="BN17" s="102"/>
+      <c r="BO17" s="102"/>
+      <c r="BP17" s="102"/>
+      <c r="BQ17" s="102"/>
+      <c r="BR17" s="102"/>
+      <c r="BS17" s="102"/>
+      <c r="BT17" s="102"/>
+      <c r="BU17" s="102"/>
+      <c r="BV17" s="102"/>
+      <c r="BW17" s="102"/>
+      <c r="BX17" s="107"/>
     </row>
     <row r="18" spans="2:76" ht="16.5">
-      <c r="B18" s="90">
+      <c r="B18" s="98">
         <v>13</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93" t="s">
+      <c r="C18" s="99"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="103"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="74"/>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="103"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="75"/>
-      <c r="AJ18" s="75"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="74"/>
-      <c r="AM18" s="75"/>
-      <c r="AN18" s="75"/>
-      <c r="AO18" s="75"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="74"/>
-      <c r="AR18" s="75"/>
-      <c r="AS18" s="75"/>
-      <c r="AT18" s="75"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="74"/>
-      <c r="AW18" s="75"/>
-      <c r="AX18" s="75"/>
-      <c r="AY18" s="75"/>
-      <c r="AZ18" s="76"/>
-      <c r="BA18" s="74"/>
-      <c r="BB18" s="75"/>
-      <c r="BC18" s="75"/>
-      <c r="BD18" s="75"/>
-      <c r="BE18" s="76"/>
-      <c r="BF18" s="77" t="s">
+      <c r="F18" s="102"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="105"/>
+      <c r="R18" s="103"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="105"/>
+      <c r="AB18" s="103"/>
+      <c r="AC18" s="104"/>
+      <c r="AD18" s="104"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="105"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="104"/>
+      <c r="AK18" s="105"/>
+      <c r="AL18" s="103"/>
+      <c r="AM18" s="104"/>
+      <c r="AN18" s="104"/>
+      <c r="AO18" s="104"/>
+      <c r="AP18" s="105"/>
+      <c r="AQ18" s="103"/>
+      <c r="AR18" s="104"/>
+      <c r="AS18" s="104"/>
+      <c r="AT18" s="104"/>
+      <c r="AU18" s="105"/>
+      <c r="AV18" s="103"/>
+      <c r="AW18" s="104"/>
+      <c r="AX18" s="104"/>
+      <c r="AY18" s="104"/>
+      <c r="AZ18" s="105"/>
+      <c r="BA18" s="103"/>
+      <c r="BB18" s="104"/>
+      <c r="BC18" s="104"/>
+      <c r="BD18" s="104"/>
+      <c r="BE18" s="105"/>
+      <c r="BF18" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="BG18" s="78"/>
-      <c r="BH18" s="78"/>
-      <c r="BI18" s="74"/>
-      <c r="BJ18" s="75"/>
-      <c r="BK18" s="75"/>
-      <c r="BL18" s="75"/>
-      <c r="BM18" s="76"/>
-      <c r="BN18" s="72"/>
-      <c r="BO18" s="72"/>
-      <c r="BP18" s="72"/>
-      <c r="BQ18" s="72"/>
-      <c r="BR18" s="72"/>
-      <c r="BS18" s="72"/>
-      <c r="BT18" s="72"/>
-      <c r="BU18" s="72"/>
-      <c r="BV18" s="72"/>
-      <c r="BW18" s="72"/>
-      <c r="BX18" s="73"/>
+      <c r="BG18" s="109"/>
+      <c r="BH18" s="109"/>
+      <c r="BI18" s="103"/>
+      <c r="BJ18" s="104"/>
+      <c r="BK18" s="104"/>
+      <c r="BL18" s="104"/>
+      <c r="BM18" s="105"/>
+      <c r="BN18" s="102"/>
+      <c r="BO18" s="102"/>
+      <c r="BP18" s="102"/>
+      <c r="BQ18" s="102"/>
+      <c r="BR18" s="102"/>
+      <c r="BS18" s="102"/>
+      <c r="BT18" s="102"/>
+      <c r="BU18" s="102"/>
+      <c r="BV18" s="102"/>
+      <c r="BW18" s="102"/>
+      <c r="BX18" s="107"/>
     </row>
     <row r="19" spans="2:76" ht="16.5" customHeight="1">
-      <c r="B19" s="85">
+      <c r="B19" s="110">
         <v>14</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88" t="s">
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="97"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="96"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="97"/>
-      <c r="AL19" s="98"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="96"/>
-      <c r="AO19" s="96"/>
-      <c r="AP19" s="97"/>
-      <c r="AQ19" s="98"/>
-      <c r="AR19" s="96"/>
-      <c r="AS19" s="96"/>
-      <c r="AT19" s="96"/>
-      <c r="AU19" s="97"/>
-      <c r="AV19" s="98"/>
-      <c r="AW19" s="96"/>
-      <c r="AX19" s="96"/>
-      <c r="AY19" s="96"/>
-      <c r="AZ19" s="97"/>
-      <c r="BA19" s="98"/>
-      <c r="BB19" s="96"/>
-      <c r="BC19" s="96"/>
-      <c r="BD19" s="96"/>
-      <c r="BE19" s="97"/>
-      <c r="BF19" s="108" t="s">
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="114"/>
+      <c r="J19" s="114"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="116"/>
+      <c r="Y19" s="116"/>
+      <c r="Z19" s="116"/>
+      <c r="AA19" s="117"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="116"/>
+      <c r="AD19" s="116"/>
+      <c r="AE19" s="116"/>
+      <c r="AF19" s="117"/>
+      <c r="AG19" s="115"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="116"/>
+      <c r="AJ19" s="116"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="118"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="116"/>
+      <c r="AO19" s="116"/>
+      <c r="AP19" s="117"/>
+      <c r="AQ19" s="118"/>
+      <c r="AR19" s="116"/>
+      <c r="AS19" s="116"/>
+      <c r="AT19" s="116"/>
+      <c r="AU19" s="117"/>
+      <c r="AV19" s="118"/>
+      <c r="AW19" s="116"/>
+      <c r="AX19" s="116"/>
+      <c r="AY19" s="116"/>
+      <c r="AZ19" s="117"/>
+      <c r="BA19" s="118"/>
+      <c r="BB19" s="116"/>
+      <c r="BC19" s="116"/>
+      <c r="BD19" s="116"/>
+      <c r="BE19" s="117"/>
+      <c r="BF19" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="BG19" s="109"/>
-      <c r="BH19" s="109"/>
-      <c r="BI19" s="98"/>
-      <c r="BJ19" s="96"/>
-      <c r="BK19" s="96"/>
-      <c r="BL19" s="96"/>
-      <c r="BM19" s="97"/>
-      <c r="BN19" s="89"/>
-      <c r="BO19" s="89"/>
-      <c r="BP19" s="89"/>
-      <c r="BQ19" s="89"/>
-      <c r="BR19" s="89"/>
-      <c r="BS19" s="89"/>
-      <c r="BT19" s="89"/>
-      <c r="BU19" s="89"/>
-      <c r="BV19" s="89"/>
-      <c r="BW19" s="89"/>
-      <c r="BX19" s="110"/>
+      <c r="BG19" s="120"/>
+      <c r="BH19" s="120"/>
+      <c r="BI19" s="118"/>
+      <c r="BJ19" s="116"/>
+      <c r="BK19" s="116"/>
+      <c r="BL19" s="116"/>
+      <c r="BM19" s="117"/>
+      <c r="BN19" s="114"/>
+      <c r="BO19" s="114"/>
+      <c r="BP19" s="114"/>
+      <c r="BQ19" s="114"/>
+      <c r="BR19" s="114"/>
+      <c r="BS19" s="114"/>
+      <c r="BT19" s="114"/>
+      <c r="BU19" s="114"/>
+      <c r="BV19" s="114"/>
+      <c r="BW19" s="114"/>
+      <c r="BX19" s="121"/>
     </row>
     <row r="20" spans="2:76" ht="16.5">
       <c r="B20" s="35" t="s">
@@ -8397,6 +8247,194 @@
     <row r="24" spans="2:76" ht="9" customHeight="1"/>
   </sheetData>
   <mergeCells count="212">
+    <mergeCell ref="AG11:AK11"/>
+    <mergeCell ref="AL11:AP11"/>
+    <mergeCell ref="AG6:AK6"/>
+    <mergeCell ref="AL6:AP6"/>
+    <mergeCell ref="AG7:AK7"/>
+    <mergeCell ref="AL7:AP7"/>
+    <mergeCell ref="AG8:AK8"/>
+    <mergeCell ref="AL8:AP8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BM8"/>
+    <mergeCell ref="BN8:BX8"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AB8:AF8"/>
+    <mergeCell ref="AQ8:AU8"/>
+    <mergeCell ref="AV8:AZ8"/>
+    <mergeCell ref="BA8:BE8"/>
+    <mergeCell ref="BA10:BE10"/>
+    <mergeCell ref="AQ10:AU10"/>
+    <mergeCell ref="AV10:AZ10"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BM10"/>
+    <mergeCell ref="BN10:BX10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="AB10:AF10"/>
+    <mergeCell ref="AG10:AK10"/>
+    <mergeCell ref="AL10:AP10"/>
+    <mergeCell ref="BN11:BX11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="AB11:AF11"/>
+    <mergeCell ref="BA11:BE11"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="BI9:BM9"/>
+    <mergeCell ref="BN9:BX9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AQ11:AU11"/>
+    <mergeCell ref="AV11:AZ11"/>
+    <mergeCell ref="BF11:BH11"/>
+    <mergeCell ref="BI11:BM11"/>
+    <mergeCell ref="AB7:AF7"/>
+    <mergeCell ref="AQ7:AU7"/>
+    <mergeCell ref="AV7:AZ7"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BM7"/>
+    <mergeCell ref="BN7:BX7"/>
+    <mergeCell ref="AQ6:AU6"/>
+    <mergeCell ref="AV6:AZ6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="BI6:BM6"/>
+    <mergeCell ref="BN6:BX6"/>
+    <mergeCell ref="BI5:BM5"/>
+    <mergeCell ref="BN5:BX5"/>
+    <mergeCell ref="BA6:BE6"/>
+    <mergeCell ref="BA7:BE7"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="AB3:AF3"/>
+    <mergeCell ref="BA3:BE3"/>
+    <mergeCell ref="BA5:BE5"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AP3"/>
+    <mergeCell ref="AG5:AK5"/>
+    <mergeCell ref="AL5:AP5"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="B4:BX4"/>
+    <mergeCell ref="AQ3:AU3"/>
+    <mergeCell ref="AV3:AZ3"/>
+    <mergeCell ref="BF3:BH3"/>
+    <mergeCell ref="BI3:BM3"/>
+    <mergeCell ref="BN3:BX3"/>
+    <mergeCell ref="AQ5:AU5"/>
+    <mergeCell ref="AV5:AZ5"/>
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="AB5:AF5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:L5"/>
+    <mergeCell ref="M5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="W13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="AG13:AK13"/>
+    <mergeCell ref="AL13:AP13"/>
+    <mergeCell ref="AQ13:AU13"/>
+    <mergeCell ref="AV13:AZ13"/>
+    <mergeCell ref="BA13:BE13"/>
+    <mergeCell ref="BF13:BH13"/>
+    <mergeCell ref="BI13:BM13"/>
+    <mergeCell ref="BN13:BX13"/>
+    <mergeCell ref="AV14:AZ14"/>
+    <mergeCell ref="BA14:BE14"/>
+    <mergeCell ref="BF14:BH14"/>
+    <mergeCell ref="BI14:BM14"/>
+    <mergeCell ref="BN14:BX14"/>
+    <mergeCell ref="AV15:AZ15"/>
+    <mergeCell ref="BA15:BE15"/>
+    <mergeCell ref="BF15:BH15"/>
+    <mergeCell ref="BI15:BM15"/>
+    <mergeCell ref="BN15:BX15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="R14:V14"/>
+    <mergeCell ref="W14:AA14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="AG15:AK15"/>
+    <mergeCell ref="AL15:AP15"/>
+    <mergeCell ref="AQ15:AU15"/>
+    <mergeCell ref="AB14:AF14"/>
+    <mergeCell ref="AG14:AK14"/>
+    <mergeCell ref="AL14:AP14"/>
+    <mergeCell ref="AQ14:AU14"/>
+    <mergeCell ref="BN16:BX16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="W17:AA17"/>
+    <mergeCell ref="AB17:AF17"/>
+    <mergeCell ref="AG17:AK17"/>
+    <mergeCell ref="AL17:AP17"/>
+    <mergeCell ref="AQ17:AU17"/>
+    <mergeCell ref="AV17:AZ17"/>
+    <mergeCell ref="BA17:BE17"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BM17"/>
+    <mergeCell ref="BN17:BX17"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:L16"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="AG16:AK16"/>
+    <mergeCell ref="AL16:AP16"/>
+    <mergeCell ref="AQ16:AU16"/>
+    <mergeCell ref="W18:AA18"/>
+    <mergeCell ref="AB18:AF18"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="AL18:AP18"/>
+    <mergeCell ref="AQ18:AU18"/>
+    <mergeCell ref="AV16:AZ16"/>
+    <mergeCell ref="BA16:BE16"/>
+    <mergeCell ref="BF16:BH16"/>
+    <mergeCell ref="BI16:BM16"/>
     <mergeCell ref="B12:BX12"/>
     <mergeCell ref="AV18:AZ18"/>
     <mergeCell ref="BA18:BE18"/>
@@ -8421,194 +8459,6 @@
     <mergeCell ref="E18:L18"/>
     <mergeCell ref="M18:Q18"/>
     <mergeCell ref="R18:V18"/>
-    <mergeCell ref="W18:AA18"/>
-    <mergeCell ref="AB18:AF18"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="AL18:AP18"/>
-    <mergeCell ref="AQ18:AU18"/>
-    <mergeCell ref="AV16:AZ16"/>
-    <mergeCell ref="BA16:BE16"/>
-    <mergeCell ref="BF16:BH16"/>
-    <mergeCell ref="BI16:BM16"/>
-    <mergeCell ref="BN16:BX16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="W17:AA17"/>
-    <mergeCell ref="AB17:AF17"/>
-    <mergeCell ref="AG17:AK17"/>
-    <mergeCell ref="AL17:AP17"/>
-    <mergeCell ref="AQ17:AU17"/>
-    <mergeCell ref="AV17:AZ17"/>
-    <mergeCell ref="BA17:BE17"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BM17"/>
-    <mergeCell ref="BN17:BX17"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:L16"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="AG16:AK16"/>
-    <mergeCell ref="AL16:AP16"/>
-    <mergeCell ref="AQ16:AU16"/>
-    <mergeCell ref="AV15:AZ15"/>
-    <mergeCell ref="BA15:BE15"/>
-    <mergeCell ref="BF15:BH15"/>
-    <mergeCell ref="BI15:BM15"/>
-    <mergeCell ref="BN15:BX15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="R14:V14"/>
-    <mergeCell ref="W14:AA14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="AG15:AK15"/>
-    <mergeCell ref="AL15:AP15"/>
-    <mergeCell ref="AQ15:AU15"/>
-    <mergeCell ref="AB14:AF14"/>
-    <mergeCell ref="AG14:AK14"/>
-    <mergeCell ref="AL14:AP14"/>
-    <mergeCell ref="AQ14:AU14"/>
-    <mergeCell ref="AV13:AZ13"/>
-    <mergeCell ref="BA13:BE13"/>
-    <mergeCell ref="BF13:BH13"/>
-    <mergeCell ref="BI13:BM13"/>
-    <mergeCell ref="BN13:BX13"/>
-    <mergeCell ref="AV14:AZ14"/>
-    <mergeCell ref="BA14:BE14"/>
-    <mergeCell ref="BF14:BH14"/>
-    <mergeCell ref="BI14:BM14"/>
-    <mergeCell ref="BN14:BX14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="W13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="AG13:AK13"/>
-    <mergeCell ref="AL13:AP13"/>
-    <mergeCell ref="AQ13:AU13"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="AB5:AF5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:L5"/>
-    <mergeCell ref="M5:Q5"/>
-    <mergeCell ref="R5:V5"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="AB3:AF3"/>
-    <mergeCell ref="BA3:BE3"/>
-    <mergeCell ref="BA5:BE5"/>
-    <mergeCell ref="AG3:AK3"/>
-    <mergeCell ref="AL3:AP3"/>
-    <mergeCell ref="AG5:AK5"/>
-    <mergeCell ref="AL5:AP5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="B4:BX4"/>
-    <mergeCell ref="AQ3:AU3"/>
-    <mergeCell ref="AV3:AZ3"/>
-    <mergeCell ref="BF3:BH3"/>
-    <mergeCell ref="BI3:BM3"/>
-    <mergeCell ref="BN3:BX3"/>
-    <mergeCell ref="AQ5:AU5"/>
-    <mergeCell ref="AV5:AZ5"/>
-    <mergeCell ref="BI7:BM7"/>
-    <mergeCell ref="BN7:BX7"/>
-    <mergeCell ref="AQ6:AU6"/>
-    <mergeCell ref="AV6:AZ6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BM6"/>
-    <mergeCell ref="BN6:BX6"/>
-    <mergeCell ref="BI5:BM5"/>
-    <mergeCell ref="BN5:BX5"/>
-    <mergeCell ref="BA6:BE6"/>
-    <mergeCell ref="BA7:BE7"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="AB7:AF7"/>
-    <mergeCell ref="AQ7:AU7"/>
-    <mergeCell ref="AV7:AZ7"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BN11:BX11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="AB11:AF11"/>
-    <mergeCell ref="BA11:BE11"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BM9"/>
-    <mergeCell ref="BN9:BX9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AQ11:AU11"/>
-    <mergeCell ref="AV11:AZ11"/>
-    <mergeCell ref="BF11:BH11"/>
-    <mergeCell ref="BI11:BM11"/>
-    <mergeCell ref="BA10:BE10"/>
-    <mergeCell ref="AQ10:AU10"/>
-    <mergeCell ref="AV10:AZ10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BM10"/>
-    <mergeCell ref="BN10:BX10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="AB10:AF10"/>
-    <mergeCell ref="AG10:AK10"/>
-    <mergeCell ref="AL10:AP10"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BM8"/>
-    <mergeCell ref="BN8:BX8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AB8:AF8"/>
-    <mergeCell ref="AQ8:AU8"/>
-    <mergeCell ref="AV8:AZ8"/>
-    <mergeCell ref="BA8:BE8"/>
-    <mergeCell ref="AG11:AK11"/>
-    <mergeCell ref="AL11:AP11"/>
-    <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AL6:AP6"/>
-    <mergeCell ref="AG7:AK7"/>
-    <mergeCell ref="AL7:AP7"/>
-    <mergeCell ref="AG8:AK8"/>
-    <mergeCell ref="AL8:AP8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AL9:AP9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="M5:BE11 BI5:BM11 M13:BE19 BI13:BM19">
@@ -8629,7 +8479,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3688848F-C6CD-48EC-A381-C0A76EF5A7FF}">
           <x14:formula1>
-            <xm:f>実施結果報告書!$M$1:$M$4</xm:f>
+            <xm:f>実施結果報告書!$M$1:$M$5</xm:f>
           </x14:formula1>
           <xm:sqref>M5:BE11 BI13:BM19 M13:BE19 BI5:BM11</xm:sqref>
         </x14:dataValidation>
